--- a/input/PL/reg_home_ownership.xlsx
+++ b/input/PL/reg_home_ownership.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF473A3C-AA9C-EF49-B10B-A968D538743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D5B6E-4BB3-B644-9D22-4284B6F62B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14560" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13880" yWindow="760" windowWidth="16360" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="HO1a" sheetId="3" r:id="rId2"/>
+    <sheet name="Gof" sheetId="2" r:id="rId2"/>
+    <sheet name="HO1a" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +42,10 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Have combined dhhtp_c4 and lessp_c3 into a single variable with 8 cateogries, dhhtp_c8</t>
+    <t>Regions: PL4 = Polnocno-Zachodni, PL5 = Poludniowo-Zachodni, PL6 = Polnocy, PL10 = Central + East. Poludniowy is the omitted category.</t>
+  </si>
+  <si>
+    <t>Goodness of fit</t>
   </si>
   <si>
     <t>REGRESSOR</t>
@@ -122,6 +126,18 @@
     <t>Dhh_owned_L1</t>
   </si>
   <si>
+    <t>PL4</t>
+  </si>
+  <si>
+    <t>PL5</t>
+  </si>
+  <si>
+    <t>PL6</t>
+  </si>
+  <si>
+    <t>PL10</t>
+  </si>
+  <si>
     <t>Year_transformed</t>
   </si>
   <si>
@@ -132,31 +148,21 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>PL4</t>
-  </si>
-  <si>
-    <t>PL5</t>
-  </si>
-  <si>
-    <t>PL6</t>
-  </si>
-  <si>
-    <t>Regions: PL4 = Polnocno-Zachodni, PL5 = Poludniowo-Zachodni, PL6 = Polnocy, PL10 = Central + East. Poludniowy is the omitted category.</t>
-  </si>
-  <si>
-    <t>PL10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -177,176 +183,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,245 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -638,46 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,9 +617,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>40</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1060,3447 +640,3446 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AH1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="38">
-        <v>1.2487487083175952E-2</v>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-2.9802992375813627E-2</v>
       </c>
       <c r="C2">
-        <v>5.0985729011693E-4</v>
+        <v>9.0267182082252406E-4</v>
       </c>
       <c r="D2">
-        <v>6.4854030724188281E-6</v>
+        <v>1.2048084459360889E-5</v>
       </c>
       <c r="E2">
-        <v>-4.9808900163760097E-8</v>
+        <v>-7.705831392157608E-8</v>
       </c>
       <c r="F2">
-        <v>-2.4743283289578686E-4</v>
+        <v>-1.4851407455910811E-4</v>
       </c>
       <c r="G2">
-        <v>-1.0541909258182646E-4</v>
+        <v>-1.5980846176353E-4</v>
       </c>
       <c r="H2">
-        <v>3.8525010158422438E-5</v>
+        <v>-2.6570588120182123E-5</v>
       </c>
       <c r="I2">
-        <v>-2.1214856275671525E-4</v>
+        <v>-1.4306658569717215E-4</v>
       </c>
       <c r="J2">
-        <v>-1.7764136541972137E-4</v>
+        <v>-1.8425152743446592E-4</v>
       </c>
       <c r="K2">
-        <v>-3.3658451280356341E-5</v>
+        <v>1.9737027493914522E-4</v>
       </c>
       <c r="L2">
-        <v>1.7605670946978404E-4</v>
+        <v>4.7518044144907945E-4</v>
       </c>
       <c r="M2">
-        <v>1.0057101337731058E-4</v>
+        <v>1.5216173681421115E-4</v>
       </c>
       <c r="N2">
-        <v>9.8666199291812376E-5</v>
+        <v>3.3467918748957416E-5</v>
       </c>
       <c r="O2">
-        <v>-1.0924282851627542E-5</v>
+        <v>-5.6622934486791511E-5</v>
       </c>
       <c r="P2">
-        <v>3.1957366783621534E-5</v>
+        <v>8.4631930836750829E-6</v>
       </c>
       <c r="Q2">
-        <v>-2.7555455138435986E-5</v>
+        <v>1.2349254655087661E-4</v>
       </c>
       <c r="R2">
-        <v>1.8024529134122181E-5</v>
+        <v>1.9035035252080133E-4</v>
       </c>
       <c r="S2">
-        <v>3.4910458367521947E-5</v>
+        <v>1.978242367510187E-4</v>
       </c>
       <c r="T2">
-        <v>-2.1923498827584511E-5</v>
+        <v>1.9828961769724842E-5</v>
       </c>
       <c r="U2">
-        <v>-1.5840744043522951E-5</v>
+        <v>-9.57975951133598E-5</v>
       </c>
       <c r="V2">
-        <v>3.428607753602349E-7</v>
+        <v>-2.9712171331673928E-5</v>
       </c>
       <c r="W2">
-        <v>-3.2138066265636529E-5</v>
+        <v>-8.4957249410364032E-5</v>
       </c>
       <c r="X2">
-        <v>-2.7153992286396879E-5</v>
+        <v>-1.5476217504915585E-4</v>
       </c>
       <c r="Y2">
-        <v>8.0515421347049005E-6</v>
+        <v>2.6511522312251431E-5</v>
       </c>
       <c r="Z2">
-        <v>-1.0205046965530909E-5</v>
+        <v>-1.2069559280475999E-5</v>
       </c>
       <c r="AA2">
-        <v>-1.7689634487173019E-5</v>
+        <v>4.7501700915506521E-5</v>
       </c>
       <c r="AB2">
-        <v>4.612929186166963E-6</v>
+        <v>8.3910774580279665E-5</v>
       </c>
       <c r="AC2">
-        <v>-7.9311031574697379E-6</v>
+        <v>1.8009551367501525E-5</v>
       </c>
       <c r="AD2">
-        <v>6.3496126118559745E-6</v>
+        <v>1.9915528541144324E-5</v>
       </c>
       <c r="AE2">
-        <v>3.0977092293611811E-8</v>
+        <v>-4.3639114762767438E-6</v>
       </c>
       <c r="AF2">
-        <v>3.32270419110664E-5</v>
+        <v>1.4864086895563489E-4</v>
       </c>
       <c r="AG2">
-        <v>1.2110335424800447E-6</v>
+        <v>-4.1545865855138682E-5</v>
       </c>
       <c r="AH2">
-        <v>-4.389932419707138E-4</v>
+        <v>-1.0329705231965363E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="38">
-        <v>5.3532753582598023E-3</v>
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.9162183192736803E-3</v>
       </c>
       <c r="C3">
-        <v>6.4854030724188281E-6</v>
+        <v>1.2048084459360889E-5</v>
       </c>
       <c r="D3">
-        <v>2.1660384801116284E-5</v>
+        <v>3.7768702465270301E-5</v>
       </c>
       <c r="E3">
-        <v>-2.0803222121749734E-7</v>
+        <v>-3.7996852424814971E-7</v>
       </c>
       <c r="F3">
-        <v>3.9063685022342441E-5</v>
+        <v>6.1491204234794114E-5</v>
       </c>
       <c r="G3">
-        <v>2.8039615149102677E-5</v>
+        <v>3.3944457436239514E-5</v>
       </c>
       <c r="H3">
-        <v>1.6567949034397149E-5</v>
+        <v>-8.4401125356746475E-6</v>
       </c>
       <c r="I3">
-        <v>6.7984836813901963E-5</v>
+        <v>8.4463878190792988E-5</v>
       </c>
       <c r="J3">
-        <v>1.6449721361476606E-5</v>
+        <v>-1.2368979571665171E-5</v>
       </c>
       <c r="K3">
-        <v>3.6970493449951839E-5</v>
+        <v>3.2370599849028755E-5</v>
       </c>
       <c r="L3">
-        <v>-7.8546018753381799E-6</v>
+        <v>-4.95012999908992E-5</v>
       </c>
       <c r="M3">
-        <v>1.2103669801985173E-4</v>
+        <v>1.6309251307724813E-4</v>
       </c>
       <c r="N3">
-        <v>2.2042337206114292E-5</v>
+        <v>4.6018662546889089E-5</v>
       </c>
       <c r="O3">
-        <v>-1.5313396933818924E-5</v>
+        <v>-2.1957908778529677E-5</v>
       </c>
       <c r="P3">
-        <v>8.358582316831504E-7</v>
+        <v>3.0074398335221087E-6</v>
       </c>
       <c r="Q3">
-        <v>-1.9218169860092027E-5</v>
+        <v>1.2732706508277868E-4</v>
       </c>
       <c r="R3">
-        <v>-3.7207368112170017E-5</v>
+        <v>1.2162822416105748E-4</v>
       </c>
       <c r="S3">
-        <v>-1.3260913622587542E-5</v>
+        <v>1.5398614594633634E-4</v>
       </c>
       <c r="T3">
-        <v>1.86722563590956E-5</v>
+        <v>1.9799636574217061E-4</v>
       </c>
       <c r="U3">
-        <v>-1.5084395861254279E-6</v>
+        <v>-2.122153273784025E-5</v>
       </c>
       <c r="V3">
-        <v>-1.7773091032660448E-5</v>
+        <v>-4.9561718109756591E-5</v>
       </c>
       <c r="W3">
-        <v>-1.7725428851976158E-5</v>
+        <v>-5.0766914968093229E-5</v>
       </c>
       <c r="X3">
-        <v>-2.6832264878845274E-5</v>
+        <v>-7.136361505733727E-5</v>
       </c>
       <c r="Y3">
-        <v>5.1918775570460752E-7</v>
+        <v>3.9666005219691157E-6</v>
       </c>
       <c r="Z3">
-        <v>-8.1333625158732075E-6</v>
+        <v>-8.4805149779909557E-6</v>
       </c>
       <c r="AA3">
-        <v>-1.8397904489040462E-5</v>
+        <v>-4.2955015750621711E-5</v>
       </c>
       <c r="AB3">
-        <v>1.0447901649068521E-5</v>
+        <v>1.5610848073999476E-6</v>
       </c>
       <c r="AC3">
-        <v>-2.3432938846477044E-6</v>
+        <v>-2.8185263448823102E-6</v>
       </c>
       <c r="AD3">
-        <v>4.5155970790922975E-6</v>
+        <v>7.290683188268456E-7</v>
       </c>
       <c r="AE3">
-        <v>3.6245662912667931E-7</v>
+        <v>5.0933298420089985E-7</v>
       </c>
       <c r="AF3">
-        <v>-2.5326301482947759E-5</v>
+        <v>-5.096705934593557E-5</v>
       </c>
       <c r="AG3">
-        <v>4.5151840262410841E-6</v>
+        <v>7.9418231192384292E-6</v>
       </c>
       <c r="AH3">
-        <v>-5.0419684697400064E-4</v>
+        <v>-9.732709752149479E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="38">
-        <v>-5.757175106583059E-5</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-4.3053829998939033E-5</v>
       </c>
       <c r="C4">
-        <v>-4.9808900163760097E-8</v>
+        <v>-7.705831392157608E-8</v>
       </c>
       <c r="D4">
-        <v>-2.0803222121749734E-7</v>
+        <v>-3.7996852424814971E-7</v>
       </c>
       <c r="E4">
-        <v>2.0808047414278053E-9</v>
+        <v>3.9308127402483914E-9</v>
       </c>
       <c r="F4">
-        <v>-3.0825181736381939E-7</v>
+        <v>-5.0128555290128188E-7</v>
       </c>
       <c r="G4">
-        <v>-3.3984130975312779E-7</v>
+        <v>-4.1415937791921827E-7</v>
       </c>
       <c r="H4">
-        <v>-8.5872270288606773E-8</v>
+        <v>1.6131345441740973E-7</v>
       </c>
       <c r="I4">
-        <v>-5.5640182834899678E-7</v>
+        <v>-7.2795552833134329E-7</v>
       </c>
       <c r="J4">
-        <v>-9.4248956200806748E-8</v>
+        <v>2.1882305812137423E-7</v>
       </c>
       <c r="K4">
-        <v>-3.3710584744285328E-7</v>
+        <v>-2.7041503246385228E-7</v>
       </c>
       <c r="L4">
-        <v>1.5753064026408259E-7</v>
+        <v>6.338938332980539E-7</v>
       </c>
       <c r="M4">
-        <v>-9.7985669002792154E-7</v>
+        <v>-1.4202938826862161E-6</v>
       </c>
       <c r="N4">
-        <v>-2.3939063866782768E-7</v>
+        <v>-5.2451520796161895E-7</v>
       </c>
       <c r="O4">
-        <v>1.6328392364650055E-7</v>
+        <v>2.1863293334615626E-7</v>
       </c>
       <c r="P4">
-        <v>-2.9336888750264367E-8</v>
+        <v>-9.0415458566144513E-8</v>
       </c>
       <c r="Q4">
-        <v>1.9027469277679189E-7</v>
+        <v>-1.4138075044429864E-6</v>
       </c>
       <c r="R4">
-        <v>4.0940823915512384E-7</v>
+        <v>-1.3572278993061973E-6</v>
       </c>
       <c r="S4">
-        <v>2.158837279470273E-7</v>
+        <v>-1.5981695029980982E-6</v>
       </c>
       <c r="T4">
-        <v>-2.756862630082573E-8</v>
+        <v>-1.9634542007952401E-6</v>
       </c>
       <c r="U4">
-        <v>4.2763933223505174E-8</v>
+        <v>2.3356666167662644E-7</v>
       </c>
       <c r="V4">
-        <v>2.4770518453236893E-7</v>
+        <v>5.6980716145852251E-7</v>
       </c>
       <c r="W4">
-        <v>2.5616557819447479E-7</v>
+        <v>6.0629272609094815E-7</v>
       </c>
       <c r="X4">
-        <v>3.2423004978606971E-7</v>
+        <v>7.5200797390137919E-7</v>
       </c>
       <c r="Y4">
-        <v>-7.5615373483454625E-9</v>
+        <v>-3.7805417598294619E-8</v>
       </c>
       <c r="Z4">
-        <v>4.7555092811607297E-8</v>
+        <v>3.434099864752365E-8</v>
       </c>
       <c r="AA4">
-        <v>1.9060474720314273E-7</v>
+        <v>4.4181268730087427E-7</v>
       </c>
       <c r="AB4">
-        <v>-1.4672956866600413E-7</v>
+        <v>-7.9664664221620233E-8</v>
       </c>
       <c r="AC4">
-        <v>1.2311374896594582E-8</v>
+        <v>1.5047531261485645E-8</v>
       </c>
       <c r="AD4">
-        <v>-5.5003523428832741E-8</v>
+        <v>-3.5463703309783521E-8</v>
       </c>
       <c r="AE4">
-        <v>-4.8959188265797088E-9</v>
+        <v>-6.4098665679715961E-9</v>
       </c>
       <c r="AF4">
-        <v>2.7862920030196577E-7</v>
+        <v>5.1247254465238912E-7</v>
       </c>
       <c r="AG4">
-        <v>-3.6515081838127517E-8</v>
+        <v>-7.0270505747328949E-8</v>
       </c>
       <c r="AH4">
-        <v>4.5094976109574447E-6</v>
+        <v>9.5397859539692292E-6</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="38">
-        <v>-0.66492794250826726</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.6390822080645826</v>
       </c>
       <c r="C5">
-        <v>-2.4743283289578686E-4</v>
+        <v>-1.4851407455910811E-4</v>
       </c>
       <c r="D5">
-        <v>3.9063685022342441E-5</v>
+        <v>6.1491204234794114E-5</v>
       </c>
       <c r="E5">
-        <v>-3.0825181736381939E-7</v>
+        <v>-5.0128555290128188E-7</v>
       </c>
       <c r="F5">
-        <v>8.8690328609476746E-2</v>
+        <v>3.0673747144402567E-2</v>
       </c>
       <c r="G5">
-        <v>1.0515478119431003E-3</v>
+        <v>3.6505576050124633E-3</v>
       </c>
       <c r="H5">
-        <v>1.2331149964523067E-3</v>
+        <v>4.0848362358798032E-3</v>
       </c>
       <c r="I5">
-        <v>1.6809860089147251E-3</v>
+        <v>4.2556992063612232E-3</v>
       </c>
       <c r="J5">
-        <v>1.2913200070251533E-3</v>
+        <v>3.9720862776786766E-3</v>
       </c>
       <c r="K5">
-        <v>1.2886766417957731E-3</v>
+        <v>3.9752669270496461E-3</v>
       </c>
       <c r="L5">
-        <v>1.5207710018248256E-3</v>
+        <v>4.4221897155143682E-3</v>
       </c>
       <c r="M5">
-        <v>-1.4682399845287108E-5</v>
+        <v>7.5569090334470996E-4</v>
       </c>
       <c r="N5">
-        <v>1.5621787693530291E-4</v>
+        <v>7.6871720150008586E-5</v>
       </c>
       <c r="O5">
-        <v>2.0739502319431954E-4</v>
+        <v>7.7573552109734924E-4</v>
       </c>
       <c r="P5">
-        <v>1.6702388738696976E-4</v>
+        <v>6.3025963800494638E-4</v>
       </c>
       <c r="Q5">
-        <v>5.7832150575601397E-5</v>
+        <v>-1.9013376654838411E-5</v>
       </c>
       <c r="R5">
-        <v>-1.6557425093882347E-5</v>
+        <v>-1.2349950944443022E-5</v>
       </c>
       <c r="S5">
-        <v>5.8865848806807027E-5</v>
+        <v>-9.0590748951208978E-5</v>
       </c>
       <c r="T5">
-        <v>-1.2533749472519212E-5</v>
+        <v>-3.9568380751433922E-4</v>
       </c>
       <c r="U5">
-        <v>1.3167381407566887E-4</v>
+        <v>1.3506112256302132E-4</v>
       </c>
       <c r="V5">
-        <v>3.1487986948351465E-4</v>
+        <v>3.2862151719950905E-4</v>
       </c>
       <c r="W5">
-        <v>4.3253707584346994E-4</v>
+        <v>6.8712450285249587E-4</v>
       </c>
       <c r="X5">
-        <v>5.3990332216988712E-4</v>
+        <v>1.3565621048060757E-3</v>
       </c>
       <c r="Y5">
-        <v>-2.1635937740960531E-4</v>
+        <v>-2.7341775824591574E-4</v>
       </c>
       <c r="Z5">
-        <v>-3.0239507218456736E-5</v>
+        <v>-8.7362548031536338E-5</v>
       </c>
       <c r="AA5">
-        <v>1.4686935196862243E-4</v>
+        <v>2.1509832525740233E-4</v>
       </c>
       <c r="AB5">
-        <v>-7.6569608895826194E-5</v>
+        <v>-2.1129850779340103E-4</v>
       </c>
       <c r="AC5">
-        <v>-1.7238271619967905E-4</v>
+        <v>-1.3315734848893396E-4</v>
       </c>
       <c r="AD5">
-        <v>-5.0332282732335636E-5</v>
+        <v>-2.7269994780344689E-4</v>
       </c>
       <c r="AE5">
-        <v>-2.3914255136231141E-6</v>
+        <v>-4.6499970246092104E-6</v>
       </c>
       <c r="AF5">
-        <v>1.6239433735017184E-4</v>
+        <v>4.2712729934289186E-4</v>
       </c>
       <c r="AG5">
-        <v>1.3194007397571703E-4</v>
+        <v>2.605175480523118E-4</v>
       </c>
       <c r="AH5">
-        <v>-2.5091965914107684E-3</v>
+        <v>-6.1271293209345309E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="38">
-        <v>-3.574969724152248E-2</v>
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.11193165373309071</v>
       </c>
       <c r="C6">
-        <v>-1.0541909258182646E-4</v>
+        <v>-1.5980846176353E-4</v>
       </c>
       <c r="D6">
-        <v>2.8039615149102677E-5</v>
+        <v>3.3944457436239514E-5</v>
       </c>
       <c r="E6">
-        <v>-3.3984130975312779E-7</v>
+        <v>-4.1415937791921827E-7</v>
       </c>
       <c r="F6">
-        <v>1.0515478119431003E-3</v>
+        <v>3.6505576050124633E-3</v>
       </c>
       <c r="G6">
-        <v>1.750822412097647E-3</v>
+        <v>4.8206533562325394E-3</v>
       </c>
       <c r="H6">
-        <v>9.3290752121171373E-4</v>
+        <v>3.5703500329289451E-3</v>
       </c>
       <c r="I6">
-        <v>9.6013520493620796E-4</v>
+        <v>3.4617610139176525E-3</v>
       </c>
       <c r="J6">
-        <v>1.0256298788018166E-3</v>
+        <v>3.6829708262729527E-3</v>
       </c>
       <c r="K6">
-        <v>1.2754308078886884E-3</v>
+        <v>3.961434270431584E-3</v>
       </c>
       <c r="L6">
-        <v>1.015254636147824E-3</v>
+        <v>3.70730100197486E-3</v>
       </c>
       <c r="M6">
-        <v>1.302547532667631E-4</v>
+        <v>1.0504887215463232E-4</v>
       </c>
       <c r="N6">
-        <v>1.9813386069095985E-4</v>
+        <v>-7.1022779281526365E-5</v>
       </c>
       <c r="O6">
-        <v>-2.9674475556790142E-5</v>
+        <v>1.9427606655881137E-4</v>
       </c>
       <c r="P6">
-        <v>-1.5851946490376954E-5</v>
+        <v>2.5052929483928665E-4</v>
       </c>
       <c r="Q6">
-        <v>1.6464719343808849E-4</v>
+        <v>4.5210557271219967E-4</v>
       </c>
       <c r="R6">
-        <v>3.2193064053452533E-6</v>
+        <v>5.678703256985153E-4</v>
       </c>
       <c r="S6">
-        <v>1.1470441331172956E-4</v>
+        <v>4.5165633860927965E-4</v>
       </c>
       <c r="T6">
-        <v>1.1051684733845332E-4</v>
+        <v>3.2670269265165077E-4</v>
       </c>
       <c r="U6">
-        <v>-3.4383000366098766E-5</v>
+        <v>-5.3892961086928905E-5</v>
       </c>
       <c r="V6">
-        <v>3.2146133830892188E-4</v>
+        <v>1.3012391528802338E-4</v>
       </c>
       <c r="W6">
-        <v>4.8632484079167186E-4</v>
+        <v>4.2037527942687331E-4</v>
       </c>
       <c r="X6">
-        <v>6.8591481507435798E-4</v>
+        <v>1.3341976960721531E-3</v>
       </c>
       <c r="Y6">
-        <v>-3.7349350146862023E-5</v>
+        <v>-5.5575901472925017E-5</v>
       </c>
       <c r="Z6">
-        <v>-1.9885634365762668E-5</v>
+        <v>-2.4866634709257173E-5</v>
       </c>
       <c r="AA6">
-        <v>1.8511991698582438E-5</v>
+        <v>-9.1364085311034524E-6</v>
       </c>
       <c r="AB6">
-        <v>8.8908170665578088E-5</v>
+        <v>2.1040952072367289E-4</v>
       </c>
       <c r="AC6">
-        <v>2.5286114352692546E-5</v>
+        <v>3.0960191180304513E-5</v>
       </c>
       <c r="AD6">
-        <v>-2.8405712424238184E-5</v>
+        <v>-5.0999991671652487E-5</v>
       </c>
       <c r="AE6">
-        <v>2.2080578359214394E-6</v>
+        <v>-7.7058040333220941E-6</v>
       </c>
       <c r="AF6">
-        <v>-4.703733868216195E-5</v>
+        <v>2.1993066315773198E-4</v>
       </c>
       <c r="AG6">
-        <v>2.083220296619163E-5</v>
+        <v>1.0196512991705626E-4</v>
       </c>
       <c r="AH6">
-        <v>-1.9787970871808299E-3</v>
+        <v>-4.969223295875627E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="38">
-        <v>-2.6846470875708673E-2</v>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.11873961170449826</v>
       </c>
       <c r="C7">
-        <v>3.8525010158422438E-5</v>
+        <v>-2.6570588120182123E-5</v>
       </c>
       <c r="D7">
-        <v>1.6567949034397149E-5</v>
+        <v>-8.4401125356746475E-6</v>
       </c>
       <c r="E7">
-        <v>-8.5872270288606773E-8</v>
+        <v>1.6131345441740973E-7</v>
       </c>
       <c r="F7">
-        <v>1.2331149964523067E-3</v>
+        <v>4.0848362358798032E-3</v>
       </c>
       <c r="G7">
-        <v>9.3290752121171373E-4</v>
+        <v>3.5703500329289451E-3</v>
       </c>
       <c r="H7">
-        <v>1.8935329691799666E-3</v>
+        <v>7.0456459956209569E-3</v>
       </c>
       <c r="I7">
-        <v>1.0541916959392853E-3</v>
+        <v>3.5353434609478014E-3</v>
       </c>
       <c r="J7">
-        <v>1.1270907390464925E-3</v>
+        <v>3.8532217696884891E-3</v>
       </c>
       <c r="K7">
-        <v>1.0535717612629612E-3</v>
+        <v>3.7243054930295662E-3</v>
       </c>
       <c r="L7">
-        <v>1.2010937064264285E-3</v>
+        <v>3.9519224376731244E-3</v>
       </c>
       <c r="M7">
-        <v>4.4703791866715072E-4</v>
+        <v>5.6773894873363498E-4</v>
       </c>
       <c r="N7">
-        <v>9.2294129888505883E-5</v>
+        <v>8.18786085820982E-5</v>
       </c>
       <c r="O7">
-        <v>6.4557767285431316E-5</v>
+        <v>7.0988931201561615E-4</v>
       </c>
       <c r="P7">
-        <v>2.4897916565003761E-5</v>
+        <v>5.5099762050036367E-4</v>
       </c>
       <c r="Q7">
-        <v>6.2037303488563411E-5</v>
+        <v>2.548149756907616E-5</v>
       </c>
       <c r="R7">
-        <v>-8.3915241487303541E-6</v>
+        <v>1.0385390863964367E-5</v>
       </c>
       <c r="S7">
-        <v>6.3377568663052262E-5</v>
+        <v>1.3080277389313291E-5</v>
       </c>
       <c r="T7">
-        <v>-3.3214981508635541E-6</v>
+        <v>-2.6514958390300354E-4</v>
       </c>
       <c r="U7">
-        <v>2.4219941243844184E-5</v>
+        <v>4.2182420996300562E-5</v>
       </c>
       <c r="V7">
-        <v>7.3890610862375236E-5</v>
+        <v>1.3121074893238723E-4</v>
       </c>
       <c r="W7">
-        <v>1.8472645389788257E-4</v>
+        <v>2.6457292027339858E-4</v>
       </c>
       <c r="X7">
-        <v>4.724673710286998E-4</v>
+        <v>1.4777634115564486E-3</v>
       </c>
       <c r="Y7">
-        <v>-3.9699879976002196E-5</v>
+        <v>-5.8428580098840048E-5</v>
       </c>
       <c r="Z7">
-        <v>4.2808629502101054E-5</v>
+        <v>1.1401714338655342E-4</v>
       </c>
       <c r="AA7">
-        <v>3.0388947663734884E-4</v>
+        <v>6.036192079653651E-4</v>
       </c>
       <c r="AB7">
-        <v>4.4070149807506898E-6</v>
+        <v>-3.4962142455333481E-5</v>
       </c>
       <c r="AC7">
-        <v>4.0779667238832129E-5</v>
+        <v>7.9684367794550029E-5</v>
       </c>
       <c r="AD7">
-        <v>-6.5293459625085401E-5</v>
+        <v>-1.8217413672311819E-4</v>
       </c>
       <c r="AE7">
-        <v>-2.567455903458273E-6</v>
+        <v>-1.658937324643437E-5</v>
       </c>
       <c r="AF7">
-        <v>3.3967607555305786E-4</v>
+        <v>1.1490132170891756E-3</v>
       </c>
       <c r="AG7">
-        <v>1.5782179638358933E-4</v>
+        <v>3.9567052436399524E-4</v>
       </c>
       <c r="AH7">
-        <v>-1.9366021769109106E-3</v>
+        <v>-4.5124274902579959E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="38">
-        <v>0.96330241363388047</v>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1.0314695598928594</v>
       </c>
       <c r="C8">
-        <v>-2.1214856275671525E-4</v>
+        <v>-1.4306658569717215E-4</v>
       </c>
       <c r="D8">
-        <v>6.7984836813901963E-5</v>
+        <v>8.4463878190792988E-5</v>
       </c>
       <c r="E8">
-        <v>-5.5640182834899678E-7</v>
+        <v>-7.2795552833134329E-7</v>
       </c>
       <c r="F8">
-        <v>1.6809860089147251E-3</v>
+        <v>4.2556992063612232E-3</v>
       </c>
       <c r="G8">
-        <v>9.6013520493620796E-4</v>
+        <v>3.4617610139176525E-3</v>
       </c>
       <c r="H8">
-        <v>1.0541916959392853E-3</v>
+        <v>3.5353434609478014E-3</v>
       </c>
       <c r="I8">
-        <v>0.24713787311209692</v>
+        <v>0.2721116572063999</v>
       </c>
       <c r="J8">
-        <v>1.2502711347349288E-3</v>
+        <v>3.665049679406169E-3</v>
       </c>
       <c r="K8">
-        <v>1.1468785112426483E-3</v>
+        <v>3.6404652405091272E-3</v>
       </c>
       <c r="L8">
-        <v>1.2747554776659877E-3</v>
+        <v>3.8833099487134946E-3</v>
       </c>
       <c r="M8">
-        <v>9.5444436451339791E-4</v>
+        <v>1.1776496851940526E-3</v>
       </c>
       <c r="N8">
-        <v>2.760852986160759E-4</v>
+        <v>6.1125568625543117E-5</v>
       </c>
       <c r="O8">
-        <v>-9.2978151404032395E-5</v>
+        <v>-5.0116693520904773E-5</v>
       </c>
       <c r="P8">
-        <v>-1.694361713841879E-4</v>
+        <v>-1.5860180884004916E-4</v>
       </c>
       <c r="Q8">
-        <v>2.0591049505648123E-5</v>
+        <v>2.5999430901070802E-4</v>
       </c>
       <c r="R8">
-        <v>1.0436404571546138E-5</v>
+        <v>4.1169163151917945E-4</v>
       </c>
       <c r="S8">
-        <v>2.974429594526766E-5</v>
+        <v>2.8683790120362547E-4</v>
       </c>
       <c r="T8">
-        <v>1.3770076818322372E-4</v>
+        <v>1.8305574145110462E-4</v>
       </c>
       <c r="U8">
-        <v>1.0099203508079872E-4</v>
+        <v>3.116802386385E-5</v>
       </c>
       <c r="V8">
-        <v>3.7164053050896609E-4</v>
+        <v>2.0336846454068147E-4</v>
       </c>
       <c r="W8">
-        <v>5.4424387010272492E-4</v>
+        <v>5.1873047463617283E-4</v>
       </c>
       <c r="X8">
-        <v>6.2478990679459313E-4</v>
+        <v>1.2265270614299139E-3</v>
       </c>
       <c r="Y8">
-        <v>-1.791520235219863E-4</v>
+        <v>-2.3020203469053497E-4</v>
       </c>
       <c r="Z8">
-        <v>1.9066378968074667E-4</v>
+        <v>3.0985723909006223E-4</v>
       </c>
       <c r="AA8">
-        <v>4.5996614135651115E-4</v>
+        <v>5.6213812529193243E-4</v>
       </c>
       <c r="AB8">
-        <v>-1.1806564953034779E-4</v>
+        <v>1.1737885784841688E-4</v>
       </c>
       <c r="AC8">
-        <v>1.9614943429843598E-5</v>
+        <v>1.6086377104473633E-5</v>
       </c>
       <c r="AD8">
-        <v>-3.7827204830434124E-5</v>
+        <v>-6.9366518939538869E-5</v>
       </c>
       <c r="AE8">
-        <v>1.2811792203293087E-5</v>
+        <v>2.1387698131283757E-5</v>
       </c>
       <c r="AF8">
-        <v>-1.7230223417134469E-4</v>
+        <v>-2.8267489327146993E-4</v>
       </c>
       <c r="AG8">
-        <v>-1.2946490247114494E-4</v>
+        <v>-3.8547805056742294E-5</v>
       </c>
       <c r="AH8">
-        <v>-3.4975229634165482E-3</v>
+        <v>-6.7547239335546717E-3</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="38">
-        <v>-0.15121059652217747</v>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.19259667631357338</v>
       </c>
       <c r="C9">
-        <v>-1.7764136541972137E-4</v>
+        <v>-1.8425152743446592E-4</v>
       </c>
       <c r="D9">
-        <v>1.6449721361476606E-5</v>
+        <v>-1.2368979571665171E-5</v>
       </c>
       <c r="E9">
-        <v>-9.4248956200806748E-8</v>
+        <v>2.1882305812137423E-7</v>
       </c>
       <c r="F9">
-        <v>1.2913200070251533E-3</v>
+        <v>3.9720862776786766E-3</v>
       </c>
       <c r="G9">
-        <v>1.0256298788018166E-3</v>
+        <v>3.6829708262729527E-3</v>
       </c>
       <c r="H9">
-        <v>1.1270907390464925E-3</v>
+        <v>3.8532217696884891E-3</v>
       </c>
       <c r="I9">
-        <v>1.2502711347349288E-3</v>
+        <v>3.665049679406169E-3</v>
       </c>
       <c r="J9">
-        <v>2.9211954085671447E-3</v>
+        <v>5.8216336732707097E-3</v>
       </c>
       <c r="K9">
-        <v>1.1261357875651072E-3</v>
+        <v>3.7679589807910973E-3</v>
       </c>
       <c r="L9">
-        <v>1.1950131812774796E-3</v>
+        <v>4.0665504489365975E-3</v>
       </c>
       <c r="M9">
-        <v>6.0994332705733775E-4</v>
+        <v>7.2181588656712429E-4</v>
       </c>
       <c r="N9">
-        <v>3.6093354463471728E-4</v>
+        <v>1.7755722693198395E-4</v>
       </c>
       <c r="O9">
-        <v>2.5226372102594443E-5</v>
+        <v>3.240454068522591E-4</v>
       </c>
       <c r="P9">
-        <v>-1.0500731929633737E-4</v>
+        <v>1.0142581058936238E-4</v>
       </c>
       <c r="Q9">
-        <v>1.0881890631719752E-4</v>
+        <v>-1.3785055534069716E-4</v>
       </c>
       <c r="R9">
-        <v>4.2584494704953256E-5</v>
+        <v>-8.5007508727374687E-5</v>
       </c>
       <c r="S9">
-        <v>3.4509861956094192E-5</v>
+        <v>-2.922963280902152E-4</v>
       </c>
       <c r="T9">
-        <v>5.8840747626688503E-5</v>
+        <v>-3.9944145156773823E-4</v>
       </c>
       <c r="U9">
-        <v>8.3600379723594378E-5</v>
+        <v>7.8881220017353775E-5</v>
       </c>
       <c r="V9">
-        <v>2.0800919217396817E-4</v>
+        <v>6.7841513863903594E-5</v>
       </c>
       <c r="W9">
-        <v>5.7406931778274811E-4</v>
+        <v>8.3578715825229977E-4</v>
       </c>
       <c r="X9">
-        <v>8.0977191829111408E-4</v>
+        <v>1.7031491179690661E-3</v>
       </c>
       <c r="Y9">
-        <v>-5.0371644623542834E-5</v>
+        <v>-9.2647623142644401E-5</v>
       </c>
       <c r="Z9">
-        <v>-2.0095609045942399E-5</v>
+        <v>-1.616329051984508E-5</v>
       </c>
       <c r="AA9">
-        <v>1.7189041247273453E-4</v>
+        <v>2.4369187071713238E-4</v>
       </c>
       <c r="AB9">
-        <v>5.8821881373327103E-5</v>
+        <v>-1.017008006614869E-4</v>
       </c>
       <c r="AC9">
-        <v>3.7500102589792906E-6</v>
+        <v>3.0220363810946394E-5</v>
       </c>
       <c r="AD9">
-        <v>-3.8218019447430556E-5</v>
+        <v>-6.788549859791616E-5</v>
       </c>
       <c r="AE9">
-        <v>6.781075355056696E-6</v>
+        <v>-5.4066293318216362E-6</v>
       </c>
       <c r="AF9">
-        <v>-1.2288994651668377E-5</v>
+        <v>2.2017282160584784E-4</v>
       </c>
       <c r="AG9">
-        <v>2.0085313754435229E-5</v>
+        <v>1.334719851969863E-4</v>
       </c>
       <c r="AH9">
-        <v>-2.2024325942323745E-3</v>
+        <v>-4.045096064080214E-3</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="38">
-        <v>-0.17359470518393269</v>
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.2603694340432518</v>
       </c>
       <c r="C10">
-        <v>-3.3658451280356341E-5</v>
+        <v>1.9737027493914522E-4</v>
       </c>
       <c r="D10">
-        <v>3.6970493449951839E-5</v>
+        <v>3.2370599849028755E-5</v>
       </c>
       <c r="E10">
-        <v>-3.3710584744285328E-7</v>
+        <v>-2.7041503246385228E-7</v>
       </c>
       <c r="F10">
-        <v>1.2886766417957731E-3</v>
+        <v>3.9752669270496461E-3</v>
       </c>
       <c r="G10">
-        <v>1.2754308078886884E-3</v>
+        <v>3.961434270431584E-3</v>
       </c>
       <c r="H10">
-        <v>1.0535717612629612E-3</v>
+        <v>3.7243054930295662E-3</v>
       </c>
       <c r="I10">
-        <v>1.1468785112426483E-3</v>
+        <v>3.6404652405091272E-3</v>
       </c>
       <c r="J10">
-        <v>1.1261357875651072E-3</v>
+        <v>3.7679589807910973E-3</v>
       </c>
       <c r="K10">
-        <v>1.6350614783507979E-3</v>
+        <v>4.5396673428687237E-3</v>
       </c>
       <c r="L10">
-        <v>1.1900077349596922E-3</v>
+        <v>4.179081079199818E-3</v>
       </c>
       <c r="M10">
-        <v>1.881914719503051E-4</v>
+        <v>1.575640822028345E-4</v>
       </c>
       <c r="N10">
-        <v>2.10221685509251E-4</v>
+        <v>-2.3624383781426753E-4</v>
       </c>
       <c r="O10">
-        <v>1.7759470640185844E-5</v>
+        <v>3.0444433576084378E-4</v>
       </c>
       <c r="P10">
-        <v>-2.5856482314989696E-5</v>
+        <v>2.6410321835178057E-4</v>
       </c>
       <c r="Q10">
-        <v>2.9859158132289733E-5</v>
+        <v>6.5441201594659652E-5</v>
       </c>
       <c r="R10">
-        <v>1.8451252783496965E-5</v>
+        <v>1.7546726547461094E-4</v>
       </c>
       <c r="S10">
-        <v>8.1658996643294487E-5</v>
+        <v>7.2469291804958588E-5</v>
       </c>
       <c r="T10">
-        <v>5.5186444124918519E-5</v>
+        <v>-1.9877615813856594E-4</v>
       </c>
       <c r="U10">
-        <v>5.2769921137823525E-5</v>
+        <v>4.2431075667336953E-5</v>
       </c>
       <c r="V10">
-        <v>4.466868135523679E-4</v>
+        <v>3.4806744397739584E-4</v>
       </c>
       <c r="W10">
-        <v>5.8373464004820316E-4</v>
+        <v>5.7312562913760157E-4</v>
       </c>
       <c r="X10">
-        <v>7.8361098591835728E-4</v>
+        <v>1.4232334855310081E-3</v>
       </c>
       <c r="Y10">
-        <v>-6.529180612947682E-5</v>
+        <v>-8.9997363013553082E-5</v>
       </c>
       <c r="Z10">
-        <v>-5.821300778029295E-5</v>
+        <v>-7.982371145894533E-5</v>
       </c>
       <c r="AA10">
-        <v>9.6741080698260263E-5</v>
+        <v>1.2036641666601355E-4</v>
       </c>
       <c r="AB10">
-        <v>1.4600923072762787E-5</v>
+        <v>5.2793807531282058E-5</v>
       </c>
       <c r="AC10">
-        <v>4.3845543146300544E-5</v>
+        <v>6.7949038305454873E-5</v>
       </c>
       <c r="AD10">
-        <v>-1.887191945801125E-5</v>
+        <v>-6.1226404055630805E-5</v>
       </c>
       <c r="AE10">
-        <v>-4.201631069943436E-6</v>
+        <v>-1.952114455349357E-5</v>
       </c>
       <c r="AF10">
-        <v>5.4115955237877059E-5</v>
+        <v>4.022724201681923E-4</v>
       </c>
       <c r="AG10">
-        <v>2.9719533482842257E-5</v>
+        <v>1.0400211839860414E-4</v>
       </c>
       <c r="AH10">
-        <v>-2.4930414776556916E-3</v>
+        <v>-5.2017010654740476E-3</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="38">
-        <v>-0.43154486684818433</v>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.56157496317160072</v>
       </c>
       <c r="C11">
-        <v>1.7605670946978404E-4</v>
+        <v>4.7518044144907945E-4</v>
       </c>
       <c r="D11">
-        <v>-7.8546018753381799E-6</v>
+        <v>-4.95012999908992E-5</v>
       </c>
       <c r="E11">
-        <v>1.5753064026408259E-7</v>
+        <v>6.338938332980539E-7</v>
       </c>
       <c r="F11">
-        <v>1.5207710018248256E-3</v>
+        <v>4.4221897155143682E-3</v>
       </c>
       <c r="G11">
-        <v>1.015254636147824E-3</v>
+        <v>3.70730100197486E-3</v>
       </c>
       <c r="H11">
-        <v>1.2010937064264285E-3</v>
+        <v>3.9519224376731244E-3</v>
       </c>
       <c r="I11">
-        <v>1.2747554776659877E-3</v>
+        <v>3.8833099487134946E-3</v>
       </c>
       <c r="J11">
-        <v>1.1950131812774796E-3</v>
+        <v>4.0665504489365975E-3</v>
       </c>
       <c r="K11">
-        <v>1.1900077349596922E-3</v>
+        <v>4.179081079199818E-3</v>
       </c>
       <c r="L11">
-        <v>6.0294294484116735E-3</v>
+        <v>1.0186256484704195E-2</v>
       </c>
       <c r="M11">
-        <v>4.3452344334346136E-4</v>
+        <v>2.8721842050753418E-4</v>
       </c>
       <c r="N11">
-        <v>2.2072813586299217E-4</v>
+        <v>-3.1716646444822897E-4</v>
       </c>
       <c r="O11">
-        <v>1.7413530219372237E-4</v>
+        <v>5.2317522715315844E-4</v>
       </c>
       <c r="P11">
-        <v>5.3800580307657078E-5</v>
+        <v>2.9822588427059918E-4</v>
       </c>
       <c r="Q11">
-        <v>1.0072660652707026E-4</v>
+        <v>-1.307211022300277E-4</v>
       </c>
       <c r="R11">
-        <v>3.1861013057887927E-5</v>
+        <v>-9.9147358379946329E-5</v>
       </c>
       <c r="S11">
-        <v>5.749034905495369E-5</v>
+        <v>-2.6765520876812464E-4</v>
       </c>
       <c r="T11">
-        <v>6.6940835592817926E-5</v>
+        <v>-4.804761118483655E-4</v>
       </c>
       <c r="U11">
-        <v>1.4587059313632913E-4</v>
+        <v>-7.2659544175865038E-5</v>
       </c>
       <c r="V11">
-        <v>3.5983673626866381E-4</v>
+        <v>-4.211674240890825E-6</v>
       </c>
       <c r="W11">
-        <v>5.57798561796076E-4</v>
+        <v>4.2094178036386482E-4</v>
       </c>
       <c r="X11">
-        <v>8.9737561584387433E-4</v>
+        <v>1.4480555041789492E-3</v>
       </c>
       <c r="Y11">
-        <v>-2.341532135862371E-4</v>
+        <v>-2.8429475036075507E-4</v>
       </c>
       <c r="Z11">
-        <v>-4.5275792717046738E-5</v>
+        <v>-3.8474960167706124E-5</v>
       </c>
       <c r="AA11">
-        <v>-2.1940515186037843E-5</v>
+        <v>3.3250309137248862E-5</v>
       </c>
       <c r="AB11">
-        <v>-1.0920512550130761E-4</v>
+        <v>-7.9315402952171354E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.0800691103895562E-4</v>
+        <v>-1.5006252547987328E-4</v>
       </c>
       <c r="AD11">
-        <v>-1.5209831411845418E-4</v>
+        <v>-2.7353305310862087E-4</v>
       </c>
       <c r="AE11">
-        <v>-2.0020844927266175E-5</v>
+        <v>-4.4493520889379775E-5</v>
       </c>
       <c r="AF11">
-        <v>1.0189970461703087E-4</v>
+        <v>4.1722934073881637E-4</v>
       </c>
       <c r="AG11">
-        <v>9.6704351279939681E-5</v>
+        <v>1.4845400895761862E-4</v>
       </c>
       <c r="AH11">
-        <v>-1.3800031623558101E-3</v>
+        <v>-2.8564371046624088E-3</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="38">
-        <v>0.12629668664812199</v>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>8.8750491022255615E-2</v>
       </c>
       <c r="C12">
-        <v>1.0057101337731058E-4</v>
+        <v>1.5216173681421115E-4</v>
       </c>
       <c r="D12">
-        <v>1.2103669801985173E-4</v>
+        <v>1.6309251307724813E-4</v>
       </c>
       <c r="E12">
-        <v>-9.7985669002792154E-7</v>
+        <v>-1.4202938826862161E-6</v>
       </c>
       <c r="F12">
-        <v>-1.4682399845287108E-5</v>
+        <v>7.5569090334470996E-4</v>
       </c>
       <c r="G12">
-        <v>1.302547532667631E-4</v>
+        <v>1.0504887215463232E-4</v>
       </c>
       <c r="H12">
-        <v>4.4703791866715072E-4</v>
+        <v>5.6773894873363498E-4</v>
       </c>
       <c r="I12">
-        <v>9.5444436451339791E-4</v>
+        <v>1.1776496851940526E-3</v>
       </c>
       <c r="J12">
-        <v>6.0994332705733775E-4</v>
+        <v>7.2181588656712429E-4</v>
       </c>
       <c r="K12">
-        <v>1.881914719503051E-4</v>
+        <v>1.575640822028345E-4</v>
       </c>
       <c r="L12">
-        <v>4.3452344334346136E-4</v>
+        <v>2.8721842050753418E-4</v>
       </c>
       <c r="M12">
-        <v>3.8395072377592041E-3</v>
+        <v>6.8501194074541555E-3</v>
       </c>
       <c r="N12">
-        <v>6.706096459341141E-4</v>
+        <v>2.3773731022078562E-3</v>
       </c>
       <c r="O12">
-        <v>-4.8615051631315876E-5</v>
+        <v>-3.8085650731699847E-5</v>
       </c>
       <c r="P12">
-        <v>-3.5313989492048552E-4</v>
+        <v>-5.369213963145041E-4</v>
       </c>
       <c r="Q12">
-        <v>-7.6659681429089939E-5</v>
+        <v>3.3689454752966388E-4</v>
       </c>
       <c r="R12">
-        <v>-1.3154136450195807E-4</v>
+        <v>3.186093669430767E-4</v>
       </c>
       <c r="S12">
-        <v>-9.5036095835912085E-5</v>
+        <v>3.4797593320051853E-4</v>
       </c>
       <c r="T12">
-        <v>-5.5436293389776953E-5</v>
+        <v>3.4954139177318733E-4</v>
       </c>
       <c r="U12">
-        <v>5.3473035034097701E-5</v>
+        <v>6.3327569550311263E-5</v>
       </c>
       <c r="V12">
-        <v>4.988396089586726E-4</v>
+        <v>1.8696101632759083E-3</v>
       </c>
       <c r="W12">
-        <v>6.856433321663876E-4</v>
+        <v>2.5174520835776534E-3</v>
       </c>
       <c r="X12">
-        <v>6.8706747879231783E-4</v>
+        <v>2.3396599916427566E-3</v>
       </c>
       <c r="Y12">
-        <v>-4.1611690133029898E-5</v>
+        <v>-1.2962940685564008E-4</v>
       </c>
       <c r="Z12">
-        <v>-9.9796331324579078E-5</v>
+        <v>-9.7940570574211224E-5</v>
       </c>
       <c r="AA12">
-        <v>4.7475255631971702E-6</v>
+        <v>-3.0322306064393609E-6</v>
       </c>
       <c r="AB12">
-        <v>4.5800296727457413E-5</v>
+        <v>-5.9694864727807481E-5</v>
       </c>
       <c r="AC12">
-        <v>-7.2491134002944911E-5</v>
+        <v>-5.9262732974822794E-5</v>
       </c>
       <c r="AD12">
-        <v>-5.997029590319009E-6</v>
+        <v>-2.9756372758036817E-5</v>
       </c>
       <c r="AE12">
-        <v>1.9220223265266811E-6</v>
+        <v>2.8625071714839692E-6</v>
       </c>
       <c r="AF12">
-        <v>-9.6390245881394256E-5</v>
+        <v>-2.3132049983032137E-4</v>
       </c>
       <c r="AG12">
-        <v>-8.0860940325496811E-6</v>
+        <v>-1.0703417908705551E-4</v>
       </c>
       <c r="AH12">
-        <v>-4.2386937410304254E-3</v>
+        <v>-7.2755649555803076E-3</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="38">
-        <v>-7.6298840673617349E-2</v>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-8.9626427958881677E-2</v>
       </c>
       <c r="C13">
-        <v>9.8666199291812376E-5</v>
+        <v>3.3467918748957416E-5</v>
       </c>
       <c r="D13">
-        <v>2.2042337206114292E-5</v>
+        <v>4.6018662546889089E-5</v>
       </c>
       <c r="E13">
-        <v>-2.3939063866782768E-7</v>
+        <v>-5.2451520796161895E-7</v>
       </c>
       <c r="F13">
-        <v>1.5621787693530291E-4</v>
+        <v>7.6871720150008586E-5</v>
       </c>
       <c r="G13">
-        <v>1.9813386069095985E-4</v>
+        <v>-7.1022779281526365E-5</v>
       </c>
       <c r="H13">
-        <v>9.2294129888505883E-5</v>
+        <v>8.18786085820982E-5</v>
       </c>
       <c r="I13">
-        <v>2.760852986160759E-4</v>
+        <v>6.1125568625543117E-5</v>
       </c>
       <c r="J13">
-        <v>3.6093354463471728E-4</v>
+        <v>1.7755722693198395E-4</v>
       </c>
       <c r="K13">
-        <v>2.10221685509251E-4</v>
+        <v>-2.3624383781426753E-4</v>
       </c>
       <c r="L13">
-        <v>2.2072813586299217E-4</v>
+        <v>-3.1716646444822897E-4</v>
       </c>
       <c r="M13">
-        <v>6.706096459341141E-4</v>
+        <v>2.3773731022078562E-3</v>
       </c>
       <c r="N13">
-        <v>9.4573086549016444E-4</v>
+        <v>2.7198780382607945E-3</v>
       </c>
       <c r="O13">
-        <v>-3.5575292421954907E-5</v>
+        <v>-3.303624919528012E-5</v>
       </c>
       <c r="P13">
-        <v>-9.8627559245884956E-5</v>
+        <v>-1.8443977086338137E-4</v>
       </c>
       <c r="Q13">
-        <v>-1.9499275139665348E-5</v>
+        <v>3.1577474662237764E-4</v>
       </c>
       <c r="R13">
-        <v>-5.3898042333655168E-6</v>
+        <v>4.0612675807860437E-4</v>
       </c>
       <c r="S13">
-        <v>9.4398407177180671E-5</v>
+        <v>5.8037590680436939E-4</v>
       </c>
       <c r="T13">
-        <v>1.4641137070244529E-4</v>
+        <v>7.8159234270390161E-4</v>
       </c>
       <c r="U13">
-        <v>5.9130161145322344E-5</v>
+        <v>9.3053694301496644E-5</v>
       </c>
       <c r="V13">
-        <v>3.8877699133514306E-4</v>
+        <v>1.541654161412543E-3</v>
       </c>
       <c r="W13">
-        <v>6.2806160884849339E-4</v>
+        <v>2.1700962330402571E-3</v>
       </c>
       <c r="X13">
-        <v>6.8831969895167579E-4</v>
+        <v>2.141560202326925E-3</v>
       </c>
       <c r="Y13">
-        <v>-2.6599524330350141E-5</v>
+        <v>-1.0574301288292374E-4</v>
       </c>
       <c r="Z13">
-        <v>-3.5321640385382441E-5</v>
+        <v>-7.2730321637796654E-6</v>
       </c>
       <c r="AA13">
-        <v>-2.0650844614895371E-5</v>
+        <v>2.1763675406856367E-5</v>
       </c>
       <c r="AB13">
-        <v>-2.4085914463144176E-6</v>
+        <v>-1.1260441339901758E-4</v>
       </c>
       <c r="AC13">
-        <v>-3.1048504886437689E-5</v>
+        <v>-5.1065311286065216E-5</v>
       </c>
       <c r="AD13">
-        <v>-7.7963127592529219E-6</v>
+        <v>4.6424231361135099E-5</v>
       </c>
       <c r="AE13">
-        <v>2.5838965733139215E-6</v>
+        <v>-3.6379446713445869E-6</v>
       </c>
       <c r="AF13">
-        <v>-1.1326044079120866E-4</v>
+        <v>4.671422731139345E-5</v>
       </c>
       <c r="AG13">
-        <v>-5.9733467422663853E-5</v>
+        <v>-9.3712948740181496E-5</v>
       </c>
       <c r="AH13">
-        <v>-1.4919844743905264E-3</v>
+        <v>-3.4677280391516001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="38">
-        <v>-0.15079621405099455</v>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.11895415389877113</v>
       </c>
       <c r="C14">
-        <v>-1.0924282851627542E-5</v>
+        <v>-5.6622934486791511E-5</v>
       </c>
       <c r="D14">
-        <v>-1.5313396933818924E-5</v>
+        <v>-2.1957908778529677E-5</v>
       </c>
       <c r="E14">
-        <v>1.6328392364650055E-7</v>
+        <v>2.1863293334615626E-7</v>
       </c>
       <c r="F14">
-        <v>2.0739502319431954E-4</v>
+        <v>7.7573552109734924E-4</v>
       </c>
       <c r="G14">
-        <v>-2.9674475556790142E-5</v>
+        <v>1.9427606655881137E-4</v>
       </c>
       <c r="H14">
-        <v>6.4557767285431316E-5</v>
+        <v>7.0988931201561615E-4</v>
       </c>
       <c r="I14">
-        <v>-9.2978151404032395E-5</v>
+        <v>-5.0116693520904773E-5</v>
       </c>
       <c r="J14">
-        <v>2.5226372102594443E-5</v>
+        <v>3.240454068522591E-4</v>
       </c>
       <c r="K14">
-        <v>1.7759470640185844E-5</v>
+        <v>3.0444433576084378E-4</v>
       </c>
       <c r="L14">
-        <v>1.7413530219372237E-4</v>
+        <v>5.2317522715315844E-4</v>
       </c>
       <c r="M14">
-        <v>-4.8615051631315876E-5</v>
+        <v>-3.8085650731699847E-5</v>
       </c>
       <c r="N14">
-        <v>-3.5575292421954907E-5</v>
+        <v>-3.303624919528012E-5</v>
       </c>
       <c r="O14">
-        <v>1.0341113573618817E-3</v>
+        <v>1.5823500901575123E-3</v>
       </c>
       <c r="P14">
-        <v>8.5751853544994831E-4</v>
+        <v>1.3030455270072469E-3</v>
       </c>
       <c r="Q14">
-        <v>3.1859642313753042E-6</v>
+        <v>-1.9245749161730789E-4</v>
       </c>
       <c r="R14">
-        <v>2.9206197083012763E-5</v>
+        <v>-2.5360594113041411E-4</v>
       </c>
       <c r="S14">
-        <v>5.0678643793409294E-5</v>
+        <v>-1.5198421607297307E-4</v>
       </c>
       <c r="T14">
-        <v>6.8257525522385056E-6</v>
+        <v>-3.4784458984114157E-4</v>
       </c>
       <c r="U14">
-        <v>-4.5789038649276221E-6</v>
+        <v>-1.1874853565989311E-5</v>
       </c>
       <c r="V14">
-        <v>-2.0181807083701603E-5</v>
+        <v>-6.14372839349849E-5</v>
       </c>
       <c r="W14">
-        <v>1.0048167739524259E-4</v>
+        <v>1.2380666800409468E-4</v>
       </c>
       <c r="X14">
-        <v>2.2480254162542107E-4</v>
+        <v>4.2823394367594303E-4</v>
       </c>
       <c r="Y14">
-        <v>1.1519968285874962E-5</v>
+        <v>1.6186708533937397E-5</v>
       </c>
       <c r="Z14">
-        <v>-6.2128115490988963E-5</v>
+        <v>-4.4875420700437892E-5</v>
       </c>
       <c r="AA14">
-        <v>4.094663567218344E-5</v>
+        <v>3.66675756150042E-4</v>
       </c>
       <c r="AB14">
-        <v>2.9208941476129718E-5</v>
+        <v>5.9765173137033174E-5</v>
       </c>
       <c r="AC14">
-        <v>7.5366144045245143E-6</v>
+        <v>1.0505500079459882E-4</v>
       </c>
       <c r="AD14">
-        <v>5.376536666589865E-5</v>
+        <v>7.0833031139753934E-5</v>
       </c>
       <c r="AE14">
-        <v>1.7229577971110744E-6</v>
+        <v>-2.1323340956918595E-6</v>
       </c>
       <c r="AF14">
-        <v>9.4935005273254908E-5</v>
+        <v>3.5577788412436686E-4</v>
       </c>
       <c r="AG14">
-        <v>8.5421860749300009E-5</v>
+        <v>1.4264913544193795E-4</v>
       </c>
       <c r="AH14">
-        <v>-6.4282798152245023E-4</v>
+        <v>-9.7936285023101591E-4</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="38">
-        <v>-0.18678273043474292</v>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.15531718005366227</v>
       </c>
       <c r="C15">
-        <v>3.1957366783621534E-5</v>
+        <v>8.4631930836750829E-6</v>
       </c>
       <c r="D15">
-        <v>8.358582316831504E-7</v>
+        <v>3.0074398335221087E-6</v>
       </c>
       <c r="E15">
-        <v>-2.9336888750264367E-8</v>
+        <v>-9.0415458566144513E-8</v>
       </c>
       <c r="F15">
-        <v>1.6702388738696976E-4</v>
+        <v>6.3025963800494638E-4</v>
       </c>
       <c r="G15">
-        <v>-1.5851946490376954E-5</v>
+        <v>2.5052929483928665E-4</v>
       </c>
       <c r="H15">
-        <v>2.4897916565003761E-5</v>
+        <v>5.5099762050036367E-4</v>
       </c>
       <c r="I15">
-        <v>-1.694361713841879E-4</v>
+        <v>-1.5860180884004916E-4</v>
       </c>
       <c r="J15">
-        <v>-1.0500731929633737E-4</v>
+        <v>1.0142581058936238E-4</v>
       </c>
       <c r="K15">
-        <v>-2.5856482314989696E-5</v>
+        <v>2.6410321835178057E-4</v>
       </c>
       <c r="L15">
-        <v>5.3800580307657078E-5</v>
+        <v>2.9822588427059918E-4</v>
       </c>
       <c r="M15">
-        <v>-3.5313989492048552E-4</v>
+        <v>-5.369213963145041E-4</v>
       </c>
       <c r="N15">
-        <v>-9.8627559245884956E-5</v>
+        <v>-1.8443977086338137E-4</v>
       </c>
       <c r="O15">
-        <v>8.5751853544994831E-4</v>
+        <v>1.3030455270072469E-3</v>
       </c>
       <c r="P15">
-        <v>1.3446327426517159E-3</v>
+        <v>2.2080305795237785E-3</v>
       </c>
       <c r="Q15">
-        <v>-8.6946603838422912E-6</v>
+        <v>5.9085098820099756E-4</v>
       </c>
       <c r="R15">
-        <v>5.4346538046266786E-6</v>
+        <v>6.0644650713572693E-4</v>
       </c>
       <c r="S15">
-        <v>1.0342830134684488E-4</v>
+        <v>7.8743571860219442E-4</v>
       </c>
       <c r="T15">
-        <v>3.183919478322303E-5</v>
+        <v>5.5266131535489484E-4</v>
       </c>
       <c r="U15">
-        <v>-5.0995602545465774E-5</v>
+        <v>-1.3141000600114331E-4</v>
       </c>
       <c r="V15">
-        <v>1.5832554673048479E-5</v>
+        <v>6.7562803972054148E-6</v>
       </c>
       <c r="W15">
-        <v>7.2218339928240211E-5</v>
+        <v>2.8653250369600958E-5</v>
       </c>
       <c r="X15">
-        <v>1.8241408358552944E-4</v>
+        <v>3.2774816690868055E-4</v>
       </c>
       <c r="Y15">
-        <v>1.8629891985236596E-5</v>
+        <v>2.8293951280300593E-5</v>
       </c>
       <c r="Z15">
-        <v>-7.9618278410355069E-5</v>
+        <v>-6.5626438313983455E-5</v>
       </c>
       <c r="AA15">
-        <v>-8.8914509201160671E-5</v>
+        <v>3.8600949879069352E-5</v>
       </c>
       <c r="AB15">
-        <v>-6.0230418948652989E-5</v>
+        <v>-1.1867530146991289E-4</v>
       </c>
       <c r="AC15">
-        <v>-3.8375340942774648E-5</v>
+        <v>-1.813907855332389E-5</v>
       </c>
       <c r="AD15">
-        <v>3.7479989587589673E-5</v>
+        <v>5.0457305931109013E-5</v>
       </c>
       <c r="AE15">
-        <v>7.9513890486140767E-6</v>
+        <v>8.0945814137831876E-6</v>
       </c>
       <c r="AF15">
-        <v>4.2648919476111734E-5</v>
+        <v>2.7032358379740825E-4</v>
       </c>
       <c r="AG15">
-        <v>9.1476558443811271E-5</v>
+        <v>1.1812324816894436E-4</v>
       </c>
       <c r="AH15">
-        <v>-9.2485224058497933E-4</v>
+        <v>-2.1720112496965756E-3</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="38">
-        <v>5.5929962339993144E-2</v>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.1781232993523473</v>
       </c>
       <c r="C16">
-        <v>-2.7555455138435986E-5</v>
+        <v>1.2349254655087661E-4</v>
       </c>
       <c r="D16">
-        <v>-1.9218169860092027E-5</v>
+        <v>1.2732706508277868E-4</v>
       </c>
       <c r="E16">
-        <v>1.9027469277679189E-7</v>
+        <v>-1.4138075044429864E-6</v>
       </c>
       <c r="F16">
-        <v>5.7832150575601397E-5</v>
+        <v>-1.9013376654838411E-5</v>
       </c>
       <c r="G16">
-        <v>1.6464719343808849E-4</v>
+        <v>4.5210557271219967E-4</v>
       </c>
       <c r="H16">
-        <v>6.2037303488563411E-5</v>
+        <v>2.548149756907616E-5</v>
       </c>
       <c r="I16">
-        <v>2.0591049505648123E-5</v>
+        <v>2.5999430901070802E-4</v>
       </c>
       <c r="J16">
-        <v>1.0881890631719752E-4</v>
+        <v>-1.3785055534069716E-4</v>
       </c>
       <c r="K16">
-        <v>2.9859158132289733E-5</v>
+        <v>6.5441201594659652E-5</v>
       </c>
       <c r="L16">
-        <v>1.0072660652707026E-4</v>
+        <v>-1.307211022300277E-4</v>
       </c>
       <c r="M16">
-        <v>-7.6659681429089939E-5</v>
+        <v>3.3689454752966388E-4</v>
       </c>
       <c r="N16">
-        <v>-1.9499275139665348E-5</v>
+        <v>3.1577474662237764E-4</v>
       </c>
       <c r="O16">
-        <v>3.1859642313753042E-6</v>
+        <v>-1.9245749161730789E-4</v>
       </c>
       <c r="P16">
-        <v>-8.6946603838422912E-6</v>
+        <v>5.9085098820099756E-4</v>
       </c>
       <c r="Q16">
-        <v>4.0084915469471337E-3</v>
+        <v>9.4968474348428832E-3</v>
       </c>
       <c r="R16">
-        <v>3.4403911098617799E-3</v>
+        <v>8.7215127757852111E-3</v>
       </c>
       <c r="S16">
-        <v>3.4336132584923537E-3</v>
+        <v>8.7484223666304348E-3</v>
       </c>
       <c r="T16">
-        <v>3.4078270663167377E-3</v>
+        <v>8.7786548042312878E-3</v>
       </c>
       <c r="U16">
-        <v>-1.2588117597152354E-4</v>
+        <v>-9.8721911216102928E-4</v>
       </c>
       <c r="V16">
-        <v>-9.2762782948857037E-5</v>
+        <v>-4.9331348625071417E-4</v>
       </c>
       <c r="W16">
-        <v>-5.4033641786654517E-5</v>
+        <v>-5.4650179889855822E-4</v>
       </c>
       <c r="X16">
-        <v>-5.6471694608827699E-5</v>
+        <v>-5.7953151498202609E-4</v>
       </c>
       <c r="Y16">
-        <v>-6.3420942375914052E-6</v>
+        <v>1.1475987217563063E-5</v>
       </c>
       <c r="Z16">
-        <v>2.7065457217272993E-5</v>
+        <v>1.2244676956675452E-4</v>
       </c>
       <c r="AA16">
-        <v>-8.1321952506481542E-5</v>
+        <v>-1.1497199099601446E-3</v>
       </c>
       <c r="AB16">
-        <v>-3.6292188235961809E-5</v>
+        <v>1.0990001009011235E-6</v>
       </c>
       <c r="AC16">
-        <v>-2.8108093008049825E-6</v>
+        <v>-6.1681125117520573E-5</v>
       </c>
       <c r="AD16">
-        <v>7.4357286008350188E-6</v>
+        <v>4.4499328697998868E-5</v>
       </c>
       <c r="AE16">
-        <v>7.5249961743966527E-6</v>
+        <v>9.3347912054103275E-6</v>
       </c>
       <c r="AF16">
-        <v>-6.7387341905088792E-5</v>
+        <v>-1.5384831453324052E-3</v>
       </c>
       <c r="AG16">
-        <v>-3.8202984609505782E-5</v>
+        <v>-5.300283946534437E-5</v>
       </c>
       <c r="AH16">
-        <v>-3.0812215633848651E-3</v>
+        <v>-1.0797593252049424E-2</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="38">
-        <v>0.14611599663638014</v>
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.28890044899804307</v>
       </c>
       <c r="C17">
-        <v>1.8024529134122181E-5</v>
+        <v>1.9035035252080133E-4</v>
       </c>
       <c r="D17">
-        <v>-3.7207368112170017E-5</v>
+        <v>1.2162822416105748E-4</v>
       </c>
       <c r="E17">
-        <v>4.0940823915512384E-7</v>
+        <v>-1.3572278993061973E-6</v>
       </c>
       <c r="F17">
-        <v>-1.6557425093882347E-5</v>
+        <v>-1.2349950944443022E-5</v>
       </c>
       <c r="G17">
-        <v>3.2193064053452533E-6</v>
+        <v>5.678703256985153E-4</v>
       </c>
       <c r="H17">
-        <v>-8.3915241487303541E-6</v>
+        <v>1.0385390863964367E-5</v>
       </c>
       <c r="I17">
-        <v>1.0436404571546138E-5</v>
+        <v>4.1169163151917945E-4</v>
       </c>
       <c r="J17">
-        <v>4.2584494704953256E-5</v>
+        <v>-8.5007508727374687E-5</v>
       </c>
       <c r="K17">
-        <v>1.8451252783496965E-5</v>
+        <v>1.7546726547461094E-4</v>
       </c>
       <c r="L17">
-        <v>3.1861013057887927E-5</v>
+        <v>-9.9147358379946329E-5</v>
       </c>
       <c r="M17">
-        <v>-1.3154136450195807E-4</v>
+        <v>3.186093669430767E-4</v>
       </c>
       <c r="N17">
-        <v>-5.3898042333655168E-6</v>
+        <v>4.0612675807860437E-4</v>
       </c>
       <c r="O17">
-        <v>2.9206197083012763E-5</v>
+        <v>-2.5360594113041411E-4</v>
       </c>
       <c r="P17">
-        <v>5.4346538046266786E-6</v>
+        <v>6.0644650713572693E-4</v>
       </c>
       <c r="Q17">
-        <v>3.4403911098617799E-3</v>
+        <v>8.7215127757852111E-3</v>
       </c>
       <c r="R17">
-        <v>3.9163592011834079E-3</v>
+        <v>9.3494928427186631E-3</v>
       </c>
       <c r="S17">
-        <v>3.579681092796595E-3</v>
+        <v>8.8871374460108357E-3</v>
       </c>
       <c r="T17">
-        <v>3.5529897874271342E-3</v>
+        <v>8.8810542628126928E-3</v>
       </c>
       <c r="U17">
-        <v>-8.7527212304665822E-5</v>
+        <v>-9.5749053687405744E-4</v>
       </c>
       <c r="V17">
-        <v>-5.3259432133181614E-5</v>
+        <v>-4.7034127749101751E-4</v>
       </c>
       <c r="W17">
-        <v>-1.8176483037295773E-5</v>
+        <v>-5.2012842308814906E-4</v>
       </c>
       <c r="X17">
-        <v>-4.31946801037527E-6</v>
+        <v>-5.6388967105471151E-4</v>
       </c>
       <c r="Y17">
-        <v>-1.4434844579493559E-6</v>
+        <v>1.9509319417948897E-5</v>
       </c>
       <c r="Z17">
-        <v>3.9087850740341388E-5</v>
+        <v>1.4764397870405534E-4</v>
       </c>
       <c r="AA17">
-        <v>-8.3701324050491129E-6</v>
+        <v>-1.1676023427347397E-3</v>
       </c>
       <c r="AB17">
-        <v>-6.5249161864832598E-5</v>
+        <v>5.2435536631717777E-5</v>
       </c>
       <c r="AC17">
-        <v>-9.6954628974193374E-6</v>
+        <v>-1.105565544933804E-4</v>
       </c>
       <c r="AD17">
-        <v>4.7125377417273399E-5</v>
+        <v>7.3790774712042357E-5</v>
       </c>
       <c r="AE17">
-        <v>-1.5207664489067278E-6</v>
+        <v>-4.0618335462888774E-6</v>
       </c>
       <c r="AF17">
-        <v>1.1248230807839148E-4</v>
+        <v>-1.2840824253920842E-3</v>
       </c>
       <c r="AG17">
-        <v>-6.1138647521071453E-5</v>
+        <v>-7.840537325995954E-5</v>
       </c>
       <c r="AH17">
-        <v>-2.8473312645004769E-3</v>
+        <v>-1.0769085093481214E-2</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="38">
-        <v>0.13111754238930215</v>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.22819781922558496</v>
       </c>
       <c r="C18">
-        <v>3.4910458367521947E-5</v>
+        <v>1.978242367510187E-4</v>
       </c>
       <c r="D18">
-        <v>-1.3260913622587542E-5</v>
+        <v>1.5398614594633634E-4</v>
       </c>
       <c r="E18">
-        <v>2.158837279470273E-7</v>
+        <v>-1.5981695029980982E-6</v>
       </c>
       <c r="F18">
-        <v>5.8865848806807027E-5</v>
+        <v>-9.0590748951208978E-5</v>
       </c>
       <c r="G18">
-        <v>1.1470441331172956E-4</v>
+        <v>4.5165633860927965E-4</v>
       </c>
       <c r="H18">
-        <v>6.3377568663052262E-5</v>
+        <v>1.3080277389313291E-5</v>
       </c>
       <c r="I18">
-        <v>2.974429594526766E-5</v>
+        <v>2.8683790120362547E-4</v>
       </c>
       <c r="J18">
-        <v>3.4509861956094192E-5</v>
+        <v>-2.922963280902152E-4</v>
       </c>
       <c r="K18">
-        <v>8.1658996643294487E-5</v>
+        <v>7.2469291804958588E-5</v>
       </c>
       <c r="L18">
-        <v>5.749034905495369E-5</v>
+        <v>-2.6765520876812464E-4</v>
       </c>
       <c r="M18">
-        <v>-9.5036095835912085E-5</v>
+        <v>3.4797593320051853E-4</v>
       </c>
       <c r="N18">
-        <v>9.4398407177180671E-5</v>
+        <v>5.8037590680436939E-4</v>
       </c>
       <c r="O18">
-        <v>5.0678643793409294E-5</v>
+        <v>-1.5198421607297307E-4</v>
       </c>
       <c r="P18">
-        <v>1.0342830134684488E-4</v>
+        <v>7.8743571860219442E-4</v>
       </c>
       <c r="Q18">
-        <v>3.4336132584923537E-3</v>
+        <v>8.7484223666304348E-3</v>
       </c>
       <c r="R18">
-        <v>3.579681092796595E-3</v>
+        <v>8.8871374460108357E-3</v>
       </c>
       <c r="S18">
-        <v>4.0700066228423612E-3</v>
+        <v>9.7271623321142833E-3</v>
       </c>
       <c r="T18">
-        <v>3.8293432459748549E-3</v>
+        <v>9.35465440916999E-3</v>
       </c>
       <c r="U18">
-        <v>-9.9541216228124545E-5</v>
+        <v>-9.7689509897377338E-4</v>
       </c>
       <c r="V18">
-        <v>-1.3036468124629104E-4</v>
+        <v>-5.5319977117014715E-4</v>
       </c>
       <c r="W18">
-        <v>-1.1579194471208749E-4</v>
+        <v>-6.6644001859648321E-4</v>
       </c>
       <c r="X18">
-        <v>-1.8635472954370985E-4</v>
+        <v>-7.7793060273241826E-4</v>
       </c>
       <c r="Y18">
-        <v>9.2564692295668712E-6</v>
+        <v>4.0709950240078944E-5</v>
       </c>
       <c r="Z18">
-        <v>-1.0713185267097647E-5</v>
+        <v>7.6762700064143775E-5</v>
       </c>
       <c r="AA18">
-        <v>7.8938083454248038E-6</v>
+        <v>-1.083824157961117E-3</v>
       </c>
       <c r="AB18">
-        <v>-2.1729824573275391E-5</v>
+        <v>1.1296879594876194E-4</v>
       </c>
       <c r="AC18">
-        <v>-3.2451264433821592E-6</v>
+        <v>-8.9586255037903129E-5</v>
       </c>
       <c r="AD18">
-        <v>7.2611698492275399E-5</v>
+        <v>1.6664264926335407E-4</v>
       </c>
       <c r="AE18">
-        <v>-3.8592124665402837E-6</v>
+        <v>-1.0051090735702117E-5</v>
       </c>
       <c r="AF18">
-        <v>2.3709313022762454E-5</v>
+        <v>-1.2068339613770882E-3</v>
       </c>
       <c r="AG18">
-        <v>-4.6591702850437263E-6</v>
+        <v>1.9397812211810386E-5</v>
       </c>
       <c r="AH18">
-        <v>-3.6697974996654451E-3</v>
+        <v>-1.1897452914969299E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="38">
-        <v>0.16014029807504901</v>
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.21714203793873835</v>
       </c>
       <c r="C19">
-        <v>-2.1923498827584511E-5</v>
+        <v>1.9828961769724842E-5</v>
       </c>
       <c r="D19">
-        <v>1.86722563590956E-5</v>
+        <v>1.9799636574217061E-4</v>
       </c>
       <c r="E19">
-        <v>-2.756862630082573E-8</v>
+        <v>-1.9634542007952401E-6</v>
       </c>
       <c r="F19">
-        <v>-1.2533749472519212E-5</v>
+        <v>-3.9568380751433922E-4</v>
       </c>
       <c r="G19">
-        <v>1.1051684733845332E-4</v>
+        <v>3.2670269265165077E-4</v>
       </c>
       <c r="H19">
-        <v>-3.3214981508635541E-6</v>
+        <v>-2.6514958390300354E-4</v>
       </c>
       <c r="I19">
-        <v>1.3770076818322372E-4</v>
+        <v>1.8305574145110462E-4</v>
       </c>
       <c r="J19">
-        <v>5.8840747626688503E-5</v>
+        <v>-3.9944145156773823E-4</v>
       </c>
       <c r="K19">
-        <v>5.5186444124918519E-5</v>
+        <v>-1.9877615813856594E-4</v>
       </c>
       <c r="L19">
-        <v>6.6940835592817926E-5</v>
+        <v>-4.804761118483655E-4</v>
       </c>
       <c r="M19">
-        <v>-5.5436293389776953E-5</v>
+        <v>3.4954139177318733E-4</v>
       </c>
       <c r="N19">
-        <v>1.4641137070244529E-4</v>
+        <v>7.8159234270390161E-4</v>
       </c>
       <c r="O19">
-        <v>6.8257525522385056E-6</v>
+        <v>-3.4784458984114157E-4</v>
       </c>
       <c r="P19">
-        <v>3.183919478322303E-5</v>
+        <v>5.5266131535489484E-4</v>
       </c>
       <c r="Q19">
-        <v>3.4078270663167377E-3</v>
+        <v>8.7786548042312878E-3</v>
       </c>
       <c r="R19">
-        <v>3.5529897874271342E-3</v>
+        <v>8.8810542628126928E-3</v>
       </c>
       <c r="S19">
-        <v>3.8293432459748549E-3</v>
+        <v>9.35465440916999E-3</v>
       </c>
       <c r="T19">
-        <v>4.9244173003207764E-3</v>
+        <v>1.1131507432781469E-2</v>
       </c>
       <c r="U19">
-        <v>-9.9696594104833826E-5</v>
+        <v>-1.0129798248799831E-3</v>
       </c>
       <c r="V19">
-        <v>-7.1008541938393584E-5</v>
+        <v>-4.338963168676928E-4</v>
       </c>
       <c r="W19">
-        <v>-4.1083348365507149E-5</v>
+        <v>-5.0356233093426051E-4</v>
       </c>
       <c r="X19">
-        <v>-8.6428748302783825E-5</v>
+        <v>-5.3933807825628545E-4</v>
       </c>
       <c r="Y19">
-        <v>-9.771643842188648E-6</v>
+        <v>1.6034854631452524E-5</v>
       </c>
       <c r="Z19">
-        <v>-1.6345882371762428E-5</v>
+        <v>9.7423462135635443E-5</v>
       </c>
       <c r="AA19">
-        <v>-1.4067172378131806E-4</v>
+        <v>-1.2892196516035776E-3</v>
       </c>
       <c r="AB19">
-        <v>-8.1763655533166266E-5</v>
+        <v>-2.9596306427952246E-6</v>
       </c>
       <c r="AC19">
-        <v>1.5904935439195141E-5</v>
+        <v>-8.3393038772289706E-5</v>
       </c>
       <c r="AD19">
-        <v>6.9559538646721047E-5</v>
+        <v>1.8797936878927864E-4</v>
       </c>
       <c r="AE19">
-        <v>8.0584579235854132E-6</v>
+        <v>1.678102267530288E-5</v>
       </c>
       <c r="AF19">
-        <v>-1.4889437212913491E-4</v>
+        <v>-1.5282289325095188E-3</v>
       </c>
       <c r="AG19">
-        <v>-5.0057072073762593E-5</v>
+        <v>-7.4618361677452347E-5</v>
       </c>
       <c r="AH19">
-        <v>-4.7605309573818463E-3</v>
+        <v>-1.3275418869167884E-2</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="38">
-        <v>-3.501652449415784E-2</v>
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-3.5779784384862588E-2</v>
       </c>
       <c r="C20">
-        <v>-1.5840744043522951E-5</v>
+        <v>-9.57975951133598E-5</v>
       </c>
       <c r="D20">
-        <v>-1.5084395861254279E-6</v>
+        <v>-2.122153273784025E-5</v>
       </c>
       <c r="E20">
-        <v>4.2763933223505174E-8</v>
+        <v>2.3356666167662644E-7</v>
       </c>
       <c r="F20">
-        <v>1.3167381407566887E-4</v>
+        <v>1.3506112256302132E-4</v>
       </c>
       <c r="G20">
-        <v>-3.4383000366098766E-5</v>
+        <v>-5.3892961086928905E-5</v>
       </c>
       <c r="H20">
-        <v>2.4219941243844184E-5</v>
+        <v>4.2182420996300562E-5</v>
       </c>
       <c r="I20">
-        <v>1.0099203508079872E-4</v>
+        <v>3.116802386385E-5</v>
       </c>
       <c r="J20">
-        <v>8.3600379723594378E-5</v>
+        <v>7.8881220017353775E-5</v>
       </c>
       <c r="K20">
-        <v>5.2769921137823525E-5</v>
+        <v>4.2431075667336953E-5</v>
       </c>
       <c r="L20">
-        <v>1.4587059313632913E-4</v>
+        <v>-7.2659544175865038E-5</v>
       </c>
       <c r="M20">
-        <v>5.3473035034097701E-5</v>
+        <v>6.3327569550311263E-5</v>
       </c>
       <c r="N20">
-        <v>5.9130161145322344E-5</v>
+        <v>9.3053694301496644E-5</v>
       </c>
       <c r="O20">
-        <v>-4.5789038649276221E-6</v>
+        <v>-1.1874853565989311E-5</v>
       </c>
       <c r="P20">
-        <v>-5.0995602545465774E-5</v>
+        <v>-1.3141000600114331E-4</v>
       </c>
       <c r="Q20">
-        <v>-1.2588117597152354E-4</v>
+        <v>-9.8721911216102928E-4</v>
       </c>
       <c r="R20">
-        <v>-8.7527212304665822E-5</v>
+        <v>-9.5749053687405744E-4</v>
       </c>
       <c r="S20">
-        <v>-9.9541216228124545E-5</v>
+        <v>-9.7689509897377338E-4</v>
       </c>
       <c r="T20">
-        <v>-9.9696594104833826E-5</v>
+        <v>-1.0129798248799831E-3</v>
       </c>
       <c r="U20">
-        <v>1.0158731132574252E-3</v>
+        <v>1.4157430133453579E-3</v>
       </c>
       <c r="V20">
-        <v>5.813295111976542E-4</v>
+        <v>9.2535747018826107E-4</v>
       </c>
       <c r="W20">
-        <v>5.9668071872875288E-4</v>
+        <v>9.4245089927214205E-4</v>
       </c>
       <c r="X20">
-        <v>6.1220163830072384E-4</v>
+        <v>9.4678609715442483E-4</v>
       </c>
       <c r="Y20">
-        <v>-2.8338519565757787E-5</v>
+        <v>-4.4556849064299891E-5</v>
       </c>
       <c r="Z20">
-        <v>5.8393408688578349E-6</v>
+        <v>-3.0011077526299983E-5</v>
       </c>
       <c r="AA20">
-        <v>1.0656496909548584E-4</v>
+        <v>2.4487621963875753E-4</v>
       </c>
       <c r="AB20">
-        <v>-5.9276113539097266E-5</v>
+        <v>-1.2659820024108322E-4</v>
       </c>
       <c r="AC20">
-        <v>-9.9821541883961143E-6</v>
+        <v>-5.4468707650396242E-6</v>
       </c>
       <c r="AD20">
-        <v>-2.8203891738341996E-5</v>
+        <v>-5.8350965294998755E-6</v>
       </c>
       <c r="AE20">
-        <v>-4.1077524336397339E-6</v>
+        <v>-5.2212172256601989E-6</v>
       </c>
       <c r="AF20">
-        <v>9.1212932078938358E-5</v>
+        <v>1.2764413865558972E-5</v>
       </c>
       <c r="AG20">
-        <v>1.6335431158314074E-5</v>
+        <v>-9.1499111443144195E-6</v>
       </c>
       <c r="AH20">
-        <v>-4.6949757222860817E-4</v>
+        <v>6.3212390940104108E-4</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="38">
-        <v>-4.02370351802269E-2</v>
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-9.8377528839403205E-2</v>
       </c>
       <c r="C21">
-        <v>3.428607753602349E-7</v>
+        <v>-2.9712171331673928E-5</v>
       </c>
       <c r="D21">
-        <v>-1.7773091032660448E-5</v>
+        <v>-4.9561718109756591E-5</v>
       </c>
       <c r="E21">
-        <v>2.4770518453236893E-7</v>
+        <v>5.6980716145852251E-7</v>
       </c>
       <c r="F21">
-        <v>3.1487986948351465E-4</v>
+        <v>3.2862151719950905E-4</v>
       </c>
       <c r="G21">
-        <v>3.2146133830892188E-4</v>
+        <v>1.3012391528802338E-4</v>
       </c>
       <c r="H21">
-        <v>7.3890610862375236E-5</v>
+        <v>1.3121074893238723E-4</v>
       </c>
       <c r="I21">
-        <v>3.7164053050896609E-4</v>
+        <v>2.0336846454068147E-4</v>
       </c>
       <c r="J21">
-        <v>2.0800919217396817E-4</v>
+        <v>6.7841513863903594E-5</v>
       </c>
       <c r="K21">
-        <v>4.466868135523679E-4</v>
+        <v>3.4806744397739584E-4</v>
       </c>
       <c r="L21">
-        <v>3.5983673626866381E-4</v>
+        <v>-4.211674240890825E-6</v>
       </c>
       <c r="M21">
-        <v>4.988396089586726E-4</v>
+        <v>1.8696101632759083E-3</v>
       </c>
       <c r="N21">
-        <v>3.8877699133514306E-4</v>
+        <v>1.541654161412543E-3</v>
       </c>
       <c r="O21">
-        <v>-2.0181807083701603E-5</v>
+        <v>-6.14372839349849E-5</v>
       </c>
       <c r="P21">
-        <v>1.5832554673048479E-5</v>
+        <v>6.7562803972054148E-6</v>
       </c>
       <c r="Q21">
-        <v>-9.2762782948857037E-5</v>
+        <v>-4.9331348625071417E-4</v>
       </c>
       <c r="R21">
-        <v>-5.3259432133181614E-5</v>
+        <v>-4.7034127749101751E-4</v>
       </c>
       <c r="S21">
-        <v>-1.3036468124629104E-4</v>
+        <v>-5.5319977117014715E-4</v>
       </c>
       <c r="T21">
-        <v>-7.1008541938393584E-5</v>
+        <v>-4.338963168676928E-4</v>
       </c>
       <c r="U21">
-        <v>5.813295111976542E-4</v>
+        <v>9.2535747018826107E-4</v>
       </c>
       <c r="V21">
-        <v>1.5171451200689757E-3</v>
+        <v>3.160305068758769E-3</v>
       </c>
       <c r="W21">
-        <v>1.2648827026940685E-3</v>
+        <v>2.7932415053997404E-3</v>
       </c>
       <c r="X21">
-        <v>1.3450834890493817E-3</v>
+        <v>2.7932651468763727E-3</v>
       </c>
       <c r="Y21">
-        <v>-9.6535345479415593E-5</v>
+        <v>-2.1214664855644344E-4</v>
       </c>
       <c r="Z21">
-        <v>-2.6642680056280122E-5</v>
+        <v>-3.0794918316151857E-5</v>
       </c>
       <c r="AA21">
-        <v>1.1633136887157414E-5</v>
+        <v>1.3114974573238372E-4</v>
       </c>
       <c r="AB21">
-        <v>-2.0838407905430817E-4</v>
+        <v>-4.2981711810065857E-4</v>
       </c>
       <c r="AC21">
-        <v>-2.8743008927630681E-5</v>
+        <v>-5.3323620495672697E-5</v>
       </c>
       <c r="AD21">
-        <v>-1.0636340515064426E-5</v>
+        <v>1.3630526908074724E-5</v>
       </c>
       <c r="AE21">
-        <v>-5.4006124209891068E-6</v>
+        <v>-1.0575874296102597E-5</v>
       </c>
       <c r="AF21">
-        <v>-1.4749834336640457E-5</v>
+        <v>2.0402809333457551E-5</v>
       </c>
       <c r="AG21">
-        <v>-5.5123365420984183E-5</v>
+        <v>-1.4242261530411919E-4</v>
       </c>
       <c r="AH21">
-        <v>-9.8867820574509045E-4</v>
+        <v>-1.1217706435791815E-3</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="38">
-        <v>-3.881347305644745E-3</v>
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1.9243110858212269E-2</v>
       </c>
       <c r="C22">
-        <v>-3.2138066265636529E-5</v>
+        <v>-8.4957249410364032E-5</v>
       </c>
       <c r="D22">
-        <v>-1.7725428851976158E-5</v>
+        <v>-5.0766914968093229E-5</v>
       </c>
       <c r="E22">
-        <v>2.5616557819447479E-7</v>
+        <v>6.0629272609094815E-7</v>
       </c>
       <c r="F22">
-        <v>4.3253707584346994E-4</v>
+        <v>6.8712450285249587E-4</v>
       </c>
       <c r="G22">
-        <v>4.8632484079167186E-4</v>
+        <v>4.2037527942687331E-4</v>
       </c>
       <c r="H22">
-        <v>1.8472645389788257E-4</v>
+        <v>2.6457292027339858E-4</v>
       </c>
       <c r="I22">
-        <v>5.4424387010272492E-4</v>
+        <v>5.1873047463617283E-4</v>
       </c>
       <c r="J22">
-        <v>5.7406931778274811E-4</v>
+        <v>8.3578715825229977E-4</v>
       </c>
       <c r="K22">
-        <v>5.8373464004820316E-4</v>
+        <v>5.7312562913760157E-4</v>
       </c>
       <c r="L22">
-        <v>5.57798561796076E-4</v>
+        <v>4.2094178036386482E-4</v>
       </c>
       <c r="M22">
-        <v>6.856433321663876E-4</v>
+        <v>2.5174520835776534E-3</v>
       </c>
       <c r="N22">
-        <v>6.2806160884849339E-4</v>
+        <v>2.1700962330402571E-3</v>
       </c>
       <c r="O22">
-        <v>1.0048167739524259E-4</v>
+        <v>1.2380666800409468E-4</v>
       </c>
       <c r="P22">
-        <v>7.2218339928240211E-5</v>
+        <v>2.8653250369600958E-5</v>
       </c>
       <c r="Q22">
-        <v>-5.4033641786654517E-5</v>
+        <v>-5.4650179889855822E-4</v>
       </c>
       <c r="R22">
-        <v>-1.8176483037295773E-5</v>
+        <v>-5.2012842308814906E-4</v>
       </c>
       <c r="S22">
-        <v>-1.1579194471208749E-4</v>
+        <v>-6.6644001859648321E-4</v>
       </c>
       <c r="T22">
-        <v>-4.1083348365507149E-5</v>
+        <v>-5.0356233093426051E-4</v>
       </c>
       <c r="U22">
-        <v>5.9668071872875288E-4</v>
+        <v>9.4245089927214205E-4</v>
       </c>
       <c r="V22">
-        <v>1.2648827026940685E-3</v>
+        <v>2.7932415053997404E-3</v>
       </c>
       <c r="W22">
-        <v>1.9105590169133206E-3</v>
+        <v>4.1554193001790843E-3</v>
       </c>
       <c r="X22">
-        <v>1.6423708713589138E-3</v>
+        <v>3.5130038590058146E-3</v>
       </c>
       <c r="Y22">
-        <v>-7.1103173480543353E-5</v>
+        <v>-1.8574403013974021E-4</v>
       </c>
       <c r="Z22">
-        <v>-8.2245225317856437E-6</v>
+        <v>6.6872541897801852E-6</v>
       </c>
       <c r="AA22">
-        <v>-3.3682328036077408E-5</v>
+        <v>5.1881100121500107E-5</v>
       </c>
       <c r="AB22">
-        <v>-2.1461889760550736E-4</v>
+        <v>-3.9674585211979746E-4</v>
       </c>
       <c r="AC22">
-        <v>-3.0904589787286583E-5</v>
+        <v>-2.1431446495908882E-5</v>
       </c>
       <c r="AD22">
-        <v>-2.9126565764760052E-5</v>
+        <v>-1.2270941320065938E-5</v>
       </c>
       <c r="AE22">
-        <v>-4.5520603148301633E-6</v>
+        <v>-1.2423545006266746E-5</v>
       </c>
       <c r="AF22">
-        <v>-6.8161253642254511E-5</v>
+        <v>-8.9967331606119992E-5</v>
       </c>
       <c r="AG22">
-        <v>-6.0785059325890332E-5</v>
+        <v>-1.2763201831042384E-4</v>
       </c>
       <c r="AH22">
-        <v>-1.5333210253611991E-3</v>
+        <v>-2.0625840458178479E-3</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="38">
-        <v>3.805806987920729E-2</v>
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>4.8488031226589873E-2</v>
       </c>
       <c r="C23">
-        <v>-2.7153992286396879E-5</v>
+        <v>-1.5476217504915585E-4</v>
       </c>
       <c r="D23">
-        <v>-2.6832264878845274E-5</v>
+        <v>-7.136361505733727E-5</v>
       </c>
       <c r="E23">
-        <v>3.2423004978606971E-7</v>
+        <v>7.5200797390137919E-7</v>
       </c>
       <c r="F23">
-        <v>5.3990332216988712E-4</v>
+        <v>1.3565621048060757E-3</v>
       </c>
       <c r="G23">
-        <v>6.8591481507435798E-4</v>
+        <v>1.3341976960721531E-3</v>
       </c>
       <c r="H23">
-        <v>4.724673710286998E-4</v>
+        <v>1.4777634115564486E-3</v>
       </c>
       <c r="I23">
-        <v>6.2478990679459313E-4</v>
+        <v>1.2265270614299139E-3</v>
       </c>
       <c r="J23">
-        <v>8.0977191829111408E-4</v>
+        <v>1.7031491179690661E-3</v>
       </c>
       <c r="K23">
-        <v>7.8361098591835728E-4</v>
+        <v>1.4232334855310081E-3</v>
       </c>
       <c r="L23">
-        <v>8.9737561584387433E-4</v>
+        <v>1.4480555041789492E-3</v>
       </c>
       <c r="M23">
-        <v>6.8706747879231783E-4</v>
+        <v>2.3396599916427566E-3</v>
       </c>
       <c r="N23">
-        <v>6.8831969895167579E-4</v>
+        <v>2.141560202326925E-3</v>
       </c>
       <c r="O23">
-        <v>2.2480254162542107E-4</v>
+        <v>4.2823394367594303E-4</v>
       </c>
       <c r="P23">
-        <v>1.8241408358552944E-4</v>
+        <v>3.2774816690868055E-4</v>
       </c>
       <c r="Q23">
-        <v>-5.6471694608827699E-5</v>
+        <v>-5.7953151498202609E-4</v>
       </c>
       <c r="R23">
-        <v>-4.31946801037527E-6</v>
+        <v>-5.6388967105471151E-4</v>
       </c>
       <c r="S23">
-        <v>-1.8635472954370985E-4</v>
+        <v>-7.7793060273241826E-4</v>
       </c>
       <c r="T23">
-        <v>-8.6428748302783825E-5</v>
+        <v>-5.3933807825628545E-4</v>
       </c>
       <c r="U23">
-        <v>6.1220163830072384E-4</v>
+        <v>9.4678609715442483E-4</v>
       </c>
       <c r="V23">
-        <v>1.3450834890493817E-3</v>
+        <v>2.7932651468763727E-3</v>
       </c>
       <c r="W23">
-        <v>1.6423708713589138E-3</v>
+        <v>3.5130038590058146E-3</v>
       </c>
       <c r="X23">
-        <v>2.7568481167001861E-3</v>
+        <v>5.701047532027461E-3</v>
       </c>
       <c r="Y23">
-        <v>-1.0335704860065258E-4</v>
+        <v>-2.265465780921488E-4</v>
       </c>
       <c r="Z23">
-        <v>1.1576144370683129E-4</v>
+        <v>2.5262526665338094E-4</v>
       </c>
       <c r="AA23">
-        <v>2.0992559469369589E-4</v>
+        <v>5.4120817164916087E-4</v>
       </c>
       <c r="AB23">
-        <v>-2.6004663333747881E-4</v>
+        <v>-4.3569775697482188E-4</v>
       </c>
       <c r="AC23">
-        <v>-9.9817814837424893E-6</v>
+        <v>5.9547043742206273E-5</v>
       </c>
       <c r="AD23">
-        <v>1.5731992713049353E-5</v>
+        <v>8.8220800990993008E-5</v>
       </c>
       <c r="AE23">
-        <v>1.5917604861093399E-7</v>
+        <v>-3.9354444536184897E-8</v>
       </c>
       <c r="AF23">
-        <v>3.1196921778907242E-4</v>
+        <v>4.3990746848872504E-4</v>
       </c>
       <c r="AG23">
-        <v>-9.5161998228145345E-5</v>
+        <v>-2.2465995396766386E-4</v>
       </c>
       <c r="AH23">
-        <v>-1.8692673049336269E-3</v>
+        <v>-2.9565347137606047E-3</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="38">
-        <v>5.664086714726675E-3</v>
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>8.877984653956502E-3</v>
       </c>
       <c r="C24">
-        <v>8.0515421347049005E-6</v>
+        <v>2.6511522312251431E-5</v>
       </c>
       <c r="D24">
-        <v>5.1918775570460752E-7</v>
+        <v>3.9666005219691157E-6</v>
       </c>
       <c r="E24">
-        <v>-7.5615373483454625E-9</v>
+        <v>-3.7805417598294619E-8</v>
       </c>
       <c r="F24">
-        <v>-2.1635937740960531E-4</v>
+        <v>-2.7341775824591574E-4</v>
       </c>
       <c r="G24">
-        <v>-3.7349350146862023E-5</v>
+        <v>-5.5575901472925017E-5</v>
       </c>
       <c r="H24">
-        <v>-3.9699879976002196E-5</v>
+        <v>-5.8428580098840048E-5</v>
       </c>
       <c r="I24">
-        <v>-1.791520235219863E-4</v>
+        <v>-2.3020203469053497E-4</v>
       </c>
       <c r="J24">
-        <v>-5.0371644623542834E-5</v>
+        <v>-9.2647623142644401E-5</v>
       </c>
       <c r="K24">
-        <v>-6.529180612947682E-5</v>
+        <v>-8.9997363013553082E-5</v>
       </c>
       <c r="L24">
-        <v>-2.341532135862371E-4</v>
+        <v>-2.8429475036075507E-4</v>
       </c>
       <c r="M24">
-        <v>-4.1611690133029898E-5</v>
+        <v>-1.2962940685564008E-4</v>
       </c>
       <c r="N24">
-        <v>-2.6599524330350141E-5</v>
+        <v>-1.0574301288292374E-4</v>
       </c>
       <c r="O24">
-        <v>1.1519968285874962E-5</v>
+        <v>1.6186708533937397E-5</v>
       </c>
       <c r="P24">
-        <v>1.8629891985236596E-5</v>
+        <v>2.8293951280300593E-5</v>
       </c>
       <c r="Q24">
-        <v>-6.3420942375914052E-6</v>
+        <v>1.1475987217563063E-5</v>
       </c>
       <c r="R24">
-        <v>-1.4434844579493559E-6</v>
+        <v>1.9509319417948897E-5</v>
       </c>
       <c r="S24">
-        <v>9.2564692295668712E-6</v>
+        <v>4.0709950240078944E-5</v>
       </c>
       <c r="T24">
-        <v>-9.771643842188648E-6</v>
+        <v>1.6034854631452524E-5</v>
       </c>
       <c r="U24">
-        <v>-2.8338519565757787E-5</v>
+        <v>-4.4556849064299891E-5</v>
       </c>
       <c r="V24">
-        <v>-9.6535345479415593E-5</v>
+        <v>-2.1214664855644344E-4</v>
       </c>
       <c r="W24">
-        <v>-7.1103173480543353E-5</v>
+        <v>-1.8574403013974021E-4</v>
       </c>
       <c r="X24">
-        <v>-1.0335704860065258E-4</v>
+        <v>-2.265465780921488E-4</v>
       </c>
       <c r="Y24">
-        <v>8.1698854214131981E-5</v>
+        <v>1.1057248731992913E-4</v>
       </c>
       <c r="Z24">
-        <v>2.4102877113365254E-6</v>
+        <v>1.7428970122933345E-6</v>
       </c>
       <c r="AA24">
-        <v>-7.0380238409838087E-6</v>
+        <v>-1.1693964669731111E-5</v>
       </c>
       <c r="AB24">
-        <v>1.0836776883040305E-5</v>
+        <v>1.5232115641853704E-5</v>
       </c>
       <c r="AC24">
-        <v>3.8725227381425674E-6</v>
+        <v>2.4136406310454088E-6</v>
       </c>
       <c r="AD24">
-        <v>2.569093492204676E-6</v>
+        <v>3.5191474605879625E-6</v>
       </c>
       <c r="AE24">
-        <v>4.164501402546201E-6</v>
+        <v>5.9812574742076344E-6</v>
       </c>
       <c r="AF24">
-        <v>-3.6407157048884685E-5</v>
+        <v>-4.1457745884200534E-5</v>
       </c>
       <c r="AG24">
-        <v>-9.7284431197457737E-6</v>
+        <v>1.8906095439216122E-6</v>
       </c>
       <c r="AH24">
-        <v>-8.5128889759942168E-7</v>
+        <v>-4.7664044471839131E-5</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="38">
-        <v>4.3881566025756431</v>
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>4.4509461335975011</v>
       </c>
       <c r="C25">
-        <v>-1.0205046965530909E-5</v>
+        <v>-1.2069559280475999E-5</v>
       </c>
       <c r="D25">
-        <v>-8.1333625158732075E-6</v>
+        <v>-8.4805149779909557E-6</v>
       </c>
       <c r="E25">
-        <v>4.7555092811607297E-8</v>
+        <v>3.434099864752365E-8</v>
       </c>
       <c r="F25">
-        <v>-3.0239507218456736E-5</v>
+        <v>-8.7362548031536338E-5</v>
       </c>
       <c r="G25">
-        <v>-1.9885634365762668E-5</v>
+        <v>-2.4866634709257173E-5</v>
       </c>
       <c r="H25">
-        <v>4.2808629502101054E-5</v>
+        <v>1.1401714338655342E-4</v>
       </c>
       <c r="I25">
-        <v>1.9066378968074667E-4</v>
+        <v>3.0985723909006223E-4</v>
       </c>
       <c r="J25">
-        <v>-2.0095609045942399E-5</v>
+        <v>-1.616329051984508E-5</v>
       </c>
       <c r="K25">
-        <v>-5.821300778029295E-5</v>
+        <v>-7.982371145894533E-5</v>
       </c>
       <c r="L25">
-        <v>-4.5275792717046738E-5</v>
+        <v>-3.8474960167706124E-5</v>
       </c>
       <c r="M25">
-        <v>-9.9796331324579078E-5</v>
+        <v>-9.7940570574211224E-5</v>
       </c>
       <c r="N25">
-        <v>-3.5321640385382441E-5</v>
+        <v>-7.2730321637796654E-6</v>
       </c>
       <c r="O25">
-        <v>-6.2128115490988963E-5</v>
+        <v>-4.4875420700437892E-5</v>
       </c>
       <c r="P25">
-        <v>-7.9618278410355069E-5</v>
+        <v>-6.5626438313983455E-5</v>
       </c>
       <c r="Q25">
-        <v>2.7065457217272993E-5</v>
+        <v>1.2244676956675452E-4</v>
       </c>
       <c r="R25">
-        <v>3.9087850740341388E-5</v>
+        <v>1.4764397870405534E-4</v>
       </c>
       <c r="S25">
-        <v>-1.0713185267097647E-5</v>
+        <v>7.6762700064143775E-5</v>
       </c>
       <c r="T25">
-        <v>-1.6345882371762428E-5</v>
+        <v>9.7423462135635443E-5</v>
       </c>
       <c r="U25">
-        <v>5.8393408688578349E-6</v>
+        <v>-3.0011077526299983E-5</v>
       </c>
       <c r="V25">
-        <v>-2.6642680056280122E-5</v>
+        <v>-3.0794918316151857E-5</v>
       </c>
       <c r="W25">
-        <v>-8.2245225317856437E-6</v>
+        <v>6.6872541897801852E-6</v>
       </c>
       <c r="X25">
-        <v>1.1576144370683129E-4</v>
+        <v>2.5262526665338094E-4</v>
       </c>
       <c r="Y25">
-        <v>2.4102877113365254E-6</v>
+        <v>1.7428970122933345E-6</v>
       </c>
       <c r="Z25">
-        <v>5.4694162233036596E-4</v>
+        <v>8.712767748027192E-4</v>
       </c>
       <c r="AA25">
-        <v>7.3676593770786151E-5</v>
+        <v>7.7676911838639798E-5</v>
       </c>
       <c r="AB25">
-        <v>2.7738856455448524E-7</v>
+        <v>1.5650323035368678E-5</v>
       </c>
       <c r="AC25">
-        <v>1.7008787428221725E-5</v>
+        <v>3.9260822171651005E-5</v>
       </c>
       <c r="AD25">
-        <v>3.6208315899611031E-6</v>
+        <v>1.0213154249214061E-5</v>
       </c>
       <c r="AE25">
-        <v>-4.7128633799487875E-6</v>
+        <v>-6.5685191770114039E-6</v>
       </c>
       <c r="AF25">
-        <v>5.8651720196229915E-5</v>
+        <v>7.3946052331614709E-6</v>
       </c>
       <c r="AG25">
-        <v>-2.3075294598929105E-5</v>
+        <v>-5.367889769297922E-5</v>
       </c>
       <c r="AH25">
-        <v>1.3243718570342974E-4</v>
+        <v>-6.6480779615363098E-5</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="38">
-        <v>-1.1613804443431301E-2</v>
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-2.790127537604175E-3</v>
       </c>
       <c r="C26">
-        <v>-1.7689634487173019E-5</v>
+        <v>4.7501700915506521E-5</v>
       </c>
       <c r="D26">
-        <v>-1.8397904489040462E-5</v>
+        <v>-4.2955015750621711E-5</v>
       </c>
       <c r="E26">
-        <v>1.9060474720314273E-7</v>
+        <v>4.4181268730087427E-7</v>
       </c>
       <c r="F26">
-        <v>1.4686935196862243E-4</v>
+        <v>2.1509832525740233E-4</v>
       </c>
       <c r="G26">
-        <v>1.8511991698582438E-5</v>
+        <v>-9.1364085311034524E-6</v>
       </c>
       <c r="H26">
-        <v>3.0388947663734884E-4</v>
+        <v>6.036192079653651E-4</v>
       </c>
       <c r="I26">
-        <v>4.5996614135651115E-4</v>
+        <v>5.6213812529193243E-4</v>
       </c>
       <c r="J26">
-        <v>1.7189041247273453E-4</v>
+        <v>2.4369187071713238E-4</v>
       </c>
       <c r="K26">
-        <v>9.6741080698260263E-5</v>
+        <v>1.2036641666601355E-4</v>
       </c>
       <c r="L26">
-        <v>-2.1940515186037843E-5</v>
+        <v>3.3250309137248862E-5</v>
       </c>
       <c r="M26">
-        <v>4.7475255631971702E-6</v>
+        <v>-3.0322306064393609E-6</v>
       </c>
       <c r="N26">
-        <v>-2.0650844614895371E-5</v>
+        <v>2.1763675406856367E-5</v>
       </c>
       <c r="O26">
-        <v>4.094663567218344E-5</v>
+        <v>3.66675756150042E-4</v>
       </c>
       <c r="P26">
-        <v>-8.8914509201160671E-5</v>
+        <v>3.8600949879069352E-5</v>
       </c>
       <c r="Q26">
-        <v>-8.1321952506481542E-5</v>
+        <v>-1.1497199099601446E-3</v>
       </c>
       <c r="R26">
-        <v>-8.3701324050491129E-6</v>
+        <v>-1.1676023427347397E-3</v>
       </c>
       <c r="S26">
-        <v>7.8938083454248038E-6</v>
+        <v>-1.083824157961117E-3</v>
       </c>
       <c r="T26">
-        <v>-1.4067172378131806E-4</v>
+        <v>-1.2892196516035776E-3</v>
       </c>
       <c r="U26">
-        <v>1.0656496909548584E-4</v>
+        <v>2.4487621963875753E-4</v>
       </c>
       <c r="V26">
-        <v>1.1633136887157414E-5</v>
+        <v>1.3114974573238372E-4</v>
       </c>
       <c r="W26">
-        <v>-3.3682328036077408E-5</v>
+        <v>5.1881100121500107E-5</v>
       </c>
       <c r="X26">
-        <v>2.0992559469369589E-4</v>
+        <v>5.4120817164916087E-4</v>
       </c>
       <c r="Y26">
-        <v>-7.0380238409838087E-6</v>
+        <v>-1.1693964669731111E-5</v>
       </c>
       <c r="Z26">
-        <v>7.3676593770786151E-5</v>
+        <v>7.7676911838639798E-5</v>
       </c>
       <c r="AA26">
-        <v>1.3330880485569237E-3</v>
+        <v>2.0773378031042201E-3</v>
       </c>
       <c r="AB26">
-        <v>4.353340350473776E-4</v>
+        <v>7.3098397199302344E-4</v>
       </c>
       <c r="AC26">
-        <v>4.6563049386740707E-4</v>
+        <v>7.7200232736631801E-4</v>
       </c>
       <c r="AD26">
-        <v>4.3887794286015546E-4</v>
+        <v>7.402043669739051E-4</v>
       </c>
       <c r="AE26">
-        <v>-8.2133228193059251E-6</v>
+        <v>-7.4066987966828009E-6</v>
       </c>
       <c r="AF26">
-        <v>4.7089425590331505E-4</v>
+        <v>7.0256071048849125E-4</v>
       </c>
       <c r="AG26">
-        <v>-1.1123730411835136E-5</v>
+        <v>-2.0113831449243184E-5</v>
       </c>
       <c r="AH26">
-        <v>-1.3663071325335742E-4</v>
+        <v>6.9934047007049957E-4</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="38">
-        <v>-0.11987247711523175</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.12453129033326205</v>
       </c>
       <c r="C27">
-        <v>4.612929186166963E-6</v>
+        <v>8.3910774580279665E-5</v>
       </c>
       <c r="D27">
-        <v>1.0447901649068521E-5</v>
+        <v>1.5610848073999476E-6</v>
       </c>
       <c r="E27">
-        <v>-1.4672956866600413E-7</v>
+        <v>-7.9664664221620233E-8</v>
       </c>
       <c r="F27">
-        <v>-7.6569608895826194E-5</v>
+        <v>-2.1129850779340103E-4</v>
       </c>
       <c r="G27">
-        <v>8.8908170665578088E-5</v>
+        <v>2.1040952072367289E-4</v>
       </c>
       <c r="H27">
-        <v>4.4070149807506898E-6</v>
+        <v>-3.4962142455333481E-5</v>
       </c>
       <c r="I27">
-        <v>-1.1806564953034779E-4</v>
+        <v>1.1737885784841688E-4</v>
       </c>
       <c r="J27">
-        <v>5.8821881373327103E-5</v>
+        <v>-1.017008006614869E-4</v>
       </c>
       <c r="K27">
-        <v>1.4600923072762787E-5</v>
+        <v>5.2793807531282058E-5</v>
       </c>
       <c r="L27">
-        <v>-1.0920512550130761E-4</v>
+        <v>-7.9315402952171354E-5</v>
       </c>
       <c r="M27">
-        <v>4.5800296727457413E-5</v>
+        <v>-5.9694864727807481E-5</v>
       </c>
       <c r="N27">
-        <v>-2.4085914463144176E-6</v>
+        <v>-1.1260441339901758E-4</v>
       </c>
       <c r="O27">
-        <v>2.9208941476129718E-5</v>
+        <v>5.9765173137033174E-5</v>
       </c>
       <c r="P27">
-        <v>-6.0230418948652989E-5</v>
+        <v>-1.1867530146991289E-4</v>
       </c>
       <c r="Q27">
-        <v>-3.6292188235961809E-5</v>
+        <v>1.0990001009011235E-6</v>
       </c>
       <c r="R27">
-        <v>-6.5249161864832598E-5</v>
+        <v>5.2435536631717777E-5</v>
       </c>
       <c r="S27">
-        <v>-2.1729824573275391E-5</v>
+        <v>1.1296879594876194E-4</v>
       </c>
       <c r="T27">
-        <v>-8.1763655533166266E-5</v>
+        <v>-2.9596306427952246E-6</v>
       </c>
       <c r="U27">
-        <v>-5.9276113539097266E-5</v>
+        <v>-1.2659820024108322E-4</v>
       </c>
       <c r="V27">
-        <v>-2.0838407905430817E-4</v>
+        <v>-4.2981711810065857E-4</v>
       </c>
       <c r="W27">
-        <v>-2.1461889760550736E-4</v>
+        <v>-3.9674585211979746E-4</v>
       </c>
       <c r="X27">
-        <v>-2.6004663333747881E-4</v>
+        <v>-4.3569775697482188E-4</v>
       </c>
       <c r="Y27">
-        <v>1.0836776883040305E-5</v>
+        <v>1.5232115641853704E-5</v>
       </c>
       <c r="Z27">
-        <v>2.7738856455448524E-7</v>
+        <v>1.5650323035368678E-5</v>
       </c>
       <c r="AA27">
-        <v>4.353340350473776E-4</v>
+        <v>7.3098397199302344E-4</v>
       </c>
       <c r="AB27">
-        <v>1.7573715068071745E-3</v>
+        <v>2.8432726516345879E-3</v>
       </c>
       <c r="AC27">
-        <v>4.4855881530537361E-4</v>
+        <v>7.4702780884820352E-4</v>
       </c>
       <c r="AD27">
-        <v>4.5066720605911912E-4</v>
+        <v>7.6065382019292554E-4</v>
       </c>
       <c r="AE27">
-        <v>-1.0830828258510588E-5</v>
+        <v>-1.5920457946636243E-5</v>
       </c>
       <c r="AF27">
-        <v>1.5125049528586388E-4</v>
+        <v>2.4562186462176428E-4</v>
       </c>
       <c r="AG27">
-        <v>2.5687920337640692E-5</v>
+        <v>1.6201552979240905E-5</v>
       </c>
       <c r="AH27">
-        <v>-2.3207207920807114E-4</v>
+        <v>-2.2719902394448743E-4</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="38">
-        <v>-6.5778258794065014E-2</v>
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-8.0598907076456061E-2</v>
       </c>
       <c r="C28">
-        <v>-7.9311031574697379E-6</v>
+        <v>1.8009551367501525E-5</v>
       </c>
       <c r="D28">
-        <v>-2.3432938846477044E-6</v>
+        <v>-2.8185263448823102E-6</v>
       </c>
       <c r="E28">
-        <v>1.2311374896594582E-8</v>
+        <v>1.5047531261485645E-8</v>
       </c>
       <c r="F28">
-        <v>-1.7238271619967905E-4</v>
+        <v>-1.3315734848893396E-4</v>
       </c>
       <c r="G28">
-        <v>2.5286114352692546E-5</v>
+        <v>3.0960191180304513E-5</v>
       </c>
       <c r="H28">
-        <v>4.0779667238832129E-5</v>
+        <v>7.9684367794550029E-5</v>
       </c>
       <c r="I28">
-        <v>1.9614943429843598E-5</v>
+        <v>1.6086377104473633E-5</v>
       </c>
       <c r="J28">
-        <v>3.7500102589792906E-6</v>
+        <v>3.0220363810946394E-5</v>
       </c>
       <c r="K28">
-        <v>4.3845543146300544E-5</v>
+        <v>6.7949038305454873E-5</v>
       </c>
       <c r="L28">
-        <v>-1.0800691103895562E-4</v>
+        <v>-1.5006252547987328E-4</v>
       </c>
       <c r="M28">
-        <v>-7.2491134002944911E-5</v>
+        <v>-5.9262732974822794E-5</v>
       </c>
       <c r="N28">
-        <v>-3.1048504886437689E-5</v>
+        <v>-5.1065311286065216E-5</v>
       </c>
       <c r="O28">
-        <v>7.5366144045245143E-6</v>
+        <v>1.0505500079459882E-4</v>
       </c>
       <c r="P28">
-        <v>-3.8375340942774648E-5</v>
+        <v>-1.813907855332389E-5</v>
       </c>
       <c r="Q28">
-        <v>-2.8108093008049825E-6</v>
+        <v>-6.1681125117520573E-5</v>
       </c>
       <c r="R28">
-        <v>-9.6954628974193374E-6</v>
+        <v>-1.105565544933804E-4</v>
       </c>
       <c r="S28">
-        <v>-3.2451264433821592E-6</v>
+        <v>-8.9586255037903129E-5</v>
       </c>
       <c r="T28">
-        <v>1.5904935439195141E-5</v>
+        <v>-8.3393038772289706E-5</v>
       </c>
       <c r="U28">
-        <v>-9.9821541883961143E-6</v>
+        <v>-5.4468707650396242E-6</v>
       </c>
       <c r="V28">
-        <v>-2.8743008927630681E-5</v>
+        <v>-5.3323620495672697E-5</v>
       </c>
       <c r="W28">
-        <v>-3.0904589787286583E-5</v>
+        <v>-2.1431446495908882E-5</v>
       </c>
       <c r="X28">
-        <v>-9.9817814837424893E-6</v>
+        <v>5.9547043742206273E-5</v>
       </c>
       <c r="Y28">
-        <v>3.8725227381425674E-6</v>
+        <v>2.4136406310454088E-6</v>
       </c>
       <c r="Z28">
-        <v>1.7008787428221725E-5</v>
+        <v>3.9260822171651005E-5</v>
       </c>
       <c r="AA28">
-        <v>4.6563049386740707E-4</v>
+        <v>7.7200232736631801E-4</v>
       </c>
       <c r="AB28">
-        <v>4.4855881530537361E-4</v>
+        <v>7.4702780884820352E-4</v>
       </c>
       <c r="AC28">
-        <v>9.4523226400343972E-4</v>
+        <v>1.5297559779270458E-3</v>
       </c>
       <c r="AD28">
-        <v>4.5193118042711496E-4</v>
+        <v>7.514787674075844E-4</v>
       </c>
       <c r="AE28">
-        <v>-4.9699210799387094E-6</v>
+        <v>-3.7075800009625718E-6</v>
       </c>
       <c r="AF28">
-        <v>1.473082398504189E-5</v>
+        <v>-3.3355202561617973E-5</v>
       </c>
       <c r="AG28">
-        <v>4.7474081734393037E-5</v>
+        <v>5.3168664861969858E-5</v>
       </c>
       <c r="AH28">
-        <v>-2.8211535403920018E-4</v>
+        <v>-6.0211018127354641E-4</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="38">
-        <v>-8.674398423029998E-3</v>
+      <c r="A29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>4.2788520878852724E-4</v>
       </c>
       <c r="C29">
-        <v>6.3496126118559745E-6</v>
+        <v>1.9915528541144324E-5</v>
       </c>
       <c r="D29">
-        <v>4.5155970790922975E-6</v>
+        <v>7.290683188268456E-7</v>
       </c>
       <c r="E29">
-        <v>-5.5003523428832741E-8</v>
+        <v>-3.5463703309783521E-8</v>
       </c>
       <c r="F29">
-        <v>-5.0332282732335636E-5</v>
+        <v>-2.7269994780344689E-4</v>
       </c>
       <c r="G29">
-        <v>-2.8405712424238184E-5</v>
+        <v>-5.0999991671652487E-5</v>
       </c>
       <c r="H29">
-        <v>-6.5293459625085401E-5</v>
+        <v>-1.8217413672311819E-4</v>
       </c>
       <c r="I29">
-        <v>-3.7827204830434124E-5</v>
+        <v>-6.9366518939538869E-5</v>
       </c>
       <c r="J29">
-        <v>-3.8218019447430556E-5</v>
+        <v>-6.788549859791616E-5</v>
       </c>
       <c r="K29">
-        <v>-1.887191945801125E-5</v>
+        <v>-6.1226404055630805E-5</v>
       </c>
       <c r="L29">
-        <v>-1.5209831411845418E-4</v>
+        <v>-2.7353305310862087E-4</v>
       </c>
       <c r="M29">
-        <v>-5.997029590319009E-6</v>
+        <v>-2.9756372758036817E-5</v>
       </c>
       <c r="N29">
-        <v>-7.7963127592529219E-6</v>
+        <v>4.6424231361135099E-5</v>
       </c>
       <c r="O29">
-        <v>5.376536666589865E-5</v>
+        <v>7.0833031139753934E-5</v>
       </c>
       <c r="P29">
-        <v>3.7479989587589673E-5</v>
+        <v>5.0457305931109013E-5</v>
       </c>
       <c r="Q29">
-        <v>7.4357286008350188E-6</v>
+        <v>4.4499328697998868E-5</v>
       </c>
       <c r="R29">
-        <v>4.7125377417273399E-5</v>
+        <v>7.3790774712042357E-5</v>
       </c>
       <c r="S29">
-        <v>7.2611698492275399E-5</v>
+        <v>1.6664264926335407E-4</v>
       </c>
       <c r="T29">
-        <v>6.9559538646721047E-5</v>
+        <v>1.8797936878927864E-4</v>
       </c>
       <c r="U29">
-        <v>-2.8203891738341996E-5</v>
+        <v>-5.8350965294998755E-6</v>
       </c>
       <c r="V29">
-        <v>-1.0636340515064426E-5</v>
+        <v>1.3630526908074724E-5</v>
       </c>
       <c r="W29">
-        <v>-2.9126565764760052E-5</v>
+        <v>-1.2270941320065938E-5</v>
       </c>
       <c r="X29">
-        <v>1.5731992713049353E-5</v>
+        <v>8.8220800990993008E-5</v>
       </c>
       <c r="Y29">
-        <v>2.569093492204676E-6</v>
+        <v>3.5191474605879625E-6</v>
       </c>
       <c r="Z29">
-        <v>3.6208315899611031E-6</v>
+        <v>1.0213154249214061E-5</v>
       </c>
       <c r="AA29">
-        <v>4.3887794286015546E-4</v>
+        <v>7.402043669739051E-4</v>
       </c>
       <c r="AB29">
-        <v>4.5066720605911912E-4</v>
+        <v>7.6065382019292554E-4</v>
       </c>
       <c r="AC29">
-        <v>4.5193118042711496E-4</v>
+        <v>7.514787674075844E-4</v>
       </c>
       <c r="AD29">
-        <v>7.7203388697401581E-4</v>
+        <v>1.2747467782695883E-3</v>
       </c>
       <c r="AE29">
-        <v>-2.5443289049845921E-6</v>
+        <v>-2.7257706513650684E-6</v>
       </c>
       <c r="AF29">
-        <v>8.8245702668158176E-5</v>
+        <v>7.9126452300151218E-5</v>
       </c>
       <c r="AG29">
-        <v>1.9852876946312251E-5</v>
+        <v>4.2550884130963351E-6</v>
       </c>
       <c r="AH29">
-        <v>-5.4940718778208721E-4</v>
+        <v>-8.1222555267539045E-4</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="38">
-        <v>1.3445411150788892E-3</v>
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-9.7574726045234525E-5</v>
       </c>
       <c r="C30">
-        <v>3.0977092293611811E-8</v>
+        <v>-4.3639114762767438E-6</v>
       </c>
       <c r="D30">
-        <v>3.6245662912667931E-7</v>
+        <v>5.0933298420089985E-7</v>
       </c>
       <c r="E30">
-        <v>-4.8959188265797088E-9</v>
+        <v>-6.4098665679715961E-9</v>
       </c>
       <c r="F30">
-        <v>-2.3914255136231141E-6</v>
+        <v>-4.6499970246092104E-6</v>
       </c>
       <c r="G30">
-        <v>2.2080578359214394E-6</v>
+        <v>-7.7058040333220941E-6</v>
       </c>
       <c r="H30">
-        <v>-2.567455903458273E-6</v>
+        <v>-1.658937324643437E-5</v>
       </c>
       <c r="I30">
-        <v>1.2811792203293087E-5</v>
+        <v>2.1387698131283757E-5</v>
       </c>
       <c r="J30">
-        <v>6.781075355056696E-6</v>
+        <v>-5.4066293318216362E-6</v>
       </c>
       <c r="K30">
-        <v>-4.201631069943436E-6</v>
+        <v>-1.952114455349357E-5</v>
       </c>
       <c r="L30">
-        <v>-2.0020844927266175E-5</v>
+        <v>-4.4493520889379775E-5</v>
       </c>
       <c r="M30">
-        <v>1.9220223265266811E-6</v>
+        <v>2.8625071714839692E-6</v>
       </c>
       <c r="N30">
-        <v>2.5838965733139215E-6</v>
+        <v>-3.6379446713445869E-6</v>
       </c>
       <c r="O30">
-        <v>1.7229577971110744E-6</v>
+        <v>-2.1323340956918595E-6</v>
       </c>
       <c r="P30">
-        <v>7.9513890486140767E-6</v>
+        <v>8.0945814137831876E-6</v>
       </c>
       <c r="Q30">
-        <v>7.5249961743966527E-6</v>
+        <v>9.3347912054103275E-6</v>
       </c>
       <c r="R30">
-        <v>-1.5207664489067278E-6</v>
+        <v>-4.0618335462888774E-6</v>
       </c>
       <c r="S30">
-        <v>-3.8592124665402837E-6</v>
+        <v>-1.0051090735702117E-5</v>
       </c>
       <c r="T30">
-        <v>8.0584579235854132E-6</v>
+        <v>1.678102267530288E-5</v>
       </c>
       <c r="U30">
-        <v>-4.1077524336397339E-6</v>
+        <v>-5.2212172256601989E-6</v>
       </c>
       <c r="V30">
-        <v>-5.4006124209891068E-6</v>
+        <v>-1.0575874296102597E-5</v>
       </c>
       <c r="W30">
-        <v>-4.5520603148301633E-6</v>
+        <v>-1.2423545006266746E-5</v>
       </c>
       <c r="X30">
-        <v>1.5917604861093399E-7</v>
+        <v>-3.9354444536184897E-8</v>
       </c>
       <c r="Y30">
-        <v>4.164501402546201E-6</v>
+        <v>5.9812574742076344E-6</v>
       </c>
       <c r="Z30">
-        <v>-4.7128633799487875E-6</v>
+        <v>-6.5685191770114039E-6</v>
       </c>
       <c r="AA30">
-        <v>-8.2133228193059251E-6</v>
+        <v>-7.4066987966828009E-6</v>
       </c>
       <c r="AB30">
-        <v>-1.0830828258510588E-5</v>
+        <v>-1.5920457946636243E-5</v>
       </c>
       <c r="AC30">
-        <v>-4.9699210799387094E-6</v>
+        <v>-3.7075800009625718E-6</v>
       </c>
       <c r="AD30">
-        <v>-2.5443289049845921E-6</v>
+        <v>-2.7257706513650684E-6</v>
       </c>
       <c r="AE30">
-        <v>1.0310720708363109E-5</v>
+        <v>1.6674916810576865E-5</v>
       </c>
       <c r="AF30">
-        <v>-3.1744352937002973E-5</v>
+        <v>-4.4783848399644328E-5</v>
       </c>
       <c r="AG30">
-        <v>-4.3743031516049635E-5</v>
+        <v>-6.9419411008520492E-5</v>
       </c>
       <c r="AH30">
-        <v>-1.7332949942120459E-4</v>
+        <v>-2.5888202910448617E-4</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="38">
-        <v>-0.20477933370971102</v>
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.19451042682978964</v>
       </c>
       <c r="C31">
-        <v>3.32270419110664E-5</v>
+        <v>1.4864086895563489E-4</v>
       </c>
       <c r="D31">
-        <v>-2.5326301482947759E-5</v>
+        <v>-5.096705934593557E-5</v>
       </c>
       <c r="E31">
-        <v>2.7862920030196577E-7</v>
+        <v>5.1247254465238912E-7</v>
       </c>
       <c r="F31">
-        <v>1.6239433735017184E-4</v>
+        <v>4.2712729934289186E-4</v>
       </c>
       <c r="G31">
-        <v>-4.703733868216195E-5</v>
+        <v>2.1993066315773198E-4</v>
       </c>
       <c r="H31">
-        <v>3.3967607555305786E-4</v>
+        <v>1.1490132170891756E-3</v>
       </c>
       <c r="I31">
-        <v>-1.7230223417134469E-4</v>
+        <v>-2.8267489327146993E-4</v>
       </c>
       <c r="J31">
-        <v>-1.2288994651668377E-5</v>
+        <v>2.2017282160584784E-4</v>
       </c>
       <c r="K31">
-        <v>5.4115955237877059E-5</v>
+        <v>4.022724201681923E-4</v>
       </c>
       <c r="L31">
-        <v>1.0189970461703087E-4</v>
+        <v>4.1722934073881637E-4</v>
       </c>
       <c r="M31">
-        <v>-9.6390245881394256E-5</v>
+        <v>-2.3132049983032137E-4</v>
       </c>
       <c r="N31">
-        <v>-1.1326044079120866E-4</v>
+        <v>4.671422731139345E-5</v>
       </c>
       <c r="O31">
-        <v>9.4935005273254908E-5</v>
+        <v>3.5577788412436686E-4</v>
       </c>
       <c r="P31">
-        <v>4.2648919476111734E-5</v>
+        <v>2.7032358379740825E-4</v>
       </c>
       <c r="Q31">
-        <v>-6.7387341905088792E-5</v>
+        <v>-1.5384831453324052E-3</v>
       </c>
       <c r="R31">
-        <v>1.1248230807839148E-4</v>
+        <v>-1.2840824253920842E-3</v>
       </c>
       <c r="S31">
-        <v>2.3709313022762454E-5</v>
+        <v>-1.2068339613770882E-3</v>
       </c>
       <c r="T31">
-        <v>-1.4889437212913491E-4</v>
+        <v>-1.5282289325095188E-3</v>
       </c>
       <c r="U31">
-        <v>9.1212932078938358E-5</v>
+        <v>1.2764413865558972E-5</v>
       </c>
       <c r="V31">
-        <v>-1.4749834336640457E-5</v>
+        <v>2.0402809333457551E-5</v>
       </c>
       <c r="W31">
-        <v>-6.8161253642254511E-5</v>
+        <v>-8.9967331606119992E-5</v>
       </c>
       <c r="X31">
-        <v>3.1196921778907242E-4</v>
+        <v>4.3990746848872504E-4</v>
       </c>
       <c r="Y31">
-        <v>-3.6407157048884685E-5</v>
+        <v>-4.1457745884200534E-5</v>
       </c>
       <c r="Z31">
-        <v>5.8651720196229915E-5</v>
+        <v>7.3946052331614709E-6</v>
       </c>
       <c r="AA31">
-        <v>4.7089425590331505E-4</v>
+        <v>7.0256071048849125E-4</v>
       </c>
       <c r="AB31">
-        <v>1.5125049528586388E-4</v>
+        <v>2.4562186462176428E-4</v>
       </c>
       <c r="AC31">
-        <v>1.473082398504189E-5</v>
+        <v>-3.3355202561617973E-5</v>
       </c>
       <c r="AD31">
-        <v>8.8245702668158176E-5</v>
+        <v>7.9126452300151218E-5</v>
       </c>
       <c r="AE31">
-        <v>-3.1744352937002973E-5</v>
+        <v>-4.4783848399644328E-5</v>
       </c>
       <c r="AF31">
-        <v>2.6270019578037997E-3</v>
+        <v>4.0998639921534094E-3</v>
       </c>
       <c r="AG31">
-        <v>1.9367537461665349E-4</v>
+        <v>2.625087362016726E-4</v>
       </c>
       <c r="AH31">
-        <v>5.8426338848886381E-4</v>
+        <v>1.990578413551854E-3</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="38">
-        <v>-7.355362873707956E-2</v>
+      <c r="A32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-7.4165558404576393E-2</v>
       </c>
       <c r="C32">
-        <v>1.2110335424800447E-6</v>
+        <v>-4.1545865855138682E-5</v>
       </c>
       <c r="D32">
-        <v>4.5151840262410841E-6</v>
+        <v>7.9418231192384292E-6</v>
       </c>
       <c r="E32">
-        <v>-3.6515081838127517E-8</v>
+        <v>-7.0270505747328949E-8</v>
       </c>
       <c r="F32">
-        <v>1.3194007397571703E-4</v>
+        <v>2.605175480523118E-4</v>
       </c>
       <c r="G32">
-        <v>2.083220296619163E-5</v>
+        <v>1.0196512991705626E-4</v>
       </c>
       <c r="H32">
-        <v>1.5782179638358933E-4</v>
+        <v>3.9567052436399524E-4</v>
       </c>
       <c r="I32">
-        <v>-1.2946490247114494E-4</v>
+        <v>-3.8547805056742294E-5</v>
       </c>
       <c r="J32">
-        <v>2.0085313754435229E-5</v>
+        <v>1.334719851969863E-4</v>
       </c>
       <c r="K32">
-        <v>2.9719533482842257E-5</v>
+        <v>1.0400211839860414E-4</v>
       </c>
       <c r="L32">
-        <v>9.6704351279939681E-5</v>
+        <v>1.4845400895761862E-4</v>
       </c>
       <c r="M32">
-        <v>-8.0860940325496811E-6</v>
+        <v>-1.0703417908705551E-4</v>
       </c>
       <c r="N32">
-        <v>-5.9733467422663853E-5</v>
+        <v>-9.3712948740181496E-5</v>
       </c>
       <c r="O32">
-        <v>8.5421860749300009E-5</v>
+        <v>1.4264913544193795E-4</v>
       </c>
       <c r="P32">
-        <v>9.1476558443811271E-5</v>
+        <v>1.1812324816894436E-4</v>
       </c>
       <c r="Q32">
-        <v>-3.8202984609505782E-5</v>
+        <v>-5.300283946534437E-5</v>
       </c>
       <c r="R32">
-        <v>-6.1138647521071453E-5</v>
+        <v>-7.840537325995954E-5</v>
       </c>
       <c r="S32">
-        <v>-4.6591702850437263E-6</v>
+        <v>1.9397812211810386E-5</v>
       </c>
       <c r="T32">
-        <v>-5.0057072073762593E-5</v>
+        <v>-7.4618361677452347E-5</v>
       </c>
       <c r="U32">
-        <v>1.6335431158314074E-5</v>
+        <v>-9.1499111443144195E-6</v>
       </c>
       <c r="V32">
-        <v>-5.5123365420984183E-5</v>
+        <v>-1.4242261530411919E-4</v>
       </c>
       <c r="W32">
-        <v>-6.0785059325890332E-5</v>
+        <v>-1.2763201831042384E-4</v>
       </c>
       <c r="X32">
-        <v>-9.5161998228145345E-5</v>
+        <v>-2.2465995396766386E-4</v>
       </c>
       <c r="Y32">
-        <v>-9.7284431197457737E-6</v>
+        <v>1.8906095439216122E-6</v>
       </c>
       <c r="Z32">
-        <v>-2.3075294598929105E-5</v>
+        <v>-5.367889769297922E-5</v>
       </c>
       <c r="AA32">
-        <v>-1.1123730411835136E-5</v>
+        <v>-2.0113831449243184E-5</v>
       </c>
       <c r="AB32">
-        <v>2.5687920337640692E-5</v>
+        <v>1.6201552979240905E-5</v>
       </c>
       <c r="AC32">
-        <v>4.7474081734393037E-5</v>
+        <v>5.3168664861969858E-5</v>
       </c>
       <c r="AD32">
-        <v>1.9852876946312251E-5</v>
+        <v>4.2550884130963351E-6</v>
       </c>
       <c r="AE32">
-        <v>-4.3743031516049635E-5</v>
+        <v>-6.9419411008520492E-5</v>
       </c>
       <c r="AF32">
-        <v>1.9367537461665349E-4</v>
+        <v>2.625087362016726E-4</v>
       </c>
       <c r="AG32">
-        <v>1.2483676117404231E-3</v>
+        <v>2.0235867365755566E-3</v>
       </c>
       <c r="AH32">
-        <v>4.7870682097504312E-4</v>
+        <v>7.5791574245162845E-4</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="38">
-        <v>-1.6938198484195555</v>
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-1.575476444378842</v>
       </c>
       <c r="C33">
-        <v>-4.389932419707138E-4</v>
+        <v>-1.0329705231965363E-3</v>
       </c>
       <c r="D33">
-        <v>-5.0419684697400064E-4</v>
+        <v>-9.732709752149479E-4</v>
       </c>
       <c r="E33">
-        <v>4.5094976109574447E-6</v>
+        <v>9.5397859539692292E-6</v>
       </c>
       <c r="F33">
-        <v>-2.5091965914107684E-3</v>
+        <v>-6.1271293209345309E-3</v>
       </c>
       <c r="G33">
-        <v>-1.9787970871808299E-3</v>
+        <v>-4.969223295875627E-3</v>
       </c>
       <c r="H33">
-        <v>-1.9366021769109106E-3</v>
+        <v>-4.5124274902579959E-3</v>
       </c>
       <c r="I33">
-        <v>-3.4975229634165482E-3</v>
+        <v>-6.7547239335546717E-3</v>
       </c>
       <c r="J33">
-        <v>-2.2024325942323745E-3</v>
+        <v>-4.045096064080214E-3</v>
       </c>
       <c r="K33">
-        <v>-2.4930414776556916E-3</v>
+        <v>-5.2017010654740476E-3</v>
       </c>
       <c r="L33">
-        <v>-1.3800031623558101E-3</v>
+        <v>-2.8564371046624088E-3</v>
       </c>
       <c r="M33">
-        <v>-4.2386937410304254E-3</v>
+        <v>-7.2755649555803076E-3</v>
       </c>
       <c r="N33">
-        <v>-1.4919844743905264E-3</v>
+        <v>-3.4677280391516001E-3</v>
       </c>
       <c r="O33">
-        <v>-6.4282798152245023E-4</v>
+        <v>-9.7936285023101591E-4</v>
       </c>
       <c r="P33">
-        <v>-9.2485224058497933E-4</v>
+        <v>-2.1720112496965756E-3</v>
       </c>
       <c r="Q33">
-        <v>-3.0812215633848651E-3</v>
+        <v>-1.0797593252049424E-2</v>
       </c>
       <c r="R33">
-        <v>-2.8473312645004769E-3</v>
+        <v>-1.0769085093481214E-2</v>
       </c>
       <c r="S33">
-        <v>-3.6697974996654451E-3</v>
+        <v>-1.1897452914969299E-2</v>
       </c>
       <c r="T33">
-        <v>-4.7605309573818463E-3</v>
+        <v>-1.3275418869167884E-2</v>
       </c>
       <c r="U33">
-        <v>-4.6949757222860817E-4</v>
+        <v>6.3212390940104108E-4</v>
       </c>
       <c r="V33">
-        <v>-9.8867820574509045E-4</v>
+        <v>-1.1217706435791815E-3</v>
       </c>
       <c r="W33">
-        <v>-1.5333210253611991E-3</v>
+        <v>-2.0625840458178479E-3</v>
       </c>
       <c r="X33">
-        <v>-1.8692673049336269E-3</v>
+        <v>-2.9565347137606047E-3</v>
       </c>
       <c r="Y33">
-        <v>-8.5128889759942168E-7</v>
+        <v>-4.7664044471839131E-5</v>
       </c>
       <c r="Z33">
-        <v>1.3243718570342974E-4</v>
+        <v>-6.6480779615363098E-5</v>
       </c>
       <c r="AA33">
-        <v>-1.3663071325335742E-4</v>
+        <v>6.9934047007049957E-4</v>
       </c>
       <c r="AB33">
-        <v>-2.3207207920807114E-4</v>
+        <v>-2.2719902394448743E-4</v>
       </c>
       <c r="AC33">
-        <v>-2.8211535403920018E-4</v>
+        <v>-6.0211018127354641E-4</v>
       </c>
       <c r="AD33">
-        <v>-5.4940718778208721E-4</v>
+        <v>-8.1222555267539045E-4</v>
       </c>
       <c r="AE33">
-        <v>-1.7332949942120459E-4</v>
+        <v>-2.5888202910448617E-4</v>
       </c>
       <c r="AF33">
-        <v>5.8426338848886381E-4</v>
+        <v>1.990578413551854E-3</v>
       </c>
       <c r="AG33">
-        <v>4.7870682097504312E-4</v>
+        <v>7.5791574245162845E-4</v>
       </c>
       <c r="AH33">
-        <v>2.3788177326206944E-2</v>
+        <v>4.7241159291680268E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/PL/reg_home_ownership.xlsx
+++ b/input/PL/reg_home_ownership.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D5B6E-4BB3-B644-9D22-4284B6F62B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E57BE9B34970E9C327CFAE6D47DE1E52D7B14615" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EA329F-7905-4F48-B5E3-2077E43F9FC9}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="760" windowWidth="16360" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Gof" sheetId="2" r:id="rId2"/>
-    <sheet name="HO1a" sheetId="3" r:id="rId3"/>
+    <sheet name="HO1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Description:</t>
   </si>
@@ -30,24 +41,57 @@
     <t>Model parameters governing projection of home ownership</t>
   </si>
   <si>
+    <t>Authors:</t>
+  </si>
+  <si>
+    <t>Ashley Burdett, Aleksandra Kolndrekaj</t>
+  </si>
+  <si>
+    <t>Last edit:</t>
+  </si>
+  <si>
+    <t>12 Jan 2016 AB</t>
+  </si>
+  <si>
     <t>Process:</t>
   </si>
   <si>
-    <t>HO1a</t>
-  </si>
-  <si>
-    <t>Probit regression estimates o the probability of being a home owner, aged 18+</t>
+    <t>HO1</t>
+  </si>
+  <si>
+    <t>Probit regression estimates of the probability of being a home owner, aged 18+, head of benefit unit</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
+    <t>Have combined dhhtp_c4 and lessp_c3 into a single variable with 8 cateogries, dhhtp_c8</t>
+  </si>
+  <si>
     <t>Regions: PL4 = Polnocno-Zachodni, PL5 = Poludniowo-Zachodni, PL6 = Polnocy, PL10 = Central + East. Poludniowy is the omitted category.</t>
   </si>
   <si>
+    <t>Estimated on the sample of benefit unit heads.</t>
+  </si>
+  <si>
     <t>Goodness of fit</t>
   </si>
   <si>
+    <t>HO1 - Home ownership</t>
+  </si>
+  <si>
+    <t>Pseudo R-squared</t>
+  </si>
+  <si>
+    <t>Chi^2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Log likelihood</t>
+  </si>
+  <si>
     <t>REGRESSOR</t>
   </si>
   <si>
@@ -90,10 +134,13 @@
     <t>Les_c3_NotEmployed_L1</t>
   </si>
   <si>
-    <t>Deh_c3_Medium</t>
-  </si>
-  <si>
-    <t>Deh_c3_Low</t>
+    <t>Deh_c4_Na</t>
+  </si>
+  <si>
+    <t>Deh_c4_Medium</t>
+  </si>
+  <si>
+    <t>Deh_c4_Low</t>
   </si>
   <si>
     <t>Dhe_Fair_L1</t>
@@ -148,45 +195,24 @@
   </si>
   <si>
     <t>Constant</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,28 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,14 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,39 +274,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -357,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -468,6 +469,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -476,13 +484,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -547,31 +548,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,3510 +560,3778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.89489578556752658</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>23243.354381519712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>156467</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>-7873379.9400775526</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AH1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="W1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>-2.9802992375813627E-2</v>
+        <v>5.5217826555176248E-3</v>
       </c>
       <c r="C2">
-        <v>9.0267182082252406E-4</v>
+        <v>1.0253012026944814E-3</v>
       </c>
       <c r="D2">
-        <v>1.2048084459360889E-5</v>
+        <v>1.0187625757063546E-5</v>
       </c>
       <c r="E2">
-        <v>-7.705831392157608E-8</v>
+        <v>-5.1819841306968236E-8</v>
       </c>
       <c r="F2">
-        <v>-1.4851407455910811E-4</v>
+        <v>-4.3608654354639423E-4</v>
       </c>
       <c r="G2">
-        <v>-1.5980846176353E-4</v>
+        <v>-2.4950237754996202E-4</v>
       </c>
       <c r="H2">
-        <v>-2.6570588120182123E-5</v>
+        <v>5.6852602415642303E-5</v>
       </c>
       <c r="I2">
-        <v>-1.4306658569717215E-4</v>
+        <v>-2.066375253355959E-4</v>
       </c>
       <c r="J2">
-        <v>-1.8425152743446592E-4</v>
+        <v>-2.6005812105714811E-4</v>
       </c>
       <c r="K2">
-        <v>1.9737027493914522E-4</v>
+        <v>1.1517777087979501E-4</v>
       </c>
       <c r="L2">
-        <v>4.7518044144907945E-4</v>
+        <v>5.2108024386409162E-4</v>
       </c>
       <c r="M2">
-        <v>1.5216173681421115E-4</v>
+        <v>2.6211477751951511E-4</v>
       </c>
       <c r="N2">
-        <v>3.3467918748957416E-5</v>
+        <v>7.5024814481137894E-5</v>
       </c>
       <c r="O2">
-        <v>-5.6622934486791511E-5</v>
+        <v>-1.4631348433018985E-4</v>
       </c>
       <c r="P2">
-        <v>8.4631930836750829E-6</v>
+        <v>-1.504226716678639E-4</v>
       </c>
       <c r="Q2">
-        <v>1.2349254655087661E-4</v>
+        <v>1.7240655321596647E-5</v>
       </c>
       <c r="R2">
-        <v>1.9035035252080133E-4</v>
+        <v>-1.1910932376519269E-4</v>
       </c>
       <c r="S2">
-        <v>1.978242367510187E-4</v>
+        <v>-1.1571601765513991E-4</v>
       </c>
       <c r="T2">
-        <v>1.9828961769724842E-5</v>
+        <v>-4.4243441594144758E-5</v>
       </c>
       <c r="U2">
-        <v>-9.57975951133598E-5</v>
+        <v>-1.3956468224718914E-4</v>
       </c>
       <c r="V2">
-        <v>-2.9712171331673928E-5</v>
+        <v>1.9425490343522579E-5</v>
       </c>
       <c r="W2">
-        <v>-8.4957249410364032E-5</v>
+        <v>8.5813084666958733E-5</v>
       </c>
       <c r="X2">
-        <v>-1.5476217504915585E-4</v>
+        <v>-9.5717077923459059E-6</v>
       </c>
       <c r="Y2">
-        <v>2.6511522312251431E-5</v>
+        <v>-5.1490530926505081E-5</v>
       </c>
       <c r="Z2">
-        <v>-1.2069559280475999E-5</v>
+        <v>1.7043880377796739E-5</v>
       </c>
       <c r="AA2">
-        <v>4.7501700915506521E-5</v>
+        <v>1.2655537415415209E-6</v>
       </c>
       <c r="AB2">
-        <v>8.3910774580279665E-5</v>
+        <v>1.3356223390172865E-4</v>
       </c>
       <c r="AC2">
-        <v>1.8009551367501525E-5</v>
+        <v>3.6018549702649739E-5</v>
       </c>
       <c r="AD2">
-        <v>1.9915528541144324E-5</v>
+        <v>8.4478008515147991E-5</v>
       </c>
       <c r="AE2">
-        <v>-4.3639114762767438E-6</v>
+        <v>7.6695965527998262E-5</v>
       </c>
       <c r="AF2">
-        <v>1.4864086895563489E-4</v>
+        <v>4.1541907824473162E-6</v>
       </c>
       <c r="AG2">
-        <v>-4.1545865855138682E-5</v>
+        <v>2.0710799942020956E-4</v>
       </c>
       <c r="AH2">
-        <v>-1.0329705231965363E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>-8.3857411505204268E-6</v>
+      </c>
+      <c r="AI2">
+        <v>-1.0097613556004923E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>1.9162183192736803E-3</v>
+        <v>-1.333356576814426E-3</v>
       </c>
       <c r="C3">
-        <v>1.2048084459360889E-5</v>
+        <v>1.0187625757063546E-5</v>
       </c>
       <c r="D3">
-        <v>3.7768702465270301E-5</v>
+        <v>2.8024261893260016E-5</v>
       </c>
       <c r="E3">
-        <v>-3.7996852424814971E-7</v>
+        <v>-2.557974826879667E-7</v>
       </c>
       <c r="F3">
-        <v>6.1491204234794114E-5</v>
+        <v>7.1181163033788206E-5</v>
       </c>
       <c r="G3">
-        <v>3.3944457436239514E-5</v>
+        <v>1.3308979753285814E-5</v>
       </c>
       <c r="H3">
-        <v>-8.4401125356746475E-6</v>
+        <v>3.6199300382121734E-5</v>
       </c>
       <c r="I3">
-        <v>8.4463878190792988E-5</v>
+        <v>1.0938316690686529E-4</v>
       </c>
       <c r="J3">
-        <v>-1.2368979571665171E-5</v>
+        <v>1.4520820285246158E-5</v>
       </c>
       <c r="K3">
-        <v>3.2370599849028755E-5</v>
+        <v>3.15622655372736E-5</v>
       </c>
       <c r="L3">
-        <v>-4.95012999908992E-5</v>
+        <v>2.1123565515370109E-5</v>
       </c>
       <c r="M3">
-        <v>1.6309251307724813E-4</v>
+        <v>1.5347794856690878E-4</v>
       </c>
       <c r="N3">
-        <v>4.6018662546889089E-5</v>
+        <v>1.7997351592592372E-5</v>
       </c>
       <c r="O3">
-        <v>-2.1957908778529677E-5</v>
+        <v>-2.4300747964118004E-5</v>
       </c>
       <c r="P3">
-        <v>3.0074398335221087E-6</v>
+        <v>-3.2200531772687486E-5</v>
       </c>
       <c r="Q3">
-        <v>1.2732706508277868E-4</v>
+        <v>-1.2529695370788675E-5</v>
       </c>
       <c r="R3">
-        <v>1.2162822416105748E-4</v>
+        <v>-3.7453550226100178E-5</v>
       </c>
       <c r="S3">
-        <v>1.5398614594633634E-4</v>
+        <v>-6.4163424380623933E-5</v>
       </c>
       <c r="T3">
-        <v>1.9799636574217061E-4</v>
+        <v>-3.6155691423951475E-5</v>
       </c>
       <c r="U3">
-        <v>-2.122153273784025E-5</v>
+        <v>4.6209794408663706E-5</v>
       </c>
       <c r="V3">
-        <v>-4.9561718109756591E-5</v>
+        <v>1.9751837622613978E-5</v>
       </c>
       <c r="W3">
-        <v>-5.0766914968093229E-5</v>
+        <v>-2.8904253519728627E-5</v>
       </c>
       <c r="X3">
-        <v>-7.136361505733727E-5</v>
+        <v>-1.4746219871119735E-5</v>
       </c>
       <c r="Y3">
-        <v>3.9666005219691157E-6</v>
+        <v>-3.334311200503667E-5</v>
       </c>
       <c r="Z3">
-        <v>-8.4805149779909557E-6</v>
+        <v>2.4380910270669666E-6</v>
       </c>
       <c r="AA3">
-        <v>-4.2955015750621711E-5</v>
+        <v>-2.3135685107409824E-6</v>
       </c>
       <c r="AB3">
-        <v>1.5610848073999476E-6</v>
+        <v>-1.624120138801413E-5</v>
       </c>
       <c r="AC3">
-        <v>-2.8185263448823102E-6</v>
+        <v>9.9722643640448886E-7</v>
       </c>
       <c r="AD3">
-        <v>7.290683188268456E-7</v>
+        <v>1.7766853539537218E-6</v>
       </c>
       <c r="AE3">
-        <v>5.0933298420089985E-7</v>
+        <v>8.487245207729015E-7</v>
       </c>
       <c r="AF3">
-        <v>-5.096705934593557E-5</v>
+        <v>8.9705994768908749E-7</v>
       </c>
       <c r="AG3">
-        <v>7.9418231192384292E-6</v>
+        <v>-3.9228291597210663E-5</v>
       </c>
       <c r="AH3">
-        <v>-9.732709752149479E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>-5.3401001829849002E-6</v>
+      </c>
+      <c r="AI3">
+        <v>-6.6625676152621736E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>-4.3053829998939033E-5</v>
+        <v>-8.7873529780962816E-6</v>
       </c>
       <c r="C4">
-        <v>-7.705831392157608E-8</v>
+        <v>-5.1819841306968236E-8</v>
       </c>
       <c r="D4">
-        <v>-3.7996852424814971E-7</v>
+        <v>-2.557974826879667E-7</v>
       </c>
       <c r="E4">
-        <v>3.9308127402483914E-9</v>
+        <v>2.4437638512658298E-9</v>
       </c>
       <c r="F4">
-        <v>-5.0128555290128188E-7</v>
+        <v>-5.3958153257519997E-7</v>
       </c>
       <c r="G4">
-        <v>-4.1415937791921827E-7</v>
+        <v>-2.1003806880845878E-7</v>
       </c>
       <c r="H4">
-        <v>1.6131345441740973E-7</v>
+        <v>-2.2190619506743957E-7</v>
       </c>
       <c r="I4">
-        <v>-7.2795552833134329E-7</v>
+        <v>-8.773062271772375E-7</v>
       </c>
       <c r="J4">
-        <v>2.1882305812137423E-7</v>
+        <v>-4.5019195706814538E-8</v>
       </c>
       <c r="K4">
-        <v>-2.7041503246385228E-7</v>
+        <v>-2.3780927825340882E-7</v>
       </c>
       <c r="L4">
-        <v>6.338938332980539E-7</v>
+        <v>-1.1604788968772363E-8</v>
       </c>
       <c r="M4">
-        <v>-1.4202938826862161E-6</v>
+        <v>-1.2296513467831838E-6</v>
       </c>
       <c r="N4">
-        <v>-5.2451520796161895E-7</v>
+        <v>-2.4044850694781615E-7</v>
       </c>
       <c r="O4">
-        <v>2.1863293334615626E-7</v>
+        <v>2.5102399187074278E-7</v>
       </c>
       <c r="P4">
-        <v>-9.0415458566144513E-8</v>
+        <v>3.0893369107711901E-7</v>
       </c>
       <c r="Q4">
-        <v>-1.4138075044429864E-6</v>
+        <v>3.4984838443742284E-8</v>
       </c>
       <c r="R4">
-        <v>-1.3572278993061973E-6</v>
+        <v>3.6595427758275255E-7</v>
       </c>
       <c r="S4">
-        <v>-1.5981695029980982E-6</v>
+        <v>6.743524837525216E-7</v>
       </c>
       <c r="T4">
-        <v>-1.9634542007952401E-6</v>
+        <v>4.6072195654517022E-7</v>
       </c>
       <c r="U4">
-        <v>2.3356666167662644E-7</v>
+        <v>-1.9020991839300092E-7</v>
       </c>
       <c r="V4">
-        <v>5.6980716145852251E-7</v>
+        <v>-1.761401030226397E-7</v>
       </c>
       <c r="W4">
-        <v>6.0629272609094815E-7</v>
+        <v>2.9374673972222272E-7</v>
       </c>
       <c r="X4">
-        <v>7.5200797390137919E-7</v>
+        <v>1.9038412980075187E-7</v>
       </c>
       <c r="Y4">
-        <v>-3.7805417598294619E-8</v>
+        <v>3.3691857230022928E-7</v>
       </c>
       <c r="Z4">
-        <v>3.434099864752365E-8</v>
+        <v>-1.8855388583301745E-8</v>
       </c>
       <c r="AA4">
-        <v>4.4181268730087427E-7</v>
+        <v>-1.577508248251216E-8</v>
       </c>
       <c r="AB4">
-        <v>-7.9664664221620233E-8</v>
+        <v>2.1722774254655125E-7</v>
       </c>
       <c r="AC4">
-        <v>1.5047531261485645E-8</v>
+        <v>-5.2305234655144031E-8</v>
       </c>
       <c r="AD4">
-        <v>-3.5463703309783521E-8</v>
+        <v>-1.7726683394529271E-8</v>
       </c>
       <c r="AE4">
-        <v>-6.4098665679715961E-9</v>
+        <v>-3.3882558595311323E-8</v>
       </c>
       <c r="AF4">
-        <v>5.1247254465238912E-7</v>
+        <v>-8.7979821706091228E-9</v>
       </c>
       <c r="AG4">
-        <v>-7.0270505747328949E-8</v>
+        <v>4.8566585989150069E-7</v>
       </c>
       <c r="AH4">
-        <v>9.5397859539692292E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>3.5739417960129928E-8</v>
+      </c>
+      <c r="AI4">
+        <v>5.6242570610441148E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>-0.6390822080645826</v>
+        <v>-0.97224848228394711</v>
       </c>
       <c r="C5">
-        <v>-1.4851407455910811E-4</v>
+        <v>-4.3608654354639423E-4</v>
       </c>
       <c r="D5">
-        <v>6.1491204234794114E-5</v>
+        <v>7.1181163033788206E-5</v>
       </c>
       <c r="E5">
-        <v>-5.0128555290128188E-7</v>
+        <v>-5.3958153257519997E-7</v>
       </c>
       <c r="F5">
-        <v>3.0673747144402567E-2</v>
+        <v>0.1097933546569074</v>
       </c>
       <c r="G5">
-        <v>3.6505576050124633E-3</v>
+        <v>4.4397473498215892E-3</v>
       </c>
       <c r="H5">
-        <v>4.0848362358798032E-3</v>
+        <v>4.8664171591475177E-3</v>
       </c>
       <c r="I5">
-        <v>4.2556992063612232E-3</v>
+        <v>4.9051709764105309E-3</v>
       </c>
       <c r="J5">
-        <v>3.9720862776786766E-3</v>
+        <v>4.8253727071790259E-3</v>
       </c>
       <c r="K5">
-        <v>3.9752669270496461E-3</v>
+        <v>4.6703214728683693E-3</v>
       </c>
       <c r="L5">
-        <v>4.4221897155143682E-3</v>
+        <v>4.8721464073992454E-3</v>
       </c>
       <c r="M5">
-        <v>7.5569090334470996E-4</v>
+        <v>3.2968851069084651E-4</v>
       </c>
       <c r="N5">
-        <v>7.6871720150008586E-5</v>
+        <v>-2.0113653727649432E-4</v>
       </c>
       <c r="O5">
-        <v>7.7573552109734924E-4</v>
+        <v>9.304033297670869E-4</v>
       </c>
       <c r="P5">
-        <v>6.3025963800494638E-4</v>
+        <v>6.3368203544821164E-4</v>
       </c>
       <c r="Q5">
-        <v>-1.9013376654838411E-5</v>
+        <v>3.7745976610460046E-4</v>
       </c>
       <c r="R5">
-        <v>-1.2349950944443022E-5</v>
+        <v>1.6870920753296733E-5</v>
       </c>
       <c r="S5">
-        <v>-9.0590748951208978E-5</v>
+        <v>-6.6851619706022217E-6</v>
       </c>
       <c r="T5">
-        <v>-3.9568380751433922E-4</v>
+        <v>-1.7928582155086678E-6</v>
       </c>
       <c r="U5">
-        <v>1.3506112256302132E-4</v>
+        <v>-4.8788255669139115E-4</v>
       </c>
       <c r="V5">
-        <v>3.2862151719950905E-4</v>
+        <v>6.9706558135713536E-5</v>
       </c>
       <c r="W5">
-        <v>6.8712450285249587E-4</v>
+        <v>9.0411189599724903E-5</v>
       </c>
       <c r="X5">
-        <v>1.3565621048060757E-3</v>
+        <v>1.4358080305102033E-4</v>
       </c>
       <c r="Y5">
-        <v>-2.7341775824591574E-4</v>
+        <v>6.9832211350723261E-4</v>
       </c>
       <c r="Z5">
-        <v>-8.7362548031536338E-5</v>
+        <v>-1.1809867867808874E-4</v>
       </c>
       <c r="AA5">
-        <v>2.1509832525740233E-4</v>
+        <v>-3.2910284523235661E-4</v>
       </c>
       <c r="AB5">
-        <v>-2.1129850779340103E-4</v>
+        <v>1.324009512291913E-4</v>
       </c>
       <c r="AC5">
-        <v>-1.3315734848893396E-4</v>
+        <v>-1.3050618218950379E-4</v>
       </c>
       <c r="AD5">
-        <v>-2.7269994780344689E-4</v>
+        <v>-2.0840439676645238E-4</v>
       </c>
       <c r="AE5">
-        <v>-4.6499970246092104E-6</v>
+        <v>-3.0774076146367893E-4</v>
       </c>
       <c r="AF5">
-        <v>4.2712729934289186E-4</v>
+        <v>-6.5319551372293406E-6</v>
       </c>
       <c r="AG5">
-        <v>2.605175480523118E-4</v>
+        <v>-3.190860430732842E-4</v>
       </c>
       <c r="AH5">
-        <v>-6.1271293209345309E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>3.9326736813395636E-4</v>
+      </c>
+      <c r="AI5">
+        <v>-6.3816626722095846E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>-0.11193165373309071</v>
+        <v>-0.13768588883008309</v>
       </c>
       <c r="C6">
-        <v>-1.5980846176353E-4</v>
+        <v>-2.4950237754996202E-4</v>
       </c>
       <c r="D6">
-        <v>3.3944457436239514E-5</v>
+        <v>1.3308979753285814E-5</v>
       </c>
       <c r="E6">
-        <v>-4.1415937791921827E-7</v>
+        <v>-2.1003806880845878E-7</v>
       </c>
       <c r="F6">
-        <v>3.6505576050124633E-3</v>
+        <v>4.4397473498215892E-3</v>
       </c>
       <c r="G6">
-        <v>4.8206533562325394E-3</v>
+        <v>5.7431141419073354E-3</v>
       </c>
       <c r="H6">
-        <v>3.5703500329289451E-3</v>
+        <v>4.4913325770045975E-3</v>
       </c>
       <c r="I6">
-        <v>3.4617610139176525E-3</v>
+        <v>4.2043872491003909E-3</v>
       </c>
       <c r="J6">
-        <v>3.6829708262729527E-3</v>
+        <v>4.6284327506195414E-3</v>
       </c>
       <c r="K6">
-        <v>3.961434270431584E-3</v>
+        <v>4.7571737385850767E-3</v>
       </c>
       <c r="L6">
-        <v>3.70730100197486E-3</v>
+        <v>4.5825897308364779E-3</v>
       </c>
       <c r="M6">
-        <v>1.0504887215463232E-4</v>
+        <v>8.9906585172103132E-5</v>
       </c>
       <c r="N6">
-        <v>-7.1022779281526365E-5</v>
+        <v>-1.8724369603991854E-5</v>
       </c>
       <c r="O6">
-        <v>1.9427606655881137E-4</v>
+        <v>8.4920763309930555E-5</v>
       </c>
       <c r="P6">
-        <v>2.5052929483928665E-4</v>
+        <v>8.7234997166764795E-5</v>
       </c>
       <c r="Q6">
-        <v>4.5210557271219967E-4</v>
+        <v>2.3429618317245371E-4</v>
       </c>
       <c r="R6">
-        <v>5.678703256985153E-4</v>
+        <v>1.9790487078574759E-4</v>
       </c>
       <c r="S6">
-        <v>4.5165633860927965E-4</v>
+        <v>9.0251582091518636E-5</v>
       </c>
       <c r="T6">
-        <v>3.2670269265165077E-4</v>
+        <v>1.0935153787801469E-4</v>
       </c>
       <c r="U6">
-        <v>-5.3892961086928905E-5</v>
+        <v>-1.9141193785483183E-5</v>
       </c>
       <c r="V6">
-        <v>1.3012391528802338E-4</v>
+        <v>2.1074563161249562E-5</v>
       </c>
       <c r="W6">
-        <v>4.2037527942687331E-4</v>
+        <v>2.4558685069701956E-4</v>
       </c>
       <c r="X6">
-        <v>1.3341976960721531E-3</v>
+        <v>5.836356999005674E-4</v>
       </c>
       <c r="Y6">
-        <v>-5.5575901472925017E-5</v>
+        <v>1.4808570481202338E-3</v>
       </c>
       <c r="Z6">
-        <v>-2.4866634709257173E-5</v>
+        <v>-5.3621536081370708E-5</v>
       </c>
       <c r="AA6">
-        <v>-9.1364085311034524E-6</v>
+        <v>-1.4017992309831357E-4</v>
       </c>
       <c r="AB6">
-        <v>2.1040952072367289E-4</v>
+        <v>3.8504958845782906E-5</v>
       </c>
       <c r="AC6">
-        <v>3.0960191180304513E-5</v>
+        <v>1.9367917905725143E-4</v>
       </c>
       <c r="AD6">
-        <v>-5.0999991671652487E-5</v>
+        <v>-5.157229170116767E-6</v>
       </c>
       <c r="AE6">
-        <v>-7.7058040333220941E-6</v>
+        <v>-3.1585154077989289E-5</v>
       </c>
       <c r="AF6">
-        <v>2.1993066315773198E-4</v>
+        <v>-3.1270047416422043E-6</v>
       </c>
       <c r="AG6">
-        <v>1.0196512991705626E-4</v>
+        <v>-9.9578717831078772E-5</v>
       </c>
       <c r="AH6">
-        <v>-4.969223295875627E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>2.514476091574786E-4</v>
+      </c>
+      <c r="AI6">
+        <v>-4.9778879366692112E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>-0.11873961170449826</v>
+        <v>-0.17334083318999111</v>
       </c>
       <c r="C7">
-        <v>-2.6570588120182123E-5</v>
+        <v>5.6852602415642303E-5</v>
       </c>
       <c r="D7">
-        <v>-8.4401125356746475E-6</v>
+        <v>3.6199300382121734E-5</v>
       </c>
       <c r="E7">
-        <v>1.6131345441740973E-7</v>
+        <v>-2.2190619506743957E-7</v>
       </c>
       <c r="F7">
-        <v>4.0848362358798032E-3</v>
+        <v>4.8664171591475177E-3</v>
       </c>
       <c r="G7">
-        <v>3.5703500329289451E-3</v>
+        <v>4.4913325770045975E-3</v>
       </c>
       <c r="H7">
-        <v>7.0456459956209569E-3</v>
+        <v>8.4814982892697441E-3</v>
       </c>
       <c r="I7">
-        <v>3.5353434609478014E-3</v>
+        <v>4.7485985545689139E-3</v>
       </c>
       <c r="J7">
-        <v>3.8532217696884891E-3</v>
+        <v>4.8928664358673761E-3</v>
       </c>
       <c r="K7">
-        <v>3.7243054930295662E-3</v>
+        <v>4.6295153842094323E-3</v>
       </c>
       <c r="L7">
-        <v>3.9519224376731244E-3</v>
+        <v>5.0716875864671631E-3</v>
       </c>
       <c r="M7">
-        <v>5.6773894873363498E-4</v>
+        <v>7.3491890253591773E-4</v>
       </c>
       <c r="N7">
-        <v>8.18786085820982E-5</v>
+        <v>1.4224469237861096E-4</v>
       </c>
       <c r="O7">
-        <v>7.0988931201561615E-4</v>
+        <v>-2.2841115384627392E-4</v>
       </c>
       <c r="P7">
-        <v>5.5099762050036367E-4</v>
+        <v>-1.746491289784549E-4</v>
       </c>
       <c r="Q7">
-        <v>2.548149756907616E-5</v>
+        <v>-1.9666709986702348E-4</v>
       </c>
       <c r="R7">
-        <v>1.0385390863964367E-5</v>
+        <v>7.9129888550110274E-5</v>
       </c>
       <c r="S7">
-        <v>1.3080277389313291E-5</v>
+        <v>4.7007695912139227E-5</v>
       </c>
       <c r="T7">
-        <v>-2.6514958390300354E-4</v>
+        <v>-9.9721893548893015E-5</v>
       </c>
       <c r="U7">
-        <v>4.2182420996300562E-5</v>
+        <v>5.2111786338064235E-4</v>
       </c>
       <c r="V7">
-        <v>1.3121074893238723E-4</v>
+        <v>6.3704198917015928E-5</v>
       </c>
       <c r="W7">
-        <v>2.6457292027339858E-4</v>
+        <v>6.7547684784843246E-5</v>
       </c>
       <c r="X7">
-        <v>1.4777634115564486E-3</v>
+        <v>8.0538657238699574E-5</v>
       </c>
       <c r="Y7">
-        <v>-5.8428580098840048E-5</v>
+        <v>1.2406439888905277E-3</v>
       </c>
       <c r="Z7">
-        <v>1.1401714338655342E-4</v>
+        <v>-7.6257997809397375E-5</v>
       </c>
       <c r="AA7">
-        <v>6.036192079653651E-4</v>
+        <v>5.4140611069456422E-5</v>
       </c>
       <c r="AB7">
-        <v>-3.4962142455333481E-5</v>
+        <v>8.313003445649704E-4</v>
       </c>
       <c r="AC7">
-        <v>7.9684367794550029E-5</v>
+        <v>1.2474809821146592E-4</v>
       </c>
       <c r="AD7">
-        <v>-1.8217413672311819E-4</v>
+        <v>7.8688988978744021E-5</v>
       </c>
       <c r="AE7">
-        <v>-1.658937324643437E-5</v>
+        <v>-2.9993085834891637E-4</v>
       </c>
       <c r="AF7">
-        <v>1.1490132170891756E-3</v>
+        <v>-1.4384790905600252E-5</v>
       </c>
       <c r="AG7">
-        <v>3.9567052436399524E-4</v>
+        <v>1.5306419737571133E-3</v>
       </c>
       <c r="AH7">
-        <v>-4.5124274902579959E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>3.9073934265809783E-4</v>
+      </c>
+      <c r="AI7">
+        <v>-6.0068388825839109E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>1.0314695598928594</v>
+        <v>1.0523131710439801</v>
       </c>
       <c r="C8">
-        <v>-1.4306658569717215E-4</v>
+        <v>-2.066375253355959E-4</v>
       </c>
       <c r="D8">
-        <v>8.4463878190792988E-5</v>
+        <v>1.0938316690686529E-4</v>
       </c>
       <c r="E8">
-        <v>-7.2795552833134329E-7</v>
+        <v>-8.773062271772375E-7</v>
       </c>
       <c r="F8">
-        <v>4.2556992063612232E-3</v>
+        <v>4.9051709764105309E-3</v>
       </c>
       <c r="G8">
-        <v>3.4617610139176525E-3</v>
+        <v>4.2043872491003909E-3</v>
       </c>
       <c r="H8">
-        <v>3.5353434609478014E-3</v>
+        <v>4.7485985545689139E-3</v>
       </c>
       <c r="I8">
-        <v>0.2721116572063999</v>
+        <v>0.28026405638596946</v>
       </c>
       <c r="J8">
-        <v>3.665049679406169E-3</v>
+        <v>4.6780752021496315E-3</v>
       </c>
       <c r="K8">
-        <v>3.6404652405091272E-3</v>
+        <v>4.3838530048954652E-3</v>
       </c>
       <c r="L8">
-        <v>3.8833099487134946E-3</v>
+        <v>4.8788550422076823E-3</v>
       </c>
       <c r="M8">
-        <v>1.1776496851940526E-3</v>
+        <v>1.4106376538499483E-3</v>
       </c>
       <c r="N8">
-        <v>6.1125568625543117E-5</v>
+        <v>1.0525573173797995E-4</v>
       </c>
       <c r="O8">
-        <v>-5.0116693520904773E-5</v>
+        <v>-1.760664255580866E-4</v>
       </c>
       <c r="P8">
-        <v>-1.5860180884004916E-4</v>
+        <v>-2.9686071200720702E-4</v>
       </c>
       <c r="Q8">
-        <v>2.5999430901070802E-4</v>
+        <v>-2.4166527585912619E-4</v>
       </c>
       <c r="R8">
-        <v>4.1169163151917945E-4</v>
+        <v>2.1342656319985054E-5</v>
       </c>
       <c r="S8">
-        <v>2.8683790120362547E-4</v>
+        <v>8.6067423509884119E-5</v>
       </c>
       <c r="T8">
-        <v>1.8305574145110462E-4</v>
+        <v>7.1910875513445821E-5</v>
       </c>
       <c r="U8">
-        <v>3.116802386385E-5</v>
+        <v>2.2486736374569905E-4</v>
       </c>
       <c r="V8">
-        <v>2.0336846454068147E-4</v>
+        <v>1.614831541827316E-4</v>
       </c>
       <c r="W8">
-        <v>5.1873047463617283E-4</v>
+        <v>5.1026576590597773E-5</v>
       </c>
       <c r="X8">
-        <v>1.2265270614299139E-3</v>
+        <v>5.7013382160985091E-4</v>
       </c>
       <c r="Y8">
-        <v>-2.3020203469053497E-4</v>
+        <v>1.2816677600039558E-3</v>
       </c>
       <c r="Z8">
-        <v>3.0985723909006223E-4</v>
+        <v>-1.8331739696391623E-4</v>
       </c>
       <c r="AA8">
-        <v>5.6213812529193243E-4</v>
+        <v>2.9842096755970313E-4</v>
       </c>
       <c r="AB8">
-        <v>1.1737885784841688E-4</v>
+        <v>8.007981067031573E-4</v>
       </c>
       <c r="AC8">
-        <v>1.6086377104473633E-5</v>
+        <v>3.8953113062006797E-5</v>
       </c>
       <c r="AD8">
-        <v>-6.9366518939538869E-5</v>
+        <v>-5.3559941448758598E-5</v>
       </c>
       <c r="AE8">
-        <v>2.1387698131283757E-5</v>
+        <v>-1.3394412750209568E-4</v>
       </c>
       <c r="AF8">
-        <v>-2.8267489327146993E-4</v>
+        <v>4.1096559598746316E-5</v>
       </c>
       <c r="AG8">
-        <v>-3.8547805056742294E-5</v>
+        <v>-1.7382711948333088E-4</v>
       </c>
       <c r="AH8">
-        <v>-6.7547239335546717E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>-8.6370272870860999E-5</v>
+      </c>
+      <c r="AI8">
+        <v>-8.3276544871487054E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>-0.19259667631357338</v>
+        <v>-0.22351645500713901</v>
       </c>
       <c r="C9">
-        <v>-1.8425152743446592E-4</v>
+        <v>-2.6005812105714811E-4</v>
       </c>
       <c r="D9">
-        <v>-1.2368979571665171E-5</v>
+        <v>1.4520820285246158E-5</v>
       </c>
       <c r="E9">
-        <v>2.1882305812137423E-7</v>
+        <v>-4.5019195706814538E-8</v>
       </c>
       <c r="F9">
-        <v>3.9720862776786766E-3</v>
+        <v>4.8253727071790259E-3</v>
       </c>
       <c r="G9">
-        <v>3.6829708262729527E-3</v>
+        <v>4.6284327506195414E-3</v>
       </c>
       <c r="H9">
-        <v>3.8532217696884891E-3</v>
+        <v>4.8928664358673761E-3</v>
       </c>
       <c r="I9">
-        <v>3.665049679406169E-3</v>
+        <v>4.6780752021496315E-3</v>
       </c>
       <c r="J9">
-        <v>5.8216336732707097E-3</v>
+        <v>7.226726874439723E-3</v>
       </c>
       <c r="K9">
-        <v>3.7679589807910973E-3</v>
+        <v>4.6558412922153734E-3</v>
       </c>
       <c r="L9">
-        <v>4.0665504489365975E-3</v>
+        <v>5.09969789783285E-3</v>
       </c>
       <c r="M9">
-        <v>7.2181588656712429E-4</v>
+        <v>9.2274110705227366E-4</v>
       </c>
       <c r="N9">
-        <v>1.7755722693198395E-4</v>
+        <v>2.2932376237686913E-4</v>
       </c>
       <c r="O9">
-        <v>3.240454068522591E-4</v>
+        <v>1.3502837975760051E-5</v>
       </c>
       <c r="P9">
-        <v>1.0142581058936238E-4</v>
+        <v>1.4823427572651878E-4</v>
       </c>
       <c r="Q9">
-        <v>-1.3785055534069716E-4</v>
+        <v>-4.9821435197587409E-5</v>
       </c>
       <c r="R9">
-        <v>-8.5007508727374687E-5</v>
+        <v>6.8138658574725059E-5</v>
       </c>
       <c r="S9">
-        <v>-2.922963280902152E-4</v>
+        <v>1.5470808765000475E-4</v>
       </c>
       <c r="T9">
-        <v>-3.9944145156773823E-4</v>
+        <v>-1.5890402544557156E-4</v>
       </c>
       <c r="U9">
-        <v>7.8881220017353775E-5</v>
+        <v>-8.6050511071782826E-5</v>
       </c>
       <c r="V9">
-        <v>6.7841513863903594E-5</v>
+        <v>1.7383106161056013E-5</v>
       </c>
       <c r="W9">
-        <v>8.3578715825229977E-4</v>
+        <v>-1.5127125632723539E-4</v>
       </c>
       <c r="X9">
-        <v>1.7031491179690661E-3</v>
+        <v>7.7238395248175077E-4</v>
       </c>
       <c r="Y9">
-        <v>-9.2647623142644401E-5</v>
+        <v>1.7848622337234277E-3</v>
       </c>
       <c r="Z9">
-        <v>-1.616329051984508E-5</v>
+        <v>-9.3727905244657005E-5</v>
       </c>
       <c r="AA9">
-        <v>2.4369187071713238E-4</v>
+        <v>-3.2864155674861581E-5</v>
       </c>
       <c r="AB9">
-        <v>-1.017008006614869E-4</v>
+        <v>3.2457542267697558E-4</v>
       </c>
       <c r="AC9">
-        <v>3.0220363810946394E-5</v>
+        <v>-1.4329153982553435E-4</v>
       </c>
       <c r="AD9">
-        <v>-6.788549859791616E-5</v>
+        <v>-5.533329262149284E-5</v>
       </c>
       <c r="AE9">
-        <v>-5.4066293318216362E-6</v>
+        <v>-1.909090230916104E-4</v>
       </c>
       <c r="AF9">
-        <v>2.2017282160584784E-4</v>
+        <v>-6.2109427909475077E-7</v>
       </c>
       <c r="AG9">
-        <v>1.334719851969863E-4</v>
+        <v>1.2727632572262244E-4</v>
       </c>
       <c r="AH9">
-        <v>-4.045096064080214E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>2.3812772419591198E-4</v>
+      </c>
+      <c r="AI9">
+        <v>-5.5623260142673454E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.2603694340432518</v>
+        <v>-0.30729212216146468</v>
       </c>
       <c r="C10">
-        <v>1.9737027493914522E-4</v>
+        <v>1.1517777087979501E-4</v>
       </c>
       <c r="D10">
-        <v>3.2370599849028755E-5</v>
+        <v>3.15622655372736E-5</v>
       </c>
       <c r="E10">
-        <v>-2.7041503246385228E-7</v>
+        <v>-2.3780927825340882E-7</v>
       </c>
       <c r="F10">
-        <v>3.9752669270496461E-3</v>
+        <v>4.6703214728683693E-3</v>
       </c>
       <c r="G10">
-        <v>3.961434270431584E-3</v>
+        <v>4.7571737385850767E-3</v>
       </c>
       <c r="H10">
-        <v>3.7243054930295662E-3</v>
+        <v>4.6295153842094323E-3</v>
       </c>
       <c r="I10">
-        <v>3.6404652405091272E-3</v>
+        <v>4.3838530048954652E-3</v>
       </c>
       <c r="J10">
-        <v>3.7679589807910973E-3</v>
+        <v>4.6558412922153734E-3</v>
       </c>
       <c r="K10">
-        <v>4.5396673428687237E-3</v>
+        <v>5.2956583297501707E-3</v>
       </c>
       <c r="L10">
-        <v>4.179081079199818E-3</v>
+        <v>5.0431853142137543E-3</v>
       </c>
       <c r="M10">
-        <v>1.575640822028345E-4</v>
+        <v>1.9492245761402904E-4</v>
       </c>
       <c r="N10">
-        <v>-2.3624383781426753E-4</v>
+        <v>-2.1590277475651374E-4</v>
       </c>
       <c r="O10">
-        <v>3.0444433576084378E-4</v>
+        <v>9.7090395190960774E-5</v>
       </c>
       <c r="P10">
-        <v>2.6410321835178057E-4</v>
+        <v>1.7061561339048862E-4</v>
       </c>
       <c r="Q10">
-        <v>6.5441201594659652E-5</v>
+        <v>1.7380052050891071E-4</v>
       </c>
       <c r="R10">
-        <v>1.7546726547461094E-4</v>
+        <v>-6.4312963222357307E-5</v>
       </c>
       <c r="S10">
-        <v>7.2469291804958588E-5</v>
+        <v>-3.056292950811266E-6</v>
       </c>
       <c r="T10">
-        <v>-1.9877615813856594E-4</v>
+        <v>-8.4776023901850499E-6</v>
       </c>
       <c r="U10">
-        <v>4.2431075667336953E-5</v>
+        <v>-2.6468255006776176E-4</v>
       </c>
       <c r="V10">
-        <v>3.4806744397739584E-4</v>
+        <v>5.7549884443015517E-5</v>
       </c>
       <c r="W10">
-        <v>5.7312562913760157E-4</v>
+        <v>3.3514555559514933E-4</v>
       </c>
       <c r="X10">
-        <v>1.4232334855310081E-3</v>
+        <v>5.4880521816930128E-4</v>
       </c>
       <c r="Y10">
-        <v>-8.9997363013553082E-5</v>
+        <v>1.3740685193620039E-3</v>
       </c>
       <c r="Z10">
-        <v>-7.982371145894533E-5</v>
+        <v>-8.8301389782695914E-5</v>
       </c>
       <c r="AA10">
-        <v>1.2036641666601355E-4</v>
+        <v>-1.8935942338966431E-4</v>
       </c>
       <c r="AB10">
-        <v>5.2793807531282058E-5</v>
+        <v>2.9090483733027177E-4</v>
       </c>
       <c r="AC10">
-        <v>6.7949038305454873E-5</v>
+        <v>9.6569270227219416E-5</v>
       </c>
       <c r="AD10">
-        <v>-6.1226404055630805E-5</v>
+        <v>1.0418293855289455E-4</v>
       </c>
       <c r="AE10">
-        <v>-1.952114455349357E-5</v>
+        <v>-2.1851853514240653E-5</v>
       </c>
       <c r="AF10">
-        <v>4.022724201681923E-4</v>
+        <v>-1.242640000420251E-5</v>
       </c>
       <c r="AG10">
-        <v>1.0400211839860414E-4</v>
+        <v>3.2090980639919511E-4</v>
       </c>
       <c r="AH10">
-        <v>-5.2017010654740476E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>3.1367030446644776E-4</v>
+      </c>
+      <c r="AI10">
+        <v>-5.8567000249403105E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.56157496317160072</v>
+        <v>-0.40454236988194797</v>
       </c>
       <c r="C11">
-        <v>4.7518044144907945E-4</v>
+        <v>5.2108024386409162E-4</v>
       </c>
       <c r="D11">
-        <v>-4.95012999908992E-5</v>
+        <v>2.1123565515370109E-5</v>
       </c>
       <c r="E11">
-        <v>6.338938332980539E-7</v>
+        <v>-1.1604788968772363E-8</v>
       </c>
       <c r="F11">
-        <v>4.4221897155143682E-3</v>
+        <v>4.8721464073992454E-3</v>
       </c>
       <c r="G11">
-        <v>3.70730100197486E-3</v>
+        <v>4.5825897308364779E-3</v>
       </c>
       <c r="H11">
-        <v>3.9519224376731244E-3</v>
+        <v>5.0716875864671631E-3</v>
       </c>
       <c r="I11">
-        <v>3.8833099487134946E-3</v>
+        <v>4.8788550422076823E-3</v>
       </c>
       <c r="J11">
-        <v>4.0665504489365975E-3</v>
+        <v>5.09969789783285E-3</v>
       </c>
       <c r="K11">
-        <v>4.179081079199818E-3</v>
+        <v>5.0431853142137543E-3</v>
       </c>
       <c r="L11">
-        <v>1.0186256484704195E-2</v>
+        <v>1.0506739835812157E-2</v>
       </c>
       <c r="M11">
-        <v>2.8721842050753418E-4</v>
+        <v>1.1145632555974924E-3</v>
       </c>
       <c r="N11">
-        <v>-3.1716646444822897E-4</v>
+        <v>7.5897423755851273E-5</v>
       </c>
       <c r="O11">
-        <v>5.2317522715315844E-4</v>
+        <v>2.8679534806909704E-4</v>
       </c>
       <c r="P11">
-        <v>2.9822588427059918E-4</v>
+        <v>2.797683334658436E-4</v>
       </c>
       <c r="Q11">
-        <v>-1.307211022300277E-4</v>
+        <v>1.7974753799660697E-4</v>
       </c>
       <c r="R11">
-        <v>-9.9147358379946329E-5</v>
+        <v>7.5195361971890518E-5</v>
       </c>
       <c r="S11">
-        <v>-2.6765520876812464E-4</v>
+        <v>5.8943154266170416E-5</v>
       </c>
       <c r="T11">
-        <v>-4.804761118483655E-4</v>
+        <v>-9.449150627769071E-5</v>
       </c>
       <c r="U11">
-        <v>-7.2659544175865038E-5</v>
+        <v>1.0152053614090068E-4</v>
       </c>
       <c r="V11">
-        <v>-4.211674240890825E-6</v>
+        <v>7.8096126754415279E-5</v>
       </c>
       <c r="W11">
-        <v>4.2094178036386482E-4</v>
+        <v>2.7000144375598592E-4</v>
       </c>
       <c r="X11">
-        <v>1.4480555041789492E-3</v>
+        <v>8.3381817199853451E-4</v>
       </c>
       <c r="Y11">
-        <v>-2.8429475036075507E-4</v>
+        <v>1.9770426864075402E-3</v>
       </c>
       <c r="Z11">
-        <v>-3.8474960167706124E-5</v>
+        <v>-2.9959734920110214E-4</v>
       </c>
       <c r="AA11">
-        <v>3.3250309137248862E-5</v>
+        <v>-9.3359109020845681E-5</v>
       </c>
       <c r="AB11">
-        <v>-7.9315402952171354E-5</v>
+        <v>2.3328268872757065E-4</v>
       </c>
       <c r="AC11">
-        <v>-1.5006252547987328E-4</v>
+        <v>9.996348617431804E-5</v>
       </c>
       <c r="AD11">
-        <v>-2.7353305310862087E-4</v>
+        <v>6.3570387819939468E-5</v>
       </c>
       <c r="AE11">
-        <v>-4.4493520889379775E-5</v>
+        <v>-2.1059699516398417E-4</v>
       </c>
       <c r="AF11">
-        <v>4.1722934073881637E-4</v>
+        <v>-2.9573377166804376E-5</v>
       </c>
       <c r="AG11">
-        <v>1.4845400895761862E-4</v>
+        <v>4.3169606570728561E-4</v>
       </c>
       <c r="AH11">
-        <v>-2.8564371046624088E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>3.3505175870773732E-4</v>
+      </c>
+      <c r="AI11">
+        <v>-6.3754335886697898E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>8.8750491022255615E-2</v>
+        <v>0.22796772813521618</v>
       </c>
       <c r="C12">
-        <v>1.5216173681421115E-4</v>
+        <v>2.6211477751951511E-4</v>
       </c>
       <c r="D12">
-        <v>1.6309251307724813E-4</v>
+        <v>1.5347794856690878E-4</v>
       </c>
       <c r="E12">
-        <v>-1.4202938826862161E-6</v>
+        <v>-1.2296513467831838E-6</v>
       </c>
       <c r="F12">
-        <v>7.5569090334470996E-4</v>
+        <v>3.2968851069084651E-4</v>
       </c>
       <c r="G12">
-        <v>1.0504887215463232E-4</v>
+        <v>8.9906585172103132E-5</v>
       </c>
       <c r="H12">
-        <v>5.6773894873363498E-4</v>
+        <v>7.3491890253591773E-4</v>
       </c>
       <c r="I12">
-        <v>1.1776496851940526E-3</v>
+        <v>1.4106376538499483E-3</v>
       </c>
       <c r="J12">
-        <v>7.2181588656712429E-4</v>
+        <v>9.2274110705227366E-4</v>
       </c>
       <c r="K12">
-        <v>1.575640822028345E-4</v>
+        <v>1.9492245761402904E-4</v>
       </c>
       <c r="L12">
-        <v>2.8721842050753418E-4</v>
+        <v>1.1145632555974924E-3</v>
       </c>
       <c r="M12">
-        <v>6.8501194074541555E-3</v>
+        <v>1.3203209172028914E-2</v>
       </c>
       <c r="N12">
-        <v>2.3773731022078562E-3</v>
+        <v>2.5272410614723632E-3</v>
       </c>
       <c r="O12">
-        <v>-3.8085650731699847E-5</v>
+        <v>-8.8774289216302215E-3</v>
       </c>
       <c r="P12">
-        <v>-5.369213963145041E-4</v>
+        <v>-1.5524101211142295E-4</v>
       </c>
       <c r="Q12">
-        <v>3.3689454752966388E-4</v>
+        <v>-4.5354819923159023E-4</v>
       </c>
       <c r="R12">
-        <v>3.186093669430767E-4</v>
+        <v>-5.8532171883503552E-5</v>
       </c>
       <c r="S12">
-        <v>3.4797593320051853E-4</v>
+        <v>-7.0872298656933909E-5</v>
       </c>
       <c r="T12">
-        <v>3.4954139177318733E-4</v>
+        <v>-8.4530108489627742E-5</v>
       </c>
       <c r="U12">
-        <v>6.3327569550311263E-5</v>
+        <v>-2.4048356489555795E-5</v>
       </c>
       <c r="V12">
-        <v>1.8696101632759083E-3</v>
+        <v>5.0168858656815789E-4</v>
       </c>
       <c r="W12">
-        <v>2.5174520835776534E-3</v>
+        <v>2.0222132028897373E-3</v>
       </c>
       <c r="X12">
-        <v>2.3396599916427566E-3</v>
+        <v>3.0236058310321272E-3</v>
       </c>
       <c r="Y12">
-        <v>-1.2962940685564008E-4</v>
+        <v>2.7733159243299192E-3</v>
       </c>
       <c r="Z12">
-        <v>-9.7940570574211224E-5</v>
+        <v>-2.2006258845881193E-4</v>
       </c>
       <c r="AA12">
-        <v>-3.0322306064393609E-6</v>
+        <v>3.2586273834562802E-5</v>
       </c>
       <c r="AB12">
-        <v>-5.9694864727807481E-5</v>
+        <v>7.4833452486069724E-5</v>
       </c>
       <c r="AC12">
-        <v>-5.9262732974822794E-5</v>
+        <v>-3.8415162587905009E-4</v>
       </c>
       <c r="AD12">
-        <v>-2.9756372758036817E-5</v>
+        <v>-2.7466781197101146E-6</v>
       </c>
       <c r="AE12">
-        <v>2.8625071714839692E-6</v>
+        <v>8.4829266834013893E-5</v>
       </c>
       <c r="AF12">
-        <v>-2.3132049983032137E-4</v>
+        <v>-4.9473496396261083E-6</v>
       </c>
       <c r="AG12">
-        <v>-1.0703417908705551E-4</v>
+        <v>-3.8923973069070195E-4</v>
       </c>
       <c r="AH12">
-        <v>-7.2755649555803076E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>-2.102157684431066E-4</v>
+      </c>
+      <c r="AI12">
+        <v>-7.1928328451068332E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>-8.9626427958881677E-2</v>
+        <v>-9.4519338585477369E-2</v>
       </c>
       <c r="C13">
-        <v>3.3467918748957416E-5</v>
+        <v>7.5024814481137894E-5</v>
       </c>
       <c r="D13">
-        <v>4.6018662546889089E-5</v>
+        <v>1.7997351592592372E-5</v>
       </c>
       <c r="E13">
-        <v>-5.2451520796161895E-7</v>
+        <v>-2.4044850694781615E-7</v>
       </c>
       <c r="F13">
-        <v>7.6871720150008586E-5</v>
+        <v>-2.0113653727649432E-4</v>
       </c>
       <c r="G13">
-        <v>-7.1022779281526365E-5</v>
+        <v>-1.8724369603991854E-5</v>
       </c>
       <c r="H13">
-        <v>8.18786085820982E-5</v>
+        <v>1.4224469237861096E-4</v>
       </c>
       <c r="I13">
-        <v>6.1125568625543117E-5</v>
+        <v>1.0525573173797995E-4</v>
       </c>
       <c r="J13">
-        <v>1.7755722693198395E-4</v>
+        <v>2.2932376237686913E-4</v>
       </c>
       <c r="K13">
-        <v>-2.3624383781426753E-4</v>
+        <v>-2.1590277475651374E-4</v>
       </c>
       <c r="L13">
-        <v>-3.1716646444822897E-4</v>
+        <v>7.5897423755851273E-5</v>
       </c>
       <c r="M13">
-        <v>2.3773731022078562E-3</v>
+        <v>2.5272410614723632E-3</v>
       </c>
       <c r="N13">
-        <v>2.7198780382607945E-3</v>
+        <v>3.2662501917384906E-3</v>
       </c>
       <c r="O13">
-        <v>-3.303624919528012E-5</v>
+        <v>6.5647628928889549E-5</v>
       </c>
       <c r="P13">
-        <v>-1.8443977086338137E-4</v>
+        <v>-1.0377308648249677E-4</v>
       </c>
       <c r="Q13">
-        <v>3.1577474662237764E-4</v>
+        <v>-3.4222400602851527E-4</v>
       </c>
       <c r="R13">
-        <v>4.0612675807860437E-4</v>
+        <v>5.9171469970824308E-5</v>
       </c>
       <c r="S13">
-        <v>5.8037590680436939E-4</v>
+        <v>1.2183005066459282E-4</v>
       </c>
       <c r="T13">
-        <v>7.8159234270390161E-4</v>
+        <v>3.8129449138779771E-4</v>
       </c>
       <c r="U13">
-        <v>9.3053694301496644E-5</v>
+        <v>5.7174275721078873E-4</v>
       </c>
       <c r="V13">
-        <v>1.541654161412543E-3</v>
+        <v>5.876728893344595E-5</v>
       </c>
       <c r="W13">
-        <v>2.1700962330402571E-3</v>
+        <v>1.9142766797069423E-3</v>
       </c>
       <c r="X13">
-        <v>2.141560202326925E-3</v>
+        <v>2.6582327290862835E-3</v>
       </c>
       <c r="Y13">
-        <v>-1.0574301288292374E-4</v>
+        <v>2.591507318392066E-3</v>
       </c>
       <c r="Z13">
-        <v>-7.2730321637796654E-6</v>
+        <v>-1.3326417041872827E-4</v>
       </c>
       <c r="AA13">
-        <v>2.1763675406856367E-5</v>
+        <v>2.8569475604282022E-5</v>
       </c>
       <c r="AB13">
-        <v>-1.1260441339901758E-4</v>
+        <v>-5.2887370634620377E-5</v>
       </c>
       <c r="AC13">
-        <v>-5.1065311286065216E-5</v>
+        <v>-1.8193685850591322E-4</v>
       </c>
       <c r="AD13">
-        <v>4.6424231361135099E-5</v>
+        <v>-1.6519126492804285E-4</v>
       </c>
       <c r="AE13">
-        <v>-3.6379446713445869E-6</v>
+        <v>-4.9810358773324918E-5</v>
       </c>
       <c r="AF13">
-        <v>4.671422731139345E-5</v>
+        <v>-1.3557596760123148E-5</v>
       </c>
       <c r="AG13">
-        <v>-9.3712948740181496E-5</v>
+        <v>3.3733079687679399E-5</v>
       </c>
       <c r="AH13">
-        <v>-3.4677280391516001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>-1.1222199347195522E-4</v>
+      </c>
+      <c r="AI13">
+        <v>-2.8232882791438436E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>-0.11895415389877113</v>
+        <v>-0.33506155142049943</v>
       </c>
       <c r="C14">
-        <v>-5.6622934486791511E-5</v>
+        <v>-1.4631348433018985E-4</v>
       </c>
       <c r="D14">
-        <v>-2.1957908778529677E-5</v>
+        <v>-2.4300747964118004E-5</v>
       </c>
       <c r="E14">
-        <v>2.1863293334615626E-7</v>
+        <v>2.5102399187074278E-7</v>
       </c>
       <c r="F14">
-        <v>7.7573552109734924E-4</v>
+        <v>9.304033297670869E-4</v>
       </c>
       <c r="G14">
-        <v>1.9427606655881137E-4</v>
+        <v>8.4920763309930555E-5</v>
       </c>
       <c r="H14">
-        <v>7.0988931201561615E-4</v>
+        <v>-2.2841115384627392E-4</v>
       </c>
       <c r="I14">
-        <v>-5.0116693520904773E-5</v>
+        <v>-1.760664255580866E-4</v>
       </c>
       <c r="J14">
-        <v>3.240454068522591E-4</v>
+        <v>1.3502837975760051E-5</v>
       </c>
       <c r="K14">
-        <v>3.0444433576084378E-4</v>
+        <v>9.7090395190960774E-5</v>
       </c>
       <c r="L14">
-        <v>5.2317522715315844E-4</v>
+        <v>2.8679534806909704E-4</v>
       </c>
       <c r="M14">
-        <v>-3.8085650731699847E-5</v>
+        <v>-8.8774289216302215E-3</v>
       </c>
       <c r="N14">
-        <v>-3.303624919528012E-5</v>
+        <v>6.5647628928889549E-5</v>
       </c>
       <c r="O14">
-        <v>1.5823500901575123E-3</v>
+        <v>1.7834977776912373E-2</v>
       </c>
       <c r="P14">
-        <v>1.3030455270072469E-3</v>
+        <v>1.5508889243148007E-3</v>
       </c>
       <c r="Q14">
-        <v>-1.9245749161730789E-4</v>
+        <v>1.6783302767853E-3</v>
       </c>
       <c r="R14">
-        <v>-2.5360594113041411E-4</v>
+        <v>4.6701483532707159E-6</v>
       </c>
       <c r="S14">
-        <v>-1.5198421607297307E-4</v>
+        <v>-4.3469560338120332E-5</v>
       </c>
       <c r="T14">
-        <v>-3.4784458984114157E-4</v>
+        <v>1.966768682806069E-4</v>
       </c>
       <c r="U14">
-        <v>-1.1874853565989311E-5</v>
+        <v>1.0343757767997141E-4</v>
       </c>
       <c r="V14">
-        <v>-6.14372839349849E-5</v>
+        <v>-2.830027116443921E-4</v>
       </c>
       <c r="W14">
-        <v>1.2380666800409468E-4</v>
+        <v>3.2478638256148485E-4</v>
       </c>
       <c r="X14">
-        <v>4.2823394367594303E-4</v>
+        <v>2.4458338733387655E-4</v>
       </c>
       <c r="Y14">
-        <v>1.6186708533937397E-5</v>
+        <v>2.8025822215264028E-4</v>
       </c>
       <c r="Z14">
-        <v>-4.4875420700437892E-5</v>
+        <v>9.9586370740198407E-5</v>
       </c>
       <c r="AA14">
-        <v>3.66675756150042E-4</v>
+        <v>-2.5446021819621617E-4</v>
       </c>
       <c r="AB14">
-        <v>5.9765173137033174E-5</v>
+        <v>-4.6734704395442166E-4</v>
       </c>
       <c r="AC14">
-        <v>1.0505500079459882E-4</v>
+        <v>1.0045878634789454E-3</v>
       </c>
       <c r="AD14">
-        <v>7.0833031139753934E-5</v>
+        <v>-1.5049816258301391E-4</v>
       </c>
       <c r="AE14">
-        <v>-2.1323340956918595E-6</v>
+        <v>-2.3249580819562955E-4</v>
       </c>
       <c r="AF14">
-        <v>3.5577788412436686E-4</v>
+        <v>6.2950663784039872E-6</v>
       </c>
       <c r="AG14">
-        <v>1.4264913544193795E-4</v>
+        <v>-6.6477564774155076E-5</v>
       </c>
       <c r="AH14">
-        <v>-9.7936285023101591E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>2.7228498052549481E-4</v>
+      </c>
+      <c r="AI14">
+        <v>-1.0319212385375008E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>-0.15531718005366227</v>
+        <v>-0.11111192386728244</v>
       </c>
       <c r="C15">
-        <v>8.4631930836750829E-6</v>
+        <v>-1.504226716678639E-4</v>
       </c>
       <c r="D15">
-        <v>3.0074398335221087E-6</v>
+        <v>-3.2200531772687486E-5</v>
       </c>
       <c r="E15">
-        <v>-9.0415458566144513E-8</v>
+        <v>3.0893369107711901E-7</v>
       </c>
       <c r="F15">
-        <v>6.3025963800494638E-4</v>
+        <v>6.3368203544821164E-4</v>
       </c>
       <c r="G15">
-        <v>2.5052929483928665E-4</v>
+        <v>8.7234997166764795E-5</v>
       </c>
       <c r="H15">
-        <v>5.5099762050036367E-4</v>
+        <v>-1.746491289784549E-4</v>
       </c>
       <c r="I15">
-        <v>-1.5860180884004916E-4</v>
+        <v>-2.9686071200720702E-4</v>
       </c>
       <c r="J15">
-        <v>1.0142581058936238E-4</v>
+        <v>1.4823427572651878E-4</v>
       </c>
       <c r="K15">
-        <v>2.6410321835178057E-4</v>
+        <v>1.7061561339048862E-4</v>
       </c>
       <c r="L15">
-        <v>2.9822588427059918E-4</v>
+        <v>2.797683334658436E-4</v>
       </c>
       <c r="M15">
-        <v>-5.369213963145041E-4</v>
+        <v>-1.5524101211142295E-4</v>
       </c>
       <c r="N15">
-        <v>-1.8443977086338137E-4</v>
+        <v>-1.0377308648249677E-4</v>
       </c>
       <c r="O15">
-        <v>1.3030455270072469E-3</v>
+        <v>1.5508889243148007E-3</v>
       </c>
       <c r="P15">
-        <v>2.2080305795237785E-3</v>
+        <v>1.8947467078142405E-3</v>
       </c>
       <c r="Q15">
-        <v>5.9085098820099756E-4</v>
+        <v>1.5226288579186704E-3</v>
       </c>
       <c r="R15">
-        <v>6.0644650713572693E-4</v>
+        <v>-3.2329751659738624E-5</v>
       </c>
       <c r="S15">
-        <v>7.8743571860219442E-4</v>
+        <v>1.15312551334826E-5</v>
       </c>
       <c r="T15">
-        <v>5.5266131535489484E-4</v>
+        <v>9.4980347925547167E-5</v>
       </c>
       <c r="U15">
-        <v>-1.3141000600114331E-4</v>
+        <v>-3.2089440183834353E-4</v>
       </c>
       <c r="V15">
-        <v>6.7562803972054148E-6</v>
+        <v>-7.6438805474986666E-5</v>
       </c>
       <c r="W15">
-        <v>2.8653250369600958E-5</v>
+        <v>-7.9515155160856548E-5</v>
       </c>
       <c r="X15">
-        <v>3.2774816690868055E-4</v>
+        <v>1.4868951782996543E-4</v>
       </c>
       <c r="Y15">
-        <v>2.8293951280300593E-5</v>
+        <v>1.9579031755848726E-4</v>
       </c>
       <c r="Z15">
-        <v>-6.5626438313983455E-5</v>
+        <v>3.2771132055161784E-5</v>
       </c>
       <c r="AA15">
-        <v>3.8600949879069352E-5</v>
+        <v>-1.5133954198028499E-4</v>
       </c>
       <c r="AB15">
-        <v>-1.1867530146991289E-4</v>
+        <v>-9.5606798937157892E-5</v>
       </c>
       <c r="AC15">
-        <v>-1.813907855332389E-5</v>
+        <v>4.4696501391709286E-5</v>
       </c>
       <c r="AD15">
-        <v>5.0457305931109013E-5</v>
+        <v>4.2202548481914394E-5</v>
       </c>
       <c r="AE15">
-        <v>8.0945814137831876E-6</v>
+        <v>9.1416859703396776E-5</v>
       </c>
       <c r="AF15">
-        <v>2.7032358379740825E-4</v>
+        <v>-9.2170658087262832E-6</v>
       </c>
       <c r="AG15">
-        <v>1.1812324816894436E-4</v>
+        <v>-3.3822251339411672E-4</v>
       </c>
       <c r="AH15">
-        <v>-2.1720112496965756E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>3.1142654573763912E-4</v>
+      </c>
+      <c r="AI15">
+        <v>-5.8954971789620557E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>0.1781232993523473</v>
+        <v>-0.19158184308024595</v>
       </c>
       <c r="C16">
-        <v>1.2349254655087661E-4</v>
+        <v>1.7240655321596647E-5</v>
       </c>
       <c r="D16">
-        <v>1.2732706508277868E-4</v>
+        <v>-1.2529695370788675E-5</v>
       </c>
       <c r="E16">
-        <v>-1.4138075044429864E-6</v>
+        <v>3.4984838443742284E-8</v>
       </c>
       <c r="F16">
-        <v>-1.9013376654838411E-5</v>
+        <v>3.7745976610460046E-4</v>
       </c>
       <c r="G16">
-        <v>4.5210557271219967E-4</v>
+        <v>2.3429618317245371E-4</v>
       </c>
       <c r="H16">
-        <v>2.548149756907616E-5</v>
+        <v>-1.9666709986702348E-4</v>
       </c>
       <c r="I16">
-        <v>2.5999430901070802E-4</v>
+        <v>-2.4166527585912619E-4</v>
       </c>
       <c r="J16">
-        <v>-1.3785055534069716E-4</v>
+        <v>-4.9821435197587409E-5</v>
       </c>
       <c r="K16">
-        <v>6.5441201594659652E-5</v>
+        <v>1.7380052050891071E-4</v>
       </c>
       <c r="L16">
-        <v>-1.307211022300277E-4</v>
+        <v>1.7974753799660697E-4</v>
       </c>
       <c r="M16">
-        <v>3.3689454752966388E-4</v>
+        <v>-4.5354819923159023E-4</v>
       </c>
       <c r="N16">
-        <v>3.1577474662237764E-4</v>
+        <v>-3.4222400602851527E-4</v>
       </c>
       <c r="O16">
-        <v>-1.9245749161730789E-4</v>
+        <v>1.6783302767853E-3</v>
       </c>
       <c r="P16">
-        <v>5.9085098820099756E-4</v>
+        <v>1.5226288579186704E-3</v>
       </c>
       <c r="Q16">
-        <v>9.4968474348428832E-3</v>
+        <v>2.6193117801309633E-3</v>
       </c>
       <c r="R16">
-        <v>8.7215127757852111E-3</v>
+        <v>1.5870099195822043E-4</v>
       </c>
       <c r="S16">
-        <v>8.7484223666304348E-3</v>
+        <v>2.2304477110456612E-4</v>
       </c>
       <c r="T16">
-        <v>8.7786548042312878E-3</v>
+        <v>4.4838488528272844E-4</v>
       </c>
       <c r="U16">
-        <v>-9.8721911216102928E-4</v>
+        <v>4.5905567042535053E-6</v>
       </c>
       <c r="V16">
-        <v>-4.9331348625071417E-4</v>
+        <v>1.406597734357626E-4</v>
       </c>
       <c r="W16">
-        <v>-5.4650179889855822E-4</v>
+        <v>1.4837995345113415E-4</v>
       </c>
       <c r="X16">
-        <v>-5.7953151498202609E-4</v>
+        <v>1.7785419268018596E-4</v>
       </c>
       <c r="Y16">
-        <v>1.1475987217563063E-5</v>
+        <v>2.7754921601432945E-4</v>
       </c>
       <c r="Z16">
-        <v>1.2244676956675452E-4</v>
+        <v>3.0771138346440715E-5</v>
       </c>
       <c r="AA16">
-        <v>-1.1497199099601446E-3</v>
+        <v>-1.5626837671342436E-4</v>
       </c>
       <c r="AB16">
-        <v>1.0990001009011235E-6</v>
+        <v>-5.1156819443302112E-4</v>
       </c>
       <c r="AC16">
-        <v>-6.1681125117520573E-5</v>
+        <v>-3.1283870040078616E-6</v>
       </c>
       <c r="AD16">
-        <v>4.4499328697998868E-5</v>
+        <v>-1.0253632380451705E-4</v>
       </c>
       <c r="AE16">
-        <v>9.3347912054103275E-6</v>
+        <v>1.0867499151273315E-4</v>
       </c>
       <c r="AF16">
-        <v>-1.5384831453324052E-3</v>
+        <v>1.4215581820925611E-5</v>
       </c>
       <c r="AG16">
-        <v>-5.300283946534437E-5</v>
+        <v>-3.3315234725321812E-4</v>
       </c>
       <c r="AH16">
-        <v>-1.0797593252049424E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>2.4117536479581746E-4</v>
+      </c>
+      <c r="AI16">
+        <v>-1.4858645671962465E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>0.28890044899804307</v>
+        <v>8.5046671350578057E-2</v>
       </c>
       <c r="C17">
-        <v>1.9035035252080133E-4</v>
+        <v>-1.1910932376519269E-4</v>
       </c>
       <c r="D17">
-        <v>1.2162822416105748E-4</v>
+        <v>-3.7453550226100178E-5</v>
       </c>
       <c r="E17">
-        <v>-1.3572278993061973E-6</v>
+        <v>3.6595427758275255E-7</v>
       </c>
       <c r="F17">
-        <v>-1.2349950944443022E-5</v>
+        <v>1.6870920753296733E-5</v>
       </c>
       <c r="G17">
-        <v>5.678703256985153E-4</v>
+        <v>1.9790487078574759E-4</v>
       </c>
       <c r="H17">
-        <v>1.0385390863964367E-5</v>
+        <v>7.9129888550110274E-5</v>
       </c>
       <c r="I17">
-        <v>4.1169163151917945E-4</v>
+        <v>2.1342656319985054E-5</v>
       </c>
       <c r="J17">
-        <v>-8.5007508727374687E-5</v>
+        <v>6.8138658574725059E-5</v>
       </c>
       <c r="K17">
-        <v>1.7546726547461094E-4</v>
+        <v>-6.4312963222357307E-5</v>
       </c>
       <c r="L17">
-        <v>-9.9147358379946329E-5</v>
+        <v>7.5195361971890518E-5</v>
       </c>
       <c r="M17">
-        <v>3.186093669430767E-4</v>
+        <v>-5.8532171883503552E-5</v>
       </c>
       <c r="N17">
-        <v>4.0612675807860437E-4</v>
+        <v>5.9171469970824308E-5</v>
       </c>
       <c r="O17">
-        <v>-2.5360594113041411E-4</v>
+        <v>4.6701483532707159E-6</v>
       </c>
       <c r="P17">
-        <v>6.0644650713572693E-4</v>
+        <v>-3.2329751659738624E-5</v>
       </c>
       <c r="Q17">
-        <v>8.7215127757852111E-3</v>
+        <v>1.5870099195822043E-4</v>
       </c>
       <c r="R17">
-        <v>9.3494928427186631E-3</v>
+        <v>6.5840532661240606E-3</v>
       </c>
       <c r="S17">
-        <v>8.8871374460108357E-3</v>
+        <v>5.8663626174930419E-3</v>
       </c>
       <c r="T17">
-        <v>8.8810542628126928E-3</v>
+        <v>5.8604056136178327E-3</v>
       </c>
       <c r="U17">
-        <v>-9.5749053687405744E-4</v>
+        <v>5.8331702566612846E-3</v>
       </c>
       <c r="V17">
-        <v>-4.7034127749101751E-4</v>
+        <v>-9.0427723659067911E-5</v>
       </c>
       <c r="W17">
-        <v>-5.2012842308814906E-4</v>
+        <v>9.0440026809771859E-5</v>
       </c>
       <c r="X17">
-        <v>-5.6388967105471151E-4</v>
+        <v>9.3871743006484283E-5</v>
       </c>
       <c r="Y17">
-        <v>1.9509319417948897E-5</v>
+        <v>1.1091060839970874E-4</v>
       </c>
       <c r="Z17">
-        <v>1.4764397870405534E-4</v>
+        <v>-4.706742944154339E-5</v>
       </c>
       <c r="AA17">
-        <v>-1.1676023427347397E-3</v>
+        <v>7.6719584510547109E-5</v>
       </c>
       <c r="AB17">
-        <v>5.2435536631717777E-5</v>
+        <v>-2.1215051267309878E-4</v>
       </c>
       <c r="AC17">
-        <v>-1.105565544933804E-4</v>
+        <v>-1.8808264159679306E-5</v>
       </c>
       <c r="AD17">
-        <v>7.3790774712042357E-5</v>
+        <v>4.324738019545902E-6</v>
       </c>
       <c r="AE17">
-        <v>-4.0618335462888774E-6</v>
+        <v>3.5392185713120205E-5</v>
       </c>
       <c r="AF17">
-        <v>-1.2840824253920842E-3</v>
+        <v>1.2714178479155433E-5</v>
       </c>
       <c r="AG17">
-        <v>-7.840537325995954E-5</v>
+        <v>-8.8888418991317844E-5</v>
       </c>
       <c r="AH17">
-        <v>-1.0769085093481214E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>-7.1954808626651257E-5</v>
+      </c>
+      <c r="AI17">
+        <v>-5.212041490429576E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>0.22819781922558496</v>
+        <v>0.1907009619341887</v>
       </c>
       <c r="C18">
-        <v>1.978242367510187E-4</v>
+        <v>-1.1571601765513991E-4</v>
       </c>
       <c r="D18">
-        <v>1.5398614594633634E-4</v>
+        <v>-6.4163424380623933E-5</v>
       </c>
       <c r="E18">
-        <v>-1.5981695029980982E-6</v>
+        <v>6.743524837525216E-7</v>
       </c>
       <c r="F18">
-        <v>-9.0590748951208978E-5</v>
+        <v>-6.6851619706022217E-6</v>
       </c>
       <c r="G18">
-        <v>4.5165633860927965E-4</v>
+        <v>9.0251582091518636E-5</v>
       </c>
       <c r="H18">
-        <v>1.3080277389313291E-5</v>
+        <v>4.7007695912139227E-5</v>
       </c>
       <c r="I18">
-        <v>2.8683790120362547E-4</v>
+        <v>8.6067423509884119E-5</v>
       </c>
       <c r="J18">
-        <v>-2.922963280902152E-4</v>
+        <v>1.5470808765000475E-4</v>
       </c>
       <c r="K18">
-        <v>7.2469291804958588E-5</v>
+        <v>-3.056292950811266E-6</v>
       </c>
       <c r="L18">
-        <v>-2.6765520876812464E-4</v>
+        <v>5.8943154266170416E-5</v>
       </c>
       <c r="M18">
-        <v>3.4797593320051853E-4</v>
+        <v>-7.0872298656933909E-5</v>
       </c>
       <c r="N18">
-        <v>5.8037590680436939E-4</v>
+        <v>1.2183005066459282E-4</v>
       </c>
       <c r="O18">
-        <v>-1.5198421607297307E-4</v>
+        <v>-4.3469560338120332E-5</v>
       </c>
       <c r="P18">
-        <v>7.8743571860219442E-4</v>
+        <v>1.15312551334826E-5</v>
       </c>
       <c r="Q18">
-        <v>8.7484223666304348E-3</v>
+        <v>2.2304477110456612E-4</v>
       </c>
       <c r="R18">
-        <v>8.8871374460108357E-3</v>
+        <v>5.8663626174930419E-3</v>
       </c>
       <c r="S18">
-        <v>9.7271623321142833E-3</v>
+        <v>6.824120708963659E-3</v>
       </c>
       <c r="T18">
-        <v>9.35465440916999E-3</v>
+        <v>6.2544962790954048E-3</v>
       </c>
       <c r="U18">
-        <v>-9.7689509897377338E-4</v>
+        <v>6.1170047155011831E-3</v>
       </c>
       <c r="V18">
-        <v>-5.5319977117014715E-4</v>
+        <v>-2.4067302468433146E-4</v>
       </c>
       <c r="W18">
-        <v>-6.6644001859648321E-4</v>
+        <v>-7.29068319772915E-6</v>
       </c>
       <c r="X18">
-        <v>-7.7793060273241826E-4</v>
+        <v>-5.6079343857187844E-7</v>
       </c>
       <c r="Y18">
-        <v>4.0709950240078944E-5</v>
+        <v>1.6110739907131827E-6</v>
       </c>
       <c r="Z18">
-        <v>7.6762700064143775E-5</v>
+        <v>-3.4565882891118252E-5</v>
       </c>
       <c r="AA18">
-        <v>-1.083824157961117E-3</v>
+        <v>7.06083323108789E-5</v>
       </c>
       <c r="AB18">
-        <v>1.1296879594876194E-4</v>
+        <v>-2.6508417137219905E-5</v>
       </c>
       <c r="AC18">
-        <v>-8.9586255037903129E-5</v>
+        <v>-9.3521426413956717E-5</v>
       </c>
       <c r="AD18">
-        <v>1.6664264926335407E-4</v>
+        <v>-8.9532176432434427E-5</v>
       </c>
       <c r="AE18">
-        <v>-1.0051090735702117E-5</v>
+        <v>3.3010360078103169E-5</v>
       </c>
       <c r="AF18">
-        <v>-1.2068339613770882E-3</v>
+        <v>-5.4679806765953708E-6</v>
       </c>
       <c r="AG18">
-        <v>1.9397812211810386E-5</v>
+        <v>5.2095509195258273E-4</v>
       </c>
       <c r="AH18">
-        <v>-1.1897452914969299E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>-6.9498053543663946E-5</v>
+      </c>
+      <c r="AI18">
+        <v>-4.8242525906864349E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>0.21714203793873835</v>
+        <v>0.13648914409695237</v>
       </c>
       <c r="C19">
-        <v>1.9828961769724842E-5</v>
+        <v>-4.4243441594144758E-5</v>
       </c>
       <c r="D19">
-        <v>1.9799636574217061E-4</v>
+        <v>-3.6155691423951475E-5</v>
       </c>
       <c r="E19">
-        <v>-1.9634542007952401E-6</v>
+        <v>4.6072195654517022E-7</v>
       </c>
       <c r="F19">
-        <v>-3.9568380751433922E-4</v>
+        <v>-1.7928582155086678E-6</v>
       </c>
       <c r="G19">
-        <v>3.2670269265165077E-4</v>
+        <v>1.0935153787801469E-4</v>
       </c>
       <c r="H19">
-        <v>-2.6514958390300354E-4</v>
+        <v>-9.9721893548893015E-5</v>
       </c>
       <c r="I19">
-        <v>1.8305574145110462E-4</v>
+        <v>7.1910875513445821E-5</v>
       </c>
       <c r="J19">
-        <v>-3.9944145156773823E-4</v>
+        <v>-1.5890402544557156E-4</v>
       </c>
       <c r="K19">
-        <v>-1.9877615813856594E-4</v>
+        <v>-8.4776023901850499E-6</v>
       </c>
       <c r="L19">
-        <v>-4.804761118483655E-4</v>
+        <v>-9.449150627769071E-5</v>
       </c>
       <c r="M19">
-        <v>3.4954139177318733E-4</v>
+        <v>-8.4530108489627742E-5</v>
       </c>
       <c r="N19">
-        <v>7.8159234270390161E-4</v>
+        <v>3.8129449138779771E-4</v>
       </c>
       <c r="O19">
-        <v>-3.4784458984114157E-4</v>
+        <v>1.966768682806069E-4</v>
       </c>
       <c r="P19">
-        <v>5.5266131535489484E-4</v>
+        <v>9.4980347925547167E-5</v>
       </c>
       <c r="Q19">
-        <v>8.7786548042312878E-3</v>
+        <v>4.4838488528272844E-4</v>
       </c>
       <c r="R19">
-        <v>8.8810542628126928E-3</v>
+        <v>5.8604056136178327E-3</v>
       </c>
       <c r="S19">
-        <v>9.35465440916999E-3</v>
+        <v>6.2544962790954048E-3</v>
       </c>
       <c r="T19">
-        <v>1.1131507432781469E-2</v>
+        <v>7.053359383790289E-3</v>
       </c>
       <c r="U19">
-        <v>-1.0129798248799831E-3</v>
+        <v>6.4918231544090878E-3</v>
       </c>
       <c r="V19">
-        <v>-4.338963168676928E-4</v>
+        <v>-1.120461804928548E-4</v>
       </c>
       <c r="W19">
-        <v>-5.0356233093426051E-4</v>
+        <v>1.290856868992594E-4</v>
       </c>
       <c r="X19">
-        <v>-5.3933807825628545E-4</v>
+        <v>9.4746285503453633E-5</v>
       </c>
       <c r="Y19">
-        <v>1.6034854631452524E-5</v>
+        <v>5.9141016341421673E-6</v>
       </c>
       <c r="Z19">
-        <v>9.7423462135635443E-5</v>
+        <v>-1.415044953726423E-5</v>
       </c>
       <c r="AA19">
-        <v>-1.2892196516035776E-3</v>
+        <v>1.874010255916163E-5</v>
       </c>
       <c r="AB19">
-        <v>-2.9596306427952246E-6</v>
+        <v>-2.0892601191444156E-4</v>
       </c>
       <c r="AC19">
-        <v>-8.3393038772289706E-5</v>
+        <v>1.3071063921402809E-5</v>
       </c>
       <c r="AD19">
-        <v>1.8797936878927864E-4</v>
+        <v>-3.6489378424410456E-5</v>
       </c>
       <c r="AE19">
-        <v>1.678102267530288E-5</v>
+        <v>2.1761130409639427E-4</v>
       </c>
       <c r="AF19">
-        <v>-1.5282289325095188E-3</v>
+        <v>-1.2262030127587788E-5</v>
       </c>
       <c r="AG19">
-        <v>-7.4618361677452347E-5</v>
+        <v>2.9097501126850063E-4</v>
       </c>
       <c r="AH19">
-        <v>-1.3275418869167884E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>-1.0224675944311805E-4</v>
+      </c>
+      <c r="AI19">
+        <v>-6.0099414587628259E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>-3.5779784384862588E-2</v>
+        <v>9.4375441456469672E-2</v>
       </c>
       <c r="C20">
-        <v>-9.57975951133598E-5</v>
+        <v>-1.3956468224718914E-4</v>
       </c>
       <c r="D20">
-        <v>-2.122153273784025E-5</v>
+        <v>4.6209794408663706E-5</v>
       </c>
       <c r="E20">
-        <v>2.3356666167662644E-7</v>
+        <v>-1.9020991839300092E-7</v>
       </c>
       <c r="F20">
-        <v>1.3506112256302132E-4</v>
+        <v>-4.8788255669139115E-4</v>
       </c>
       <c r="G20">
-        <v>-5.3892961086928905E-5</v>
+        <v>-1.9141193785483183E-5</v>
       </c>
       <c r="H20">
-        <v>4.2182420996300562E-5</v>
+        <v>5.2111786338064235E-4</v>
       </c>
       <c r="I20">
-        <v>3.116802386385E-5</v>
+        <v>2.2486736374569905E-4</v>
       </c>
       <c r="J20">
-        <v>7.8881220017353775E-5</v>
+        <v>-8.6050511071782826E-5</v>
       </c>
       <c r="K20">
-        <v>4.2431075667336953E-5</v>
+        <v>-2.6468255006776176E-4</v>
       </c>
       <c r="L20">
-        <v>-7.2659544175865038E-5</v>
+        <v>1.0152053614090068E-4</v>
       </c>
       <c r="M20">
-        <v>6.3327569550311263E-5</v>
+        <v>-2.4048356489555795E-5</v>
       </c>
       <c r="N20">
-        <v>9.3053694301496644E-5</v>
+        <v>5.7174275721078873E-4</v>
       </c>
       <c r="O20">
-        <v>-1.1874853565989311E-5</v>
+        <v>1.0343757767997141E-4</v>
       </c>
       <c r="P20">
-        <v>-1.3141000600114331E-4</v>
+        <v>-3.2089440183834353E-4</v>
       </c>
       <c r="Q20">
-        <v>-9.8721911216102928E-4</v>
+        <v>4.5905567042535053E-6</v>
       </c>
       <c r="R20">
-        <v>-9.5749053687405744E-4</v>
+        <v>5.8331702566612846E-3</v>
       </c>
       <c r="S20">
-        <v>-9.7689509897377338E-4</v>
+        <v>6.1170047155011831E-3</v>
       </c>
       <c r="T20">
-        <v>-1.0129798248799831E-3</v>
+        <v>6.4918231544090878E-3</v>
       </c>
       <c r="U20">
-        <v>1.4157430133453579E-3</v>
+        <v>8.7414147902899544E-3</v>
       </c>
       <c r="V20">
-        <v>9.2535747018826107E-4</v>
+        <v>-1.1446573944092083E-4</v>
       </c>
       <c r="W20">
-        <v>9.4245089927214205E-4</v>
+        <v>1.110162832364133E-4</v>
       </c>
       <c r="X20">
-        <v>9.4678609715442483E-4</v>
+        <v>7.2604863845638994E-5</v>
       </c>
       <c r="Y20">
-        <v>-4.4556849064299891E-5</v>
+        <v>4.4867180215855083E-4</v>
       </c>
       <c r="Z20">
-        <v>-3.0011077526299983E-5</v>
+        <v>-4.3680206441036834E-5</v>
       </c>
       <c r="AA20">
-        <v>2.4487621963875753E-4</v>
+        <v>1.6252701259978611E-4</v>
       </c>
       <c r="AB20">
-        <v>-1.2659820024108322E-4</v>
+        <v>5.8449844738702947E-5</v>
       </c>
       <c r="AC20">
-        <v>-5.4468707650396242E-6</v>
+        <v>-8.7928939257170442E-5</v>
       </c>
       <c r="AD20">
-        <v>-5.8350965294998755E-6</v>
+        <v>-1.091055841504554E-4</v>
       </c>
       <c r="AE20">
-        <v>-5.2212172256601989E-6</v>
+        <v>1.0065081723502215E-4</v>
       </c>
       <c r="AF20">
-        <v>1.2764413865558972E-5</v>
+        <v>1.878946900336399E-5</v>
       </c>
       <c r="AG20">
-        <v>-9.1499111443144195E-6</v>
+        <v>8.1544827374738227E-4</v>
       </c>
       <c r="AH20">
-        <v>6.3212390940104108E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>-2.9557417715979622E-4</v>
+      </c>
+      <c r="AI20">
+        <v>-8.5468179151101283E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>-9.8377528839403205E-2</v>
+        <v>0.1205834748212283</v>
       </c>
       <c r="C21">
-        <v>-2.9712171331673928E-5</v>
+        <v>1.9425490343522579E-5</v>
       </c>
       <c r="D21">
-        <v>-4.9561718109756591E-5</v>
+        <v>1.9751837622613978E-5</v>
       </c>
       <c r="E21">
-        <v>5.6980716145852251E-7</v>
+        <v>-1.761401030226397E-7</v>
       </c>
       <c r="F21">
-        <v>3.2862151719950905E-4</v>
+        <v>6.9706558135713536E-5</v>
       </c>
       <c r="G21">
-        <v>1.3012391528802338E-4</v>
+        <v>2.1074563161249562E-5</v>
       </c>
       <c r="H21">
-        <v>1.3121074893238723E-4</v>
+        <v>6.3704198917015928E-5</v>
       </c>
       <c r="I21">
-        <v>2.0336846454068147E-4</v>
+        <v>1.614831541827316E-4</v>
       </c>
       <c r="J21">
-        <v>6.7841513863903594E-5</v>
+        <v>1.7383106161056013E-5</v>
       </c>
       <c r="K21">
-        <v>3.4806744397739584E-4</v>
+        <v>5.7549884443015517E-5</v>
       </c>
       <c r="L21">
-        <v>-4.211674240890825E-6</v>
+        <v>7.8096126754415279E-5</v>
       </c>
       <c r="M21">
-        <v>1.8696101632759083E-3</v>
+        <v>5.0168858656815789E-4</v>
       </c>
       <c r="N21">
-        <v>1.541654161412543E-3</v>
+        <v>5.876728893344595E-5</v>
       </c>
       <c r="O21">
-        <v>-6.14372839349849E-5</v>
+        <v>-2.830027116443921E-4</v>
       </c>
       <c r="P21">
-        <v>6.7562803972054148E-6</v>
+        <v>-7.6438805474986666E-5</v>
       </c>
       <c r="Q21">
-        <v>-4.9331348625071417E-4</v>
+        <v>1.406597734357626E-4</v>
       </c>
       <c r="R21">
-        <v>-4.7034127749101751E-4</v>
+        <v>-9.0427723659067911E-5</v>
       </c>
       <c r="S21">
-        <v>-5.5319977117014715E-4</v>
+        <v>-2.4067302468433146E-4</v>
       </c>
       <c r="T21">
-        <v>-4.338963168676928E-4</v>
+        <v>-1.120461804928548E-4</v>
       </c>
       <c r="U21">
-        <v>9.2535747018826107E-4</v>
+        <v>-1.1446573944092083E-4</v>
       </c>
       <c r="V21">
-        <v>3.160305068758769E-3</v>
+        <v>1.6480106487601251E-3</v>
       </c>
       <c r="W21">
-        <v>2.7932415053997404E-3</v>
+        <v>1.0202887775112373E-3</v>
       </c>
       <c r="X21">
-        <v>2.7932651468763727E-3</v>
+        <v>1.0237795169709008E-3</v>
       </c>
       <c r="Y21">
-        <v>-2.1214664855644344E-4</v>
+        <v>1.044928469257808E-3</v>
       </c>
       <c r="Z21">
-        <v>-3.0794918316151857E-5</v>
+        <v>-4.3537476979998616E-5</v>
       </c>
       <c r="AA21">
-        <v>1.3114974573238372E-4</v>
+        <v>7.4921596938549125E-5</v>
       </c>
       <c r="AB21">
-        <v>-4.2981711810065857E-4</v>
+        <v>-2.5310321532276994E-4</v>
       </c>
       <c r="AC21">
-        <v>-5.3323620495672697E-5</v>
+        <v>-2.182420867960467E-4</v>
       </c>
       <c r="AD21">
-        <v>1.3630526908074724E-5</v>
+        <v>-4.703608763296229E-5</v>
       </c>
       <c r="AE21">
-        <v>-1.0575874296102597E-5</v>
+        <v>3.0517426843605254E-5</v>
       </c>
       <c r="AF21">
-        <v>2.0402809333457551E-5</v>
+        <v>-2.510252179523074E-6</v>
       </c>
       <c r="AG21">
-        <v>-1.4242261530411919E-4</v>
+        <v>-3.0434473930856859E-4</v>
       </c>
       <c r="AH21">
-        <v>-1.1217706435791815E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>1.9414487051385159E-6</v>
+      </c>
+      <c r="AI21">
+        <v>-1.2639579208041389E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>-1.9243110858212269E-2</v>
+        <v>-4.0756496550335551E-2</v>
       </c>
       <c r="C22">
-        <v>-8.4957249410364032E-5</v>
+        <v>8.5813084666958733E-5</v>
       </c>
       <c r="D22">
-        <v>-5.0766914968093229E-5</v>
+        <v>-2.8904253519728627E-5</v>
       </c>
       <c r="E22">
-        <v>6.0629272609094815E-7</v>
+        <v>2.9374673972222272E-7</v>
       </c>
       <c r="F22">
-        <v>6.8712450285249587E-4</v>
+        <v>9.0411189599724903E-5</v>
       </c>
       <c r="G22">
-        <v>4.2037527942687331E-4</v>
+        <v>2.4558685069701956E-4</v>
       </c>
       <c r="H22">
-        <v>2.6457292027339858E-4</v>
+        <v>6.7547684784843246E-5</v>
       </c>
       <c r="I22">
-        <v>5.1873047463617283E-4</v>
+        <v>5.1026576590597773E-5</v>
       </c>
       <c r="J22">
-        <v>8.3578715825229977E-4</v>
+        <v>-1.5127125632723539E-4</v>
       </c>
       <c r="K22">
-        <v>5.7312562913760157E-4</v>
+        <v>3.3514555559514933E-4</v>
       </c>
       <c r="L22">
-        <v>4.2094178036386482E-4</v>
+        <v>2.7000144375598592E-4</v>
       </c>
       <c r="M22">
-        <v>2.5174520835776534E-3</v>
+        <v>2.0222132028897373E-3</v>
       </c>
       <c r="N22">
-        <v>2.1700962330402571E-3</v>
+        <v>1.9142766797069423E-3</v>
       </c>
       <c r="O22">
-        <v>1.2380666800409468E-4</v>
+        <v>3.2478638256148485E-4</v>
       </c>
       <c r="P22">
-        <v>2.8653250369600958E-5</v>
+        <v>-7.9515155160856548E-5</v>
       </c>
       <c r="Q22">
-        <v>-5.4650179889855822E-4</v>
+        <v>1.4837995345113415E-4</v>
       </c>
       <c r="R22">
-        <v>-5.2012842308814906E-4</v>
+        <v>9.0440026809771859E-5</v>
       </c>
       <c r="S22">
-        <v>-6.6644001859648321E-4</v>
+        <v>-7.29068319772915E-6</v>
       </c>
       <c r="T22">
-        <v>-5.0356233093426051E-4</v>
+        <v>1.290856868992594E-4</v>
       </c>
       <c r="U22">
-        <v>9.4245089927214205E-4</v>
+        <v>1.110162832364133E-4</v>
       </c>
       <c r="V22">
-        <v>2.7932415053997404E-3</v>
+        <v>1.0202887775112373E-3</v>
       </c>
       <c r="W22">
-        <v>4.1554193001790843E-3</v>
+        <v>3.6909996833885458E-3</v>
       </c>
       <c r="X22">
-        <v>3.5130038590058146E-3</v>
+        <v>3.1018109242410834E-3</v>
       </c>
       <c r="Y22">
-        <v>-1.8574403013974021E-4</v>
+        <v>3.0521835615118799E-3</v>
       </c>
       <c r="Z22">
-        <v>6.6872541897801852E-6</v>
+        <v>-2.4211251387893686E-4</v>
       </c>
       <c r="AA22">
-        <v>5.1881100121500107E-5</v>
+        <v>9.6869014206422196E-6</v>
       </c>
       <c r="AB22">
-        <v>-3.9674585211979746E-4</v>
+        <v>-2.797980567982312E-4</v>
       </c>
       <c r="AC22">
-        <v>-2.1431446495908882E-5</v>
+        <v>-4.0033262607921342E-4</v>
       </c>
       <c r="AD22">
-        <v>-1.2270941320065938E-5</v>
+        <v>-2.1142302343477427E-4</v>
       </c>
       <c r="AE22">
-        <v>-1.2423545006266746E-5</v>
+        <v>-2.1300930508672531E-5</v>
       </c>
       <c r="AF22">
-        <v>-8.9967331606119992E-5</v>
+        <v>-1.0969819930104656E-5</v>
       </c>
       <c r="AG22">
-        <v>-1.2763201831042384E-4</v>
+        <v>1.7003452339226649E-5</v>
       </c>
       <c r="AH22">
-        <v>-2.0625840458178479E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>-9.6010163130782534E-5</v>
+      </c>
+      <c r="AI22">
+        <v>-2.3063401908713496E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" t="s">
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>4.8488031226589873E-2</v>
+        <v>5.510310634025329E-2</v>
       </c>
       <c r="C23">
-        <v>-1.5476217504915585E-4</v>
+        <v>-9.5717077923459059E-6</v>
       </c>
       <c r="D23">
-        <v>-7.136361505733727E-5</v>
+        <v>-1.4746219871119735E-5</v>
       </c>
       <c r="E23">
-        <v>7.5200797390137919E-7</v>
+        <v>1.9038412980075187E-7</v>
       </c>
       <c r="F23">
-        <v>1.3565621048060757E-3</v>
+        <v>1.4358080305102033E-4</v>
       </c>
       <c r="G23">
-        <v>1.3341976960721531E-3</v>
+        <v>5.836356999005674E-4</v>
       </c>
       <c r="H23">
-        <v>1.4777634115564486E-3</v>
+        <v>8.0538657238699574E-5</v>
       </c>
       <c r="I23">
-        <v>1.2265270614299139E-3</v>
+        <v>5.7013382160985091E-4</v>
       </c>
       <c r="J23">
-        <v>1.7031491179690661E-3</v>
+        <v>7.7238395248175077E-4</v>
       </c>
       <c r="K23">
-        <v>1.4232334855310081E-3</v>
+        <v>5.4880521816930128E-4</v>
       </c>
       <c r="L23">
-        <v>1.4480555041789492E-3</v>
+        <v>8.3381817199853451E-4</v>
       </c>
       <c r="M23">
-        <v>2.3396599916427566E-3</v>
+        <v>3.0236058310321272E-3</v>
       </c>
       <c r="N23">
-        <v>2.141560202326925E-3</v>
+        <v>2.6582327290862835E-3</v>
       </c>
       <c r="O23">
-        <v>4.2823394367594303E-4</v>
+        <v>2.4458338733387655E-4</v>
       </c>
       <c r="P23">
-        <v>3.2774816690868055E-4</v>
+        <v>1.4868951782996543E-4</v>
       </c>
       <c r="Q23">
-        <v>-5.7953151498202609E-4</v>
+        <v>1.7785419268018596E-4</v>
       </c>
       <c r="R23">
-        <v>-5.6388967105471151E-4</v>
+        <v>9.3871743006484283E-5</v>
       </c>
       <c r="S23">
-        <v>-7.7793060273241826E-4</v>
+        <v>-5.6079343857187844E-7</v>
       </c>
       <c r="T23">
-        <v>-5.3933807825628545E-4</v>
+        <v>9.4746285503453633E-5</v>
       </c>
       <c r="U23">
-        <v>9.4678609715442483E-4</v>
+        <v>7.2604863845638994E-5</v>
       </c>
       <c r="V23">
-        <v>2.7932651468763727E-3</v>
+        <v>1.0237795169709008E-3</v>
       </c>
       <c r="W23">
-        <v>3.5130038590058146E-3</v>
+        <v>3.1018109242410834E-3</v>
       </c>
       <c r="X23">
-        <v>5.701047532027461E-3</v>
+        <v>4.6214212066241853E-3</v>
       </c>
       <c r="Y23">
-        <v>-2.265465780921488E-4</v>
+        <v>3.8269830953325768E-3</v>
       </c>
       <c r="Z23">
-        <v>2.5262526665338094E-4</v>
+        <v>-2.067722785244135E-4</v>
       </c>
       <c r="AA23">
-        <v>5.4120817164916087E-4</v>
+        <v>7.7692716934878842E-5</v>
       </c>
       <c r="AB23">
-        <v>-4.3569775697482188E-4</v>
+        <v>-4.6789774722273063E-4</v>
       </c>
       <c r="AC23">
-        <v>5.9547043742206273E-5</v>
+        <v>-3.7899440289512211E-4</v>
       </c>
       <c r="AD23">
-        <v>8.8220800990993008E-5</v>
+        <v>-1.9519531690427168E-4</v>
       </c>
       <c r="AE23">
-        <v>-3.9354444536184897E-8</v>
+        <v>-8.3654210459185949E-5</v>
       </c>
       <c r="AF23">
-        <v>4.3990746848872504E-4</v>
+        <v>-2.0439769367507852E-5</v>
       </c>
       <c r="AG23">
-        <v>-2.2465995396766386E-4</v>
+        <v>-4.137429209814308E-4</v>
       </c>
       <c r="AH23">
-        <v>-2.9565347137606047E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>-2.4966154561283874E-5</v>
+      </c>
+      <c r="AI23">
+        <v>-3.6031634998935939E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>8.877984653956502E-3</v>
+        <v>0.10280679680573514</v>
       </c>
       <c r="C24">
-        <v>2.6511522312251431E-5</v>
+        <v>-5.1490530926505081E-5</v>
       </c>
       <c r="D24">
-        <v>3.9666005219691157E-6</v>
+        <v>-3.334311200503667E-5</v>
       </c>
       <c r="E24">
-        <v>-3.7805417598294619E-8</v>
+        <v>3.3691857230022928E-7</v>
       </c>
       <c r="F24">
-        <v>-2.7341775824591574E-4</v>
+        <v>6.9832211350723261E-4</v>
       </c>
       <c r="G24">
-        <v>-5.5575901472925017E-5</v>
+        <v>1.4808570481202338E-3</v>
       </c>
       <c r="H24">
-        <v>-5.8428580098840048E-5</v>
+        <v>1.2406439888905277E-3</v>
       </c>
       <c r="I24">
-        <v>-2.3020203469053497E-4</v>
+        <v>1.2816677600039558E-3</v>
       </c>
       <c r="J24">
-        <v>-9.2647623142644401E-5</v>
+        <v>1.7848622337234277E-3</v>
       </c>
       <c r="K24">
-        <v>-8.9997363013553082E-5</v>
+        <v>1.3740685193620039E-3</v>
       </c>
       <c r="L24">
-        <v>-2.8429475036075507E-4</v>
+        <v>1.9770426864075402E-3</v>
       </c>
       <c r="M24">
-        <v>-1.2962940685564008E-4</v>
+        <v>2.7733159243299192E-3</v>
       </c>
       <c r="N24">
-        <v>-1.0574301288292374E-4</v>
+        <v>2.591507318392066E-3</v>
       </c>
       <c r="O24">
-        <v>1.6186708533937397E-5</v>
+        <v>2.8025822215264028E-4</v>
       </c>
       <c r="P24">
-        <v>2.8293951280300593E-5</v>
+        <v>1.9579031755848726E-4</v>
       </c>
       <c r="Q24">
-        <v>1.1475987217563063E-5</v>
+        <v>2.7754921601432945E-4</v>
       </c>
       <c r="R24">
-        <v>1.9509319417948897E-5</v>
+        <v>1.1091060839970874E-4</v>
       </c>
       <c r="S24">
-        <v>4.0709950240078944E-5</v>
+        <v>1.6110739907131827E-6</v>
       </c>
       <c r="T24">
-        <v>1.6034854631452524E-5</v>
+        <v>5.9141016341421673E-6</v>
       </c>
       <c r="U24">
-        <v>-4.4556849064299891E-5</v>
+        <v>4.4867180215855083E-4</v>
       </c>
       <c r="V24">
-        <v>-2.1214664855644344E-4</v>
+        <v>1.044928469257808E-3</v>
       </c>
       <c r="W24">
-        <v>-1.8574403013974021E-4</v>
+        <v>3.0521835615118799E-3</v>
       </c>
       <c r="X24">
-        <v>-2.265465780921488E-4</v>
+        <v>3.8269830953325768E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1057248731992913E-4</v>
+        <v>6.0181192451176143E-3</v>
       </c>
       <c r="Z24">
-        <v>1.7428970122933345E-6</v>
+        <v>-2.5201341356750331E-4</v>
       </c>
       <c r="AA24">
-        <v>-1.1693964669731111E-5</v>
+        <v>2.8632462633274139E-4</v>
       </c>
       <c r="AB24">
-        <v>1.5232115641853704E-5</v>
+        <v>6.3240482893178133E-5</v>
       </c>
       <c r="AC24">
-        <v>2.4136406310454088E-6</v>
+        <v>-3.8905432215107427E-4</v>
       </c>
       <c r="AD24">
-        <v>3.5191474605879625E-6</v>
+        <v>-8.2791533171887053E-5</v>
       </c>
       <c r="AE24">
-        <v>5.9812574742076344E-6</v>
+        <v>-3.4108922658314476E-6</v>
       </c>
       <c r="AF24">
-        <v>-4.1457745884200534E-5</v>
+        <v>-5.2958136939784575E-6</v>
       </c>
       <c r="AG24">
-        <v>1.8906095439216122E-6</v>
+        <v>2.7013920656180843E-5</v>
       </c>
       <c r="AH24">
-        <v>-4.7664044471839131E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>-3.8444874653800233E-5</v>
+      </c>
+      <c r="AI24">
+        <v>-4.4680593374207571E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>4.4509461335975011</v>
+        <v>4.9394647568021071E-4</v>
       </c>
       <c r="C25">
-        <v>-1.2069559280475999E-5</v>
+        <v>1.7043880377796739E-5</v>
       </c>
       <c r="D25">
-        <v>-8.4805149779909557E-6</v>
+        <v>2.4380910270669666E-6</v>
       </c>
       <c r="E25">
-        <v>3.434099864752365E-8</v>
+        <v>-1.8855388583301745E-8</v>
       </c>
       <c r="F25">
-        <v>-8.7362548031536338E-5</v>
+        <v>-1.1809867867808874E-4</v>
       </c>
       <c r="G25">
-        <v>-2.4866634709257173E-5</v>
+        <v>-5.3621536081370708E-5</v>
       </c>
       <c r="H25">
-        <v>1.1401714338655342E-4</v>
+        <v>-7.6257997809397375E-5</v>
       </c>
       <c r="I25">
-        <v>3.0985723909006223E-4</v>
+        <v>-1.8331739696391623E-4</v>
       </c>
       <c r="J25">
-        <v>-1.616329051984508E-5</v>
+        <v>-9.3727905244657005E-5</v>
       </c>
       <c r="K25">
-        <v>-7.982371145894533E-5</v>
+        <v>-8.8301389782695914E-5</v>
       </c>
       <c r="L25">
-        <v>-3.8474960167706124E-5</v>
+        <v>-2.9959734920110214E-4</v>
       </c>
       <c r="M25">
-        <v>-9.7940570574211224E-5</v>
+        <v>-2.2006258845881193E-4</v>
       </c>
       <c r="N25">
-        <v>-7.2730321637796654E-6</v>
+        <v>-1.3326417041872827E-4</v>
       </c>
       <c r="O25">
-        <v>-4.4875420700437892E-5</v>
+        <v>9.9586370740198407E-5</v>
       </c>
       <c r="P25">
-        <v>-6.5626438313983455E-5</v>
+        <v>3.2771132055161784E-5</v>
       </c>
       <c r="Q25">
-        <v>1.2244676956675452E-4</v>
+        <v>3.0771138346440715E-5</v>
       </c>
       <c r="R25">
-        <v>1.4764397870405534E-4</v>
+        <v>-4.706742944154339E-5</v>
       </c>
       <c r="S25">
-        <v>7.6762700064143775E-5</v>
+        <v>-3.4565882891118252E-5</v>
       </c>
       <c r="T25">
-        <v>9.7423462135635443E-5</v>
+        <v>-1.415044953726423E-5</v>
       </c>
       <c r="U25">
-        <v>-3.0011077526299983E-5</v>
+        <v>-4.3680206441036834E-5</v>
       </c>
       <c r="V25">
-        <v>-3.0794918316151857E-5</v>
+        <v>-4.3537476979998616E-5</v>
       </c>
       <c r="W25">
-        <v>6.6872541897801852E-6</v>
+        <v>-2.4211251387893686E-4</v>
       </c>
       <c r="X25">
-        <v>2.5262526665338094E-4</v>
+        <v>-2.067722785244135E-4</v>
       </c>
       <c r="Y25">
-        <v>1.7428970122933345E-6</v>
+        <v>-2.5201341356750331E-4</v>
       </c>
       <c r="Z25">
-        <v>8.712767748027192E-4</v>
+        <v>1.3109594446500796E-4</v>
       </c>
       <c r="AA25">
-        <v>7.7676911838639798E-5</v>
+        <v>-1.1473670897181444E-5</v>
       </c>
       <c r="AB25">
-        <v>1.5650323035368678E-5</v>
+        <v>-7.344504960223642E-6</v>
       </c>
       <c r="AC25">
-        <v>3.9260822171651005E-5</v>
+        <v>2.9167467439685284E-5</v>
       </c>
       <c r="AD25">
-        <v>1.0213154249214061E-5</v>
+        <v>8.3251017500502569E-6</v>
       </c>
       <c r="AE25">
-        <v>-6.5685191770114039E-6</v>
+        <v>1.0900795457295389E-5</v>
       </c>
       <c r="AF25">
-        <v>7.3946052331614709E-6</v>
+        <v>8.1948204305922917E-6</v>
       </c>
       <c r="AG25">
-        <v>-5.367889769297922E-5</v>
+        <v>-7.878238979716642E-5</v>
       </c>
       <c r="AH25">
-        <v>-6.6480779615363098E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>-3.643446001217829E-6</v>
+      </c>
+      <c r="AI25">
+        <v>1.1928478629545501E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>-2.790127537604175E-3</v>
+        <v>4.5183987236620196</v>
       </c>
       <c r="C26">
-        <v>4.7501700915506521E-5</v>
+        <v>1.2655537415415209E-6</v>
       </c>
       <c r="D26">
-        <v>-4.2955015750621711E-5</v>
+        <v>-2.3135685107409824E-6</v>
       </c>
       <c r="E26">
-        <v>4.4181268730087427E-7</v>
+        <v>-1.577508248251216E-8</v>
       </c>
       <c r="F26">
-        <v>2.1509832525740233E-4</v>
+        <v>-3.2910284523235661E-4</v>
       </c>
       <c r="G26">
-        <v>-9.1364085311034524E-6</v>
+        <v>-1.4017992309831357E-4</v>
       </c>
       <c r="H26">
-        <v>6.036192079653651E-4</v>
+        <v>5.4140611069456422E-5</v>
       </c>
       <c r="I26">
-        <v>5.6213812529193243E-4</v>
+        <v>2.9842096755970313E-4</v>
       </c>
       <c r="J26">
-        <v>2.4369187071713238E-4</v>
+        <v>-3.2864155674861581E-5</v>
       </c>
       <c r="K26">
-        <v>1.2036641666601355E-4</v>
+        <v>-1.8935942338966431E-4</v>
       </c>
       <c r="L26">
-        <v>3.3250309137248862E-5</v>
+        <v>-9.3359109020845681E-5</v>
       </c>
       <c r="M26">
-        <v>-3.0322306064393609E-6</v>
+        <v>3.2586273834562802E-5</v>
       </c>
       <c r="N26">
-        <v>2.1763675406856367E-5</v>
+        <v>2.8569475604282022E-5</v>
       </c>
       <c r="O26">
-        <v>3.66675756150042E-4</v>
+        <v>-2.5446021819621617E-4</v>
       </c>
       <c r="P26">
-        <v>3.8600949879069352E-5</v>
+        <v>-1.5133954198028499E-4</v>
       </c>
       <c r="Q26">
-        <v>-1.1497199099601446E-3</v>
+        <v>-1.5626837671342436E-4</v>
       </c>
       <c r="R26">
-        <v>-1.1676023427347397E-3</v>
+        <v>7.6719584510547109E-5</v>
       </c>
       <c r="S26">
-        <v>-1.083824157961117E-3</v>
+        <v>7.06083323108789E-5</v>
       </c>
       <c r="T26">
-        <v>-1.2892196516035776E-3</v>
+        <v>1.874010255916163E-5</v>
       </c>
       <c r="U26">
-        <v>2.4487621963875753E-4</v>
+        <v>1.6252701259978611E-4</v>
       </c>
       <c r="V26">
-        <v>1.3114974573238372E-4</v>
+        <v>7.4921596938549125E-5</v>
       </c>
       <c r="W26">
-        <v>5.1881100121500107E-5</v>
+        <v>9.6869014206422196E-6</v>
       </c>
       <c r="X26">
-        <v>5.4120817164916087E-4</v>
+        <v>7.7692716934878842E-5</v>
       </c>
       <c r="Y26">
-        <v>-1.1693964669731111E-5</v>
+        <v>2.8632462633274139E-4</v>
       </c>
       <c r="Z26">
-        <v>7.7676911838639798E-5</v>
+        <v>-1.1473670897181444E-5</v>
       </c>
       <c r="AA26">
-        <v>2.0773378031042201E-3</v>
+        <v>9.9144247678501374E-4</v>
       </c>
       <c r="AB26">
-        <v>7.3098397199302344E-4</v>
+        <v>9.2324923839546508E-5</v>
       </c>
       <c r="AC26">
-        <v>7.7200232736631801E-4</v>
+        <v>-1.517974319102959E-5</v>
       </c>
       <c r="AD26">
-        <v>7.402043669739051E-4</v>
+        <v>3.5642171720563755E-5</v>
       </c>
       <c r="AE26">
-        <v>-7.4066987966828009E-6</v>
+        <v>1.5069722222695244E-5</v>
       </c>
       <c r="AF26">
-        <v>7.0256071048849125E-4</v>
+        <v>-1.4146541186949306E-5</v>
       </c>
       <c r="AG26">
-        <v>-2.0113831449243184E-5</v>
+        <v>-4.3410768808381127E-6</v>
       </c>
       <c r="AH26">
-        <v>6.9934047007049957E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>-8.3823401668065738E-5</v>
+      </c>
+      <c r="AI26">
+        <v>-1.5269908431510834E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>-0.12453129033326205</v>
+        <v>-2.9719838015395305E-2</v>
       </c>
       <c r="C27">
-        <v>8.3910774580279665E-5</v>
+        <v>1.3356223390172865E-4</v>
       </c>
       <c r="D27">
-        <v>1.5610848073999476E-6</v>
+        <v>-1.624120138801413E-5</v>
       </c>
       <c r="E27">
-        <v>-7.9664664221620233E-8</v>
+        <v>2.1722774254655125E-7</v>
       </c>
       <c r="F27">
-        <v>-2.1129850779340103E-4</v>
+        <v>1.324009512291913E-4</v>
       </c>
       <c r="G27">
-        <v>2.1040952072367289E-4</v>
+        <v>3.8504958845782906E-5</v>
       </c>
       <c r="H27">
-        <v>-3.4962142455333481E-5</v>
+        <v>8.313003445649704E-4</v>
       </c>
       <c r="I27">
-        <v>1.1737885784841688E-4</v>
+        <v>8.007981067031573E-4</v>
       </c>
       <c r="J27">
-        <v>-1.017008006614869E-4</v>
+        <v>3.2457542267697558E-4</v>
       </c>
       <c r="K27">
-        <v>5.2793807531282058E-5</v>
+        <v>2.9090483733027177E-4</v>
       </c>
       <c r="L27">
-        <v>-7.9315402952171354E-5</v>
+        <v>2.3328268872757065E-4</v>
       </c>
       <c r="M27">
-        <v>-5.9694864727807481E-5</v>
+        <v>7.4833452486069724E-5</v>
       </c>
       <c r="N27">
-        <v>-1.1260441339901758E-4</v>
+        <v>-5.2887370634620377E-5</v>
       </c>
       <c r="O27">
-        <v>5.9765173137033174E-5</v>
+        <v>-4.6734704395442166E-4</v>
       </c>
       <c r="P27">
-        <v>-1.1867530146991289E-4</v>
+        <v>-9.5606798937157892E-5</v>
       </c>
       <c r="Q27">
-        <v>1.0990001009011235E-6</v>
+        <v>-5.1156819443302112E-4</v>
       </c>
       <c r="R27">
-        <v>5.2435536631717777E-5</v>
+        <v>-2.1215051267309878E-4</v>
       </c>
       <c r="S27">
-        <v>1.1296879594876194E-4</v>
+        <v>-2.6508417137219905E-5</v>
       </c>
       <c r="T27">
-        <v>-2.9596306427952246E-6</v>
+        <v>-2.0892601191444156E-4</v>
       </c>
       <c r="U27">
-        <v>-1.2659820024108322E-4</v>
+        <v>5.8449844738702947E-5</v>
       </c>
       <c r="V27">
-        <v>-4.2981711810065857E-4</v>
+        <v>-2.5310321532276994E-4</v>
       </c>
       <c r="W27">
-        <v>-3.9674585211979746E-4</v>
+        <v>-2.797980567982312E-4</v>
       </c>
       <c r="X27">
-        <v>-4.3569775697482188E-4</v>
+        <v>-4.6789774722273063E-4</v>
       </c>
       <c r="Y27">
-        <v>1.5232115641853704E-5</v>
+        <v>6.3240482893178133E-5</v>
       </c>
       <c r="Z27">
-        <v>1.5650323035368678E-5</v>
+        <v>-7.344504960223642E-6</v>
       </c>
       <c r="AA27">
-        <v>7.3098397199302344E-4</v>
+        <v>9.2324923839546508E-5</v>
       </c>
       <c r="AB27">
-        <v>2.8432726516345879E-3</v>
+        <v>2.6079186679059856E-3</v>
       </c>
       <c r="AC27">
-        <v>7.4702780884820352E-4</v>
+        <v>7.8093067278797105E-4</v>
       </c>
       <c r="AD27">
-        <v>7.6065382019292554E-4</v>
+        <v>8.1781861922218676E-4</v>
       </c>
       <c r="AE27">
-        <v>-1.5920457946636243E-5</v>
+        <v>7.5726586087959962E-4</v>
       </c>
       <c r="AF27">
-        <v>2.4562186462176428E-4</v>
+        <v>-1.6537558506664969E-5</v>
       </c>
       <c r="AG27">
-        <v>1.6201552979240905E-5</v>
+        <v>1.4040279257729056E-3</v>
       </c>
       <c r="AH27">
-        <v>-2.2719902394448743E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>-3.9542928370614374E-5</v>
+      </c>
+      <c r="AI27">
+        <v>-3.641020609104575E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>-8.0598907076456061E-2</v>
+        <v>-0.1207606509205465</v>
       </c>
       <c r="C28">
-        <v>1.8009551367501525E-5</v>
+        <v>3.6018549702649739E-5</v>
       </c>
       <c r="D28">
-        <v>-2.8185263448823102E-6</v>
+        <v>9.9722643640448886E-7</v>
       </c>
       <c r="E28">
-        <v>1.5047531261485645E-8</v>
+        <v>-5.2305234655144031E-8</v>
       </c>
       <c r="F28">
-        <v>-1.3315734848893396E-4</v>
+        <v>-1.3050618218950379E-4</v>
       </c>
       <c r="G28">
-        <v>3.0960191180304513E-5</v>
+        <v>1.9367917905725143E-4</v>
       </c>
       <c r="H28">
-        <v>7.9684367794550029E-5</v>
+        <v>1.2474809821146592E-4</v>
       </c>
       <c r="I28">
-        <v>1.6086377104473633E-5</v>
+        <v>3.8953113062006797E-5</v>
       </c>
       <c r="J28">
-        <v>3.0220363810946394E-5</v>
+        <v>-1.4329153982553435E-4</v>
       </c>
       <c r="K28">
-        <v>6.7949038305454873E-5</v>
+        <v>9.6569270227219416E-5</v>
       </c>
       <c r="L28">
-        <v>-1.5006252547987328E-4</v>
+        <v>9.996348617431804E-5</v>
       </c>
       <c r="M28">
-        <v>-5.9262732974822794E-5</v>
+        <v>-3.8415162587905009E-4</v>
       </c>
       <c r="N28">
-        <v>-5.1065311286065216E-5</v>
+        <v>-1.8193685850591322E-4</v>
       </c>
       <c r="O28">
-        <v>1.0505500079459882E-4</v>
+        <v>1.0045878634789454E-3</v>
       </c>
       <c r="P28">
-        <v>-1.813907855332389E-5</v>
+        <v>4.4696501391709286E-5</v>
       </c>
       <c r="Q28">
-        <v>-6.1681125117520573E-5</v>
+        <v>-3.1283870040078616E-6</v>
       </c>
       <c r="R28">
-        <v>-1.105565544933804E-4</v>
+        <v>-1.8808264159679306E-5</v>
       </c>
       <c r="S28">
-        <v>-8.9586255037903129E-5</v>
+        <v>-9.3521426413956717E-5</v>
       </c>
       <c r="T28">
-        <v>-8.3393038772289706E-5</v>
+        <v>1.3071063921402809E-5</v>
       </c>
       <c r="U28">
-        <v>-5.4468707650396242E-6</v>
+        <v>-8.7928939257170442E-5</v>
       </c>
       <c r="V28">
-        <v>-5.3323620495672697E-5</v>
+        <v>-2.182420867960467E-4</v>
       </c>
       <c r="W28">
-        <v>-2.1431446495908882E-5</v>
+        <v>-4.0033262607921342E-4</v>
       </c>
       <c r="X28">
-        <v>5.9547043742206273E-5</v>
+        <v>-3.7899440289512211E-4</v>
       </c>
       <c r="Y28">
-        <v>2.4136406310454088E-6</v>
+        <v>-3.8905432215107427E-4</v>
       </c>
       <c r="Z28">
-        <v>3.9260822171651005E-5</v>
+        <v>2.9167467439685284E-5</v>
       </c>
       <c r="AA28">
-        <v>7.7200232736631801E-4</v>
+        <v>-1.517974319102959E-5</v>
       </c>
       <c r="AB28">
-        <v>7.4702780884820352E-4</v>
+        <v>7.8093067278797105E-4</v>
       </c>
       <c r="AC28">
-        <v>1.5297559779270458E-3</v>
+        <v>3.0011128894324697E-3</v>
       </c>
       <c r="AD28">
-        <v>7.514787674075844E-4</v>
+        <v>7.7609571084421734E-4</v>
       </c>
       <c r="AE28">
-        <v>-3.7075800009625718E-6</v>
+        <v>7.8713993171308089E-4</v>
       </c>
       <c r="AF28">
-        <v>-3.3355202561617973E-5</v>
+        <v>-1.3132983855679586E-5</v>
       </c>
       <c r="AG28">
-        <v>5.3168664861969858E-5</v>
+        <v>2.8006921631922813E-5</v>
       </c>
       <c r="AH28">
-        <v>-6.0211018127354641E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>-2.8994776501056068E-5</v>
+      </c>
+      <c r="AI28">
+        <v>-2.315135107170789E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>4.2788520878852724E-4</v>
+        <v>-9.6892115056395819E-2</v>
       </c>
       <c r="C29">
-        <v>1.9915528541144324E-5</v>
+        <v>8.4478008515147991E-5</v>
       </c>
       <c r="D29">
-        <v>7.290683188268456E-7</v>
+        <v>1.7766853539537218E-6</v>
       </c>
       <c r="E29">
-        <v>-3.5463703309783521E-8</v>
+        <v>-1.7726683394529271E-8</v>
       </c>
       <c r="F29">
-        <v>-2.7269994780344689E-4</v>
+        <v>-2.0840439676645238E-4</v>
       </c>
       <c r="G29">
-        <v>-5.0999991671652487E-5</v>
+        <v>-5.157229170116767E-6</v>
       </c>
       <c r="H29">
-        <v>-1.8217413672311819E-4</v>
+        <v>7.8688988978744021E-5</v>
       </c>
       <c r="I29">
-        <v>-6.9366518939538869E-5</v>
+        <v>-5.3559941448758598E-5</v>
       </c>
       <c r="J29">
-        <v>-6.788549859791616E-5</v>
+        <v>-5.533329262149284E-5</v>
       </c>
       <c r="K29">
-        <v>-6.1226404055630805E-5</v>
+        <v>1.0418293855289455E-4</v>
       </c>
       <c r="L29">
-        <v>-2.7353305310862087E-4</v>
+        <v>6.3570387819939468E-5</v>
       </c>
       <c r="M29">
-        <v>-2.9756372758036817E-5</v>
+        <v>-2.7466781197101146E-6</v>
       </c>
       <c r="N29">
-        <v>4.6424231361135099E-5</v>
+        <v>-1.6519126492804285E-4</v>
       </c>
       <c r="O29">
-        <v>7.0833031139753934E-5</v>
+        <v>-1.5049816258301391E-4</v>
       </c>
       <c r="P29">
-        <v>5.0457305931109013E-5</v>
+        <v>4.2202548481914394E-5</v>
       </c>
       <c r="Q29">
-        <v>4.4499328697998868E-5</v>
+        <v>-1.0253632380451705E-4</v>
       </c>
       <c r="R29">
-        <v>7.3790774712042357E-5</v>
+        <v>4.324738019545902E-6</v>
       </c>
       <c r="S29">
-        <v>1.6664264926335407E-4</v>
+        <v>-8.9532176432434427E-5</v>
       </c>
       <c r="T29">
-        <v>1.8797936878927864E-4</v>
+        <v>-3.6489378424410456E-5</v>
       </c>
       <c r="U29">
-        <v>-5.8350965294998755E-6</v>
+        <v>-1.091055841504554E-4</v>
       </c>
       <c r="V29">
-        <v>1.3630526908074724E-5</v>
+        <v>-4.703608763296229E-5</v>
       </c>
       <c r="W29">
-        <v>-1.2270941320065938E-5</v>
+        <v>-2.1142302343477427E-4</v>
       </c>
       <c r="X29">
-        <v>8.8220800990993008E-5</v>
+        <v>-1.9519531690427168E-4</v>
       </c>
       <c r="Y29">
-        <v>3.5191474605879625E-6</v>
+        <v>-8.2791533171887053E-5</v>
       </c>
       <c r="Z29">
-        <v>1.0213154249214061E-5</v>
+        <v>8.3251017500502569E-6</v>
       </c>
       <c r="AA29">
-        <v>7.402043669739051E-4</v>
+        <v>3.5642171720563755E-5</v>
       </c>
       <c r="AB29">
-        <v>7.6065382019292554E-4</v>
+        <v>8.1781861922218676E-4</v>
       </c>
       <c r="AC29">
-        <v>7.514787674075844E-4</v>
+        <v>7.7609571084421734E-4</v>
       </c>
       <c r="AD29">
-        <v>1.2747467782695883E-3</v>
+        <v>1.7041989574858188E-3</v>
       </c>
       <c r="AE29">
-        <v>-2.7257706513650684E-6</v>
+        <v>7.8038148153157234E-4</v>
       </c>
       <c r="AF29">
-        <v>7.9126452300151218E-5</v>
+        <v>-1.3135980067911757E-5</v>
       </c>
       <c r="AG29">
-        <v>4.2550884130963351E-6</v>
+        <v>-9.5617466619221658E-5</v>
       </c>
       <c r="AH29">
-        <v>-8.1222555267539045E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>1.6787332760798308E-4</v>
+      </c>
+      <c r="AI29">
+        <v>-4.9493725504928072E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>-9.7574726045234525E-5</v>
+        <v>-2.1026188054069844E-2</v>
       </c>
       <c r="C30">
-        <v>-4.3639114762767438E-6</v>
+        <v>7.6695965527998262E-5</v>
       </c>
       <c r="D30">
-        <v>5.0933298420089985E-7</v>
+        <v>8.487245207729015E-7</v>
       </c>
       <c r="E30">
-        <v>-6.4098665679715961E-9</v>
+        <v>-3.3882558595311323E-8</v>
       </c>
       <c r="F30">
-        <v>-4.6499970246092104E-6</v>
+        <v>-3.0774076146367893E-4</v>
       </c>
       <c r="G30">
-        <v>-7.7058040333220941E-6</v>
+        <v>-3.1585154077989289E-5</v>
       </c>
       <c r="H30">
-        <v>-1.658937324643437E-5</v>
+        <v>-2.9993085834891637E-4</v>
       </c>
       <c r="I30">
-        <v>2.1387698131283757E-5</v>
+        <v>-1.3394412750209568E-4</v>
       </c>
       <c r="J30">
-        <v>-5.4066293318216362E-6</v>
+        <v>-1.909090230916104E-4</v>
       </c>
       <c r="K30">
-        <v>-1.952114455349357E-5</v>
+        <v>-2.1851853514240653E-5</v>
       </c>
       <c r="L30">
-        <v>-4.4493520889379775E-5</v>
+        <v>-2.1059699516398417E-4</v>
       </c>
       <c r="M30">
-        <v>2.8625071714839692E-6</v>
+        <v>8.4829266834013893E-5</v>
       </c>
       <c r="N30">
-        <v>-3.6379446713445869E-6</v>
+        <v>-4.9810358773324918E-5</v>
       </c>
       <c r="O30">
-        <v>-2.1323340956918595E-6</v>
+        <v>-2.3249580819562955E-4</v>
       </c>
       <c r="P30">
-        <v>8.0945814137831876E-6</v>
+        <v>9.1416859703396776E-5</v>
       </c>
       <c r="Q30">
-        <v>9.3347912054103275E-6</v>
+        <v>1.0867499151273315E-4</v>
       </c>
       <c r="R30">
-        <v>-4.0618335462888774E-6</v>
+        <v>3.5392185713120205E-5</v>
       </c>
       <c r="S30">
-        <v>-1.0051090735702117E-5</v>
+        <v>3.3010360078103169E-5</v>
       </c>
       <c r="T30">
-        <v>1.678102267530288E-5</v>
+        <v>2.1761130409639427E-4</v>
       </c>
       <c r="U30">
-        <v>-5.2212172256601989E-6</v>
+        <v>1.0065081723502215E-4</v>
       </c>
       <c r="V30">
-        <v>-1.0575874296102597E-5</v>
+        <v>3.0517426843605254E-5</v>
       </c>
       <c r="W30">
-        <v>-1.2423545006266746E-5</v>
+        <v>-2.1300930508672531E-5</v>
       </c>
       <c r="X30">
-        <v>-3.9354444536184897E-8</v>
+        <v>-8.3654210459185949E-5</v>
       </c>
       <c r="Y30">
-        <v>5.9812574742076344E-6</v>
+        <v>-3.4108922658314476E-6</v>
       </c>
       <c r="Z30">
-        <v>-6.5685191770114039E-6</v>
+        <v>1.0900795457295389E-5</v>
       </c>
       <c r="AA30">
-        <v>-7.4066987966828009E-6</v>
+        <v>1.5069722222695244E-5</v>
       </c>
       <c r="AB30">
-        <v>-1.5920457946636243E-5</v>
+        <v>7.5726586087959962E-4</v>
       </c>
       <c r="AC30">
-        <v>-3.7075800009625718E-6</v>
+        <v>7.8713993171308089E-4</v>
       </c>
       <c r="AD30">
-        <v>-2.7257706513650684E-6</v>
+        <v>7.8038148153157234E-4</v>
       </c>
       <c r="AE30">
-        <v>1.6674916810576865E-5</v>
+        <v>1.3925535545286864E-3</v>
       </c>
       <c r="AF30">
-        <v>-4.4783848399644328E-5</v>
+        <v>-9.0915711444416216E-6</v>
       </c>
       <c r="AG30">
-        <v>-6.9419411008520492E-5</v>
+        <v>4.7451106291427486E-5</v>
       </c>
       <c r="AH30">
-        <v>-2.5888202910448617E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
+        <v>-2.1885818613790007E-5</v>
+      </c>
+      <c r="AI30">
+        <v>-7.23857348972636E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>-0.19451042682978964</v>
+        <v>-2.2317035269949981E-4</v>
       </c>
       <c r="C31">
-        <v>1.4864086895563489E-4</v>
+        <v>4.1541907824473162E-6</v>
       </c>
       <c r="D31">
-        <v>-5.096705934593557E-5</v>
+        <v>8.9705994768908749E-7</v>
       </c>
       <c r="E31">
-        <v>5.1247254465238912E-7</v>
+        <v>-8.7979821706091228E-9</v>
       </c>
       <c r="F31">
-        <v>4.2712729934289186E-4</v>
+        <v>-6.5319551372293406E-6</v>
       </c>
       <c r="G31">
-        <v>2.1993066315773198E-4</v>
+        <v>-3.1270047416422043E-6</v>
       </c>
       <c r="H31">
-        <v>1.1490132170891756E-3</v>
+        <v>-1.4384790905600252E-5</v>
       </c>
       <c r="I31">
-        <v>-2.8267489327146993E-4</v>
+        <v>4.1096559598746316E-5</v>
       </c>
       <c r="J31">
-        <v>2.2017282160584784E-4</v>
+        <v>-6.2109427909475077E-7</v>
       </c>
       <c r="K31">
-        <v>4.022724201681923E-4</v>
+        <v>-1.242640000420251E-5</v>
       </c>
       <c r="L31">
-        <v>4.1722934073881637E-4</v>
+        <v>-2.9573377166804376E-5</v>
       </c>
       <c r="M31">
-        <v>-2.3132049983032137E-4</v>
+        <v>-4.9473496396261083E-6</v>
       </c>
       <c r="N31">
-        <v>4.671422731139345E-5</v>
+        <v>-1.3557596760123148E-5</v>
       </c>
       <c r="O31">
-        <v>3.5577788412436686E-4</v>
+        <v>6.2950663784039872E-6</v>
       </c>
       <c r="P31">
-        <v>2.7032358379740825E-4</v>
+        <v>-9.2170658087262832E-6</v>
       </c>
       <c r="Q31">
-        <v>-1.5384831453324052E-3</v>
+        <v>1.4215581820925611E-5</v>
       </c>
       <c r="R31">
-        <v>-1.2840824253920842E-3</v>
+        <v>1.2714178479155433E-5</v>
       </c>
       <c r="S31">
-        <v>-1.2068339613770882E-3</v>
+        <v>-5.4679806765953708E-6</v>
       </c>
       <c r="T31">
-        <v>-1.5282289325095188E-3</v>
+        <v>-1.2262030127587788E-5</v>
       </c>
       <c r="U31">
-        <v>1.2764413865558972E-5</v>
+        <v>1.878946900336399E-5</v>
       </c>
       <c r="V31">
-        <v>2.0402809333457551E-5</v>
+        <v>-2.510252179523074E-6</v>
       </c>
       <c r="W31">
-        <v>-8.9967331606119992E-5</v>
+        <v>-1.0969819930104656E-5</v>
       </c>
       <c r="X31">
-        <v>4.3990746848872504E-4</v>
+        <v>-2.0439769367507852E-5</v>
       </c>
       <c r="Y31">
-        <v>-4.1457745884200534E-5</v>
+        <v>-5.2958136939784575E-6</v>
       </c>
       <c r="Z31">
-        <v>7.3946052331614709E-6</v>
+        <v>8.1948204305922917E-6</v>
       </c>
       <c r="AA31">
-        <v>7.0256071048849125E-4</v>
+        <v>-1.4146541186949306E-5</v>
       </c>
       <c r="AB31">
-        <v>2.4562186462176428E-4</v>
+        <v>-1.6537558506664969E-5</v>
       </c>
       <c r="AC31">
-        <v>-3.3355202561617973E-5</v>
+        <v>-1.3132983855679586E-5</v>
       </c>
       <c r="AD31">
-        <v>7.9126452300151218E-5</v>
+        <v>-1.3135980067911757E-5</v>
       </c>
       <c r="AE31">
-        <v>-4.4783848399644328E-5</v>
+        <v>-9.0915711444416216E-6</v>
       </c>
       <c r="AF31">
-        <v>4.0998639921534094E-3</v>
+        <v>1.859856923766249E-5</v>
       </c>
       <c r="AG31">
-        <v>2.625087362016726E-4</v>
+        <v>-5.2267177061783468E-5</v>
       </c>
       <c r="AH31">
-        <v>1.990578413551854E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>40</v>
+        <v>-7.2129469137212883E-5</v>
+      </c>
+      <c r="AI31">
+        <v>-2.9877450971993826E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>-7.4165558404576393E-2</v>
+        <v>-0.30553314584034941</v>
       </c>
       <c r="C32">
-        <v>-4.1545865855138682E-5</v>
+        <v>2.0710799942020956E-4</v>
       </c>
       <c r="D32">
-        <v>7.9418231192384292E-6</v>
+        <v>-3.9228291597210663E-5</v>
       </c>
       <c r="E32">
-        <v>-7.0270505747328949E-8</v>
+        <v>4.8566585989150069E-7</v>
       </c>
       <c r="F32">
-        <v>2.605175480523118E-4</v>
+        <v>-3.190860430732842E-4</v>
       </c>
       <c r="G32">
-        <v>1.0196512991705626E-4</v>
+        <v>-9.9578717831078772E-5</v>
       </c>
       <c r="H32">
-        <v>3.9567052436399524E-4</v>
+        <v>1.5306419737571133E-3</v>
       </c>
       <c r="I32">
-        <v>-3.8547805056742294E-5</v>
+        <v>-1.7382711948333088E-4</v>
       </c>
       <c r="J32">
-        <v>1.334719851969863E-4</v>
+        <v>1.2727632572262244E-4</v>
       </c>
       <c r="K32">
-        <v>1.0400211839860414E-4</v>
+        <v>3.2090980639919511E-4</v>
       </c>
       <c r="L32">
-        <v>1.4845400895761862E-4</v>
+        <v>4.3169606570728561E-4</v>
       </c>
       <c r="M32">
-        <v>-1.0703417908705551E-4</v>
+        <v>-3.8923973069070195E-4</v>
       </c>
       <c r="N32">
-        <v>-9.3712948740181496E-5</v>
+        <v>3.3733079687679399E-5</v>
       </c>
       <c r="O32">
-        <v>1.4264913544193795E-4</v>
+        <v>-6.6477564774155076E-5</v>
       </c>
       <c r="P32">
-        <v>1.1812324816894436E-4</v>
+        <v>-3.3822251339411672E-4</v>
       </c>
       <c r="Q32">
-        <v>-5.300283946534437E-5</v>
+        <v>-3.3315234725321812E-4</v>
       </c>
       <c r="R32">
-        <v>-7.840537325995954E-5</v>
+        <v>-8.8888418991317844E-5</v>
       </c>
       <c r="S32">
-        <v>1.9397812211810386E-5</v>
+        <v>5.2095509195258273E-4</v>
       </c>
       <c r="T32">
-        <v>-7.4618361677452347E-5</v>
+        <v>2.9097501126850063E-4</v>
       </c>
       <c r="U32">
-        <v>-9.1499111443144195E-6</v>
+        <v>8.1544827374738227E-4</v>
       </c>
       <c r="V32">
-        <v>-1.4242261530411919E-4</v>
+        <v>-3.0434473930856859E-4</v>
       </c>
       <c r="W32">
-        <v>-1.2763201831042384E-4</v>
+        <v>1.7003452339226649E-5</v>
       </c>
       <c r="X32">
-        <v>-2.2465995396766386E-4</v>
+        <v>-4.137429209814308E-4</v>
       </c>
       <c r="Y32">
-        <v>1.8906095439216122E-6</v>
+        <v>2.7013920656180843E-5</v>
       </c>
       <c r="Z32">
-        <v>-5.367889769297922E-5</v>
+        <v>-7.878238979716642E-5</v>
       </c>
       <c r="AA32">
-        <v>-2.0113831449243184E-5</v>
+        <v>-4.3410768808381127E-6</v>
       </c>
       <c r="AB32">
-        <v>1.6201552979240905E-5</v>
+        <v>1.4040279257729056E-3</v>
       </c>
       <c r="AC32">
-        <v>5.3168664861969858E-5</v>
+        <v>2.8006921631922813E-5</v>
       </c>
       <c r="AD32">
-        <v>4.2550884130963351E-6</v>
+        <v>-9.5617466619221658E-5</v>
       </c>
       <c r="AE32">
-        <v>-6.9419411008520492E-5</v>
+        <v>4.7451106291427486E-5</v>
       </c>
       <c r="AF32">
-        <v>2.625087362016726E-4</v>
+        <v>-5.2267177061783468E-5</v>
       </c>
       <c r="AG32">
-        <v>2.0235867365755566E-3</v>
+        <v>6.3763856460249064E-3</v>
       </c>
       <c r="AH32">
-        <v>7.5791574245162845E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>41</v>
+        <v>3.1223139792201007E-4</v>
+      </c>
+      <c r="AI32">
+        <v>6.2700927030175319E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>-1.575476444378842</v>
+        <v>-0.11165219050019907</v>
       </c>
       <c r="C33">
-        <v>-1.0329705231965363E-3</v>
+        <v>-8.3857411505204268E-6</v>
       </c>
       <c r="D33">
-        <v>-9.732709752149479E-4</v>
+        <v>-5.3401001829849002E-6</v>
       </c>
       <c r="E33">
-        <v>9.5397859539692292E-6</v>
+        <v>3.5739417960129928E-8</v>
       </c>
       <c r="F33">
-        <v>-6.1271293209345309E-3</v>
+        <v>3.9326736813395636E-4</v>
       </c>
       <c r="G33">
-        <v>-4.969223295875627E-3</v>
+        <v>2.514476091574786E-4</v>
       </c>
       <c r="H33">
-        <v>-4.5124274902579959E-3</v>
+        <v>3.9073934265809783E-4</v>
       </c>
       <c r="I33">
-        <v>-6.7547239335546717E-3</v>
+        <v>-8.6370272870860999E-5</v>
       </c>
       <c r="J33">
-        <v>-4.045096064080214E-3</v>
+        <v>2.3812772419591198E-4</v>
       </c>
       <c r="K33">
-        <v>-5.2017010654740476E-3</v>
+        <v>3.1367030446644776E-4</v>
       </c>
       <c r="L33">
-        <v>-2.8564371046624088E-3</v>
+        <v>3.3505175870773732E-4</v>
       </c>
       <c r="M33">
-        <v>-7.2755649555803076E-3</v>
+        <v>-2.102157684431066E-4</v>
       </c>
       <c r="N33">
-        <v>-3.4677280391516001E-3</v>
+        <v>-1.1222199347195522E-4</v>
       </c>
       <c r="O33">
-        <v>-9.7936285023101591E-4</v>
+        <v>2.7228498052549481E-4</v>
       </c>
       <c r="P33">
-        <v>-2.1720112496965756E-3</v>
+        <v>3.1142654573763912E-4</v>
       </c>
       <c r="Q33">
-        <v>-1.0797593252049424E-2</v>
+        <v>2.4117536479581746E-4</v>
       </c>
       <c r="R33">
-        <v>-1.0769085093481214E-2</v>
+        <v>-7.1954808626651257E-5</v>
       </c>
       <c r="S33">
-        <v>-1.1897452914969299E-2</v>
+        <v>-6.9498053543663946E-5</v>
       </c>
       <c r="T33">
-        <v>-1.3275418869167884E-2</v>
+        <v>-1.0224675944311805E-4</v>
       </c>
       <c r="U33">
-        <v>6.3212390940104108E-4</v>
+        <v>-2.9557417715979622E-4</v>
       </c>
       <c r="V33">
-        <v>-1.1217706435791815E-3</v>
+        <v>1.9414487051385159E-6</v>
       </c>
       <c r="W33">
-        <v>-2.0625840458178479E-3</v>
+        <v>-9.6010163130782534E-5</v>
       </c>
       <c r="X33">
-        <v>-2.9565347137606047E-3</v>
+        <v>-2.4966154561283874E-5</v>
       </c>
       <c r="Y33">
-        <v>-4.7664044471839131E-5</v>
+        <v>-3.8444874653800233E-5</v>
       </c>
       <c r="Z33">
-        <v>-6.6480779615363098E-5</v>
+        <v>-3.643446001217829E-6</v>
       </c>
       <c r="AA33">
-        <v>6.9934047007049957E-4</v>
+        <v>-8.3823401668065738E-5</v>
       </c>
       <c r="AB33">
-        <v>-2.2719902394448743E-4</v>
+        <v>-3.9542928370614374E-5</v>
       </c>
       <c r="AC33">
-        <v>-6.0211018127354641E-4</v>
+        <v>-2.8994776501056068E-5</v>
       </c>
       <c r="AD33">
-        <v>-8.1222555267539045E-4</v>
+        <v>1.6787332760798308E-4</v>
       </c>
       <c r="AE33">
-        <v>-2.5888202910448617E-4</v>
+        <v>-2.1885818613790007E-5</v>
       </c>
       <c r="AF33">
-        <v>1.990578413551854E-3</v>
+        <v>-7.2129469137212883E-5</v>
       </c>
       <c r="AG33">
-        <v>7.5791574245162845E-4</v>
+        <v>3.1223139792201007E-4</v>
       </c>
       <c r="AH33">
-        <v>4.7241159291680268E-2</v>
+        <v>2.5658748331472019E-3</v>
+      </c>
+      <c r="AI33">
+        <v>9.0330099095109299E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>-1.4619362409205052</v>
+      </c>
+      <c r="C34">
+        <v>-1.0097613556004923E-3</v>
+      </c>
+      <c r="D34">
+        <v>-6.6625676152621736E-4</v>
+      </c>
+      <c r="E34">
+        <v>5.6242570610441148E-6</v>
+      </c>
+      <c r="F34">
+        <v>-6.3816626722095846E-3</v>
+      </c>
+      <c r="G34">
+        <v>-4.9778879366692112E-3</v>
+      </c>
+      <c r="H34">
+        <v>-6.0068388825839109E-3</v>
+      </c>
+      <c r="I34">
+        <v>-8.3276544871487054E-3</v>
+      </c>
+      <c r="J34">
+        <v>-5.5623260142673454E-3</v>
+      </c>
+      <c r="K34">
+        <v>-5.8567000249403105E-3</v>
+      </c>
+      <c r="L34">
+        <v>-6.3754335886697898E-3</v>
+      </c>
+      <c r="M34">
+        <v>-7.1928328451068332E-3</v>
+      </c>
+      <c r="N34">
+        <v>-2.8232882791438436E-3</v>
+      </c>
+      <c r="O34">
+        <v>-1.0319212385375008E-3</v>
+      </c>
+      <c r="P34">
+        <v>-5.8954971789620557E-4</v>
+      </c>
+      <c r="Q34">
+        <v>-1.4858645671962465E-3</v>
+      </c>
+      <c r="R34">
+        <v>-5.212041490429576E-3</v>
+      </c>
+      <c r="S34">
+        <v>-4.8242525906864349E-3</v>
+      </c>
+      <c r="T34">
+        <v>-6.0099414587628259E-3</v>
+      </c>
+      <c r="U34">
+        <v>-8.5468179151101283E-3</v>
+      </c>
+      <c r="V34">
+        <v>-1.2639579208041389E-3</v>
+      </c>
+      <c r="W34">
+        <v>-2.3063401908713496E-3</v>
+      </c>
+      <c r="X34">
+        <v>-3.6031634998935939E-3</v>
+      </c>
+      <c r="Y34">
+        <v>-4.4680593374207571E-3</v>
+      </c>
+      <c r="Z34">
+        <v>1.1928478629545501E-5</v>
+      </c>
+      <c r="AA34">
+        <v>-1.5269908431510834E-5</v>
+      </c>
+      <c r="AB34">
+        <v>-3.641020609104575E-4</v>
+      </c>
+      <c r="AC34">
+        <v>-2.315135107170789E-4</v>
+      </c>
+      <c r="AD34">
+        <v>-4.9493725504928072E-4</v>
+      </c>
+      <c r="AE34">
+        <v>-7.23857348972636E-4</v>
+      </c>
+      <c r="AF34">
+        <v>-2.9877450971993826E-4</v>
+      </c>
+      <c r="AG34">
+        <v>6.2700927030175319E-4</v>
+      </c>
+      <c r="AH34">
+        <v>9.0330099095109299E-4</v>
+      </c>
+      <c r="AI34">
+        <v>3.9082806156102379E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/input/PL/reg_home_ownership.xlsx
+++ b/input/PL/reg_home_ownership.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E57BE9B34970E9C327CFAE6D47DE1E52D7B14615" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EA329F-7905-4F48-B5E3-2077E43F9FC9}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/InitPopAfterFEB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E57BE9B34970E9C327CFAE6D47DE1E52D7B14615" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7CF4EF-694A-7D49-ADC4-3B9A85B4FFD0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Description:</t>
   </si>
@@ -195,16 +200,13 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -213,6 +215,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +248,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -410,7 +413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,13 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -584,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -592,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -600,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -608,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -616,12 +619,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -637,19 +640,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -663,7 +666,7 @@
         <v>23243.354381519712</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -684,13 +687,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -796,11 +801,8 @@
       <c r="AI1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -907,7 +909,7 @@
         <v>-1.0097613556004923E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>-6.6625676152621736E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>5.6242570610441148E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>-6.3816626722095846E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>-4.9778879366692112E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>-6.0068388825839109E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>-8.3276544871487054E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>-5.5623260142673454E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>-5.8567000249403105E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>-6.3754335886697898E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>-7.1928328451068332E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>-2.8232882791438436E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2191,7 +2193,7 @@
         <v>-1.0319212385375008E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>-5.8954971789620557E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>-1.4858645671962465E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>-5.212041490429576E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>-4.8242525906864349E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>-6.0099414587628259E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>-8.5468179151101283E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>-1.2639579208041389E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>-2.3063401908713496E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>-3.6031634998935939E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>-4.4680593374207571E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>1.1928478629545501E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>-1.5269908431510834E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3582,7 +3584,7 @@
         <v>-3.641020609104575E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>-2.315135107170789E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>-4.9493725504928072E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>-7.23857348972636E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>-2.9877450971993826E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>6.2700927030175319E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>9.0330099095109299E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
